--- a/ha-asset/01_design/05_rootapi/設計書_5.10.問い合わせ情報API.xlsx
+++ b/ha-asset/01_design/05_rootapi/設計書_5.10.問い合わせ情報API.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\01_design\05_rootapi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8C2D4D-1EEB-40E0-BF29-2E3CEF5B6CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0134E293-D11C-490A-8B86-ADBE1E203C15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15" yWindow="255" windowWidth="21435" windowHeight="15150" tabRatio="776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0.更新履歴" sheetId="1" r:id="rId1"/>
@@ -2001,8 +2001,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2013,9 +2019,73 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2023,7 +2093,6 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2039,76 +2108,65 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2143,73 +2201,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2227,6 +2218,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3326,6 +3326,66 @@
     </row>
   </sheetData>
   <mergeCells count="69">
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:Z24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:Z25"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="J11:Z11"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:Z9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="J10:Z10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:Z8"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:Z6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:Z7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:Z5"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:Z3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:Z4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:Z23"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:Z21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:Z22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:Z20"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:Z18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:Z19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:Z17"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:Z15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:Z16"/>
+    <mergeCell ref="B17:E17"/>
     <mergeCell ref="F14:I14"/>
     <mergeCell ref="J14:Z14"/>
     <mergeCell ref="B12:E12"/>
@@ -3335,66 +3395,6 @@
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="J13:Z13"/>
     <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:Z17"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:Z15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:Z16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:Z20"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:Z18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:Z19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:Z23"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:Z21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:Z22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J5:Z5"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:Z3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:Z4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:Z8"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:Z6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:Z7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="J11:Z11"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:Z9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="J10:Z10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:Z24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:Z25"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5673,7 +5673,7 @@
     <row r="7" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A7" s="2"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="130" t="s">
+      <c r="C7" s="100" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="79"/>
@@ -5681,7 +5681,7 @@
       <c r="F7" s="79"/>
       <c r="G7" s="79"/>
       <c r="H7" s="80"/>
-      <c r="I7" s="92" t="s">
+      <c r="I7" s="88" t="s">
         <v>38</v>
       </c>
       <c r="J7" s="79"/>
@@ -5747,7 +5747,7 @@
     <row r="8" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A8" s="2"/>
       <c r="B8" s="13"/>
-      <c r="C8" s="130" t="s">
+      <c r="C8" s="100" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="79"/>
@@ -5755,7 +5755,7 @@
       <c r="F8" s="79"/>
       <c r="G8" s="79"/>
       <c r="H8" s="80"/>
-      <c r="I8" s="92" t="s">
+      <c r="I8" s="88" t="s">
         <v>24</v>
       </c>
       <c r="J8" s="79"/>
@@ -5821,7 +5821,7 @@
     <row r="9" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A9" s="2"/>
       <c r="B9" s="13"/>
-      <c r="C9" s="130" t="s">
+      <c r="C9" s="100" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="79"/>
@@ -5829,7 +5829,7 @@
       <c r="F9" s="79"/>
       <c r="G9" s="79"/>
       <c r="H9" s="80"/>
-      <c r="I9" s="92" t="s">
+      <c r="I9" s="88" t="s">
         <v>26</v>
       </c>
       <c r="J9" s="79"/>
@@ -5895,75 +5895,75 @@
     <row r="10" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A10" s="32"/>
       <c r="B10" s="33"/>
-      <c r="C10" s="130" t="s">
+      <c r="C10" s="100" t="s">
         <v>193</v>
       </c>
-      <c r="D10" s="131"/>
-      <c r="E10" s="131"/>
-      <c r="F10" s="131"/>
-      <c r="G10" s="131"/>
-      <c r="H10" s="131"/>
-      <c r="I10" s="132" t="s">
+      <c r="D10" s="102"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="103" t="s">
         <v>83</v>
       </c>
-      <c r="J10" s="132"/>
-      <c r="K10" s="132"/>
-      <c r="L10" s="132"/>
-      <c r="M10" s="132"/>
-      <c r="N10" s="132"/>
-      <c r="O10" s="132"/>
-      <c r="P10" s="132"/>
-      <c r="Q10" s="132"/>
-      <c r="R10" s="132"/>
-      <c r="S10" s="132"/>
-      <c r="T10" s="132"/>
-      <c r="U10" s="132"/>
-      <c r="V10" s="132"/>
-      <c r="W10" s="132"/>
-      <c r="X10" s="132"/>
-      <c r="Y10" s="132"/>
-      <c r="Z10" s="132"/>
-      <c r="AA10" s="132"/>
-      <c r="AB10" s="132"/>
-      <c r="AC10" s="132"/>
-      <c r="AD10" s="132"/>
-      <c r="AE10" s="132"/>
-      <c r="AF10" s="132"/>
-      <c r="AG10" s="132"/>
-      <c r="AH10" s="132"/>
-      <c r="AI10" s="132"/>
-      <c r="AJ10" s="132"/>
-      <c r="AK10" s="132"/>
-      <c r="AL10" s="132"/>
-      <c r="AM10" s="132"/>
-      <c r="AN10" s="132"/>
-      <c r="AO10" s="132"/>
-      <c r="AP10" s="132"/>
-      <c r="AQ10" s="132"/>
-      <c r="AR10" s="132"/>
-      <c r="AS10" s="132"/>
-      <c r="AT10" s="132"/>
-      <c r="AU10" s="132"/>
-      <c r="AV10" s="132"/>
-      <c r="AW10" s="132"/>
-      <c r="AX10" s="132"/>
-      <c r="AY10" s="132"/>
-      <c r="AZ10" s="132"/>
-      <c r="BA10" s="132"/>
-      <c r="BB10" s="132"/>
-      <c r="BC10" s="132"/>
-      <c r="BD10" s="132"/>
-      <c r="BE10" s="132"/>
-      <c r="BF10" s="132"/>
-      <c r="BG10" s="132"/>
-      <c r="BH10" s="132"/>
-      <c r="BI10" s="132"/>
-      <c r="BJ10" s="132"/>
-      <c r="BK10" s="132"/>
-      <c r="BL10" s="132"/>
-      <c r="BM10" s="132"/>
-      <c r="BN10" s="132"/>
-      <c r="BO10" s="132"/>
+      <c r="J10" s="103"/>
+      <c r="K10" s="103"/>
+      <c r="L10" s="103"/>
+      <c r="M10" s="103"/>
+      <c r="N10" s="103"/>
+      <c r="O10" s="103"/>
+      <c r="P10" s="103"/>
+      <c r="Q10" s="103"/>
+      <c r="R10" s="103"/>
+      <c r="S10" s="103"/>
+      <c r="T10" s="103"/>
+      <c r="U10" s="103"/>
+      <c r="V10" s="103"/>
+      <c r="W10" s="103"/>
+      <c r="X10" s="103"/>
+      <c r="Y10" s="103"/>
+      <c r="Z10" s="103"/>
+      <c r="AA10" s="103"/>
+      <c r="AB10" s="103"/>
+      <c r="AC10" s="103"/>
+      <c r="AD10" s="103"/>
+      <c r="AE10" s="103"/>
+      <c r="AF10" s="103"/>
+      <c r="AG10" s="103"/>
+      <c r="AH10" s="103"/>
+      <c r="AI10" s="103"/>
+      <c r="AJ10" s="103"/>
+      <c r="AK10" s="103"/>
+      <c r="AL10" s="103"/>
+      <c r="AM10" s="103"/>
+      <c r="AN10" s="103"/>
+      <c r="AO10" s="103"/>
+      <c r="AP10" s="103"/>
+      <c r="AQ10" s="103"/>
+      <c r="AR10" s="103"/>
+      <c r="AS10" s="103"/>
+      <c r="AT10" s="103"/>
+      <c r="AU10" s="103"/>
+      <c r="AV10" s="103"/>
+      <c r="AW10" s="103"/>
+      <c r="AX10" s="103"/>
+      <c r="AY10" s="103"/>
+      <c r="AZ10" s="103"/>
+      <c r="BA10" s="103"/>
+      <c r="BB10" s="103"/>
+      <c r="BC10" s="103"/>
+      <c r="BD10" s="103"/>
+      <c r="BE10" s="103"/>
+      <c r="BF10" s="103"/>
+      <c r="BG10" s="103"/>
+      <c r="BH10" s="103"/>
+      <c r="BI10" s="103"/>
+      <c r="BJ10" s="103"/>
+      <c r="BK10" s="103"/>
+      <c r="BL10" s="103"/>
+      <c r="BM10" s="103"/>
+      <c r="BN10" s="103"/>
+      <c r="BO10" s="103"/>
       <c r="BP10" s="32"/>
     </row>
     <row r="11" spans="1:68" ht="16.5" outlineLevel="1">
@@ -6042,14 +6042,14 @@
       <c r="A12" s="2"/>
       <c r="B12" s="13"/>
       <c r="C12" s="17"/>
-      <c r="D12" s="92" t="s">
+      <c r="D12" s="88" t="s">
         <v>73</v>
       </c>
       <c r="E12" s="79"/>
       <c r="F12" s="79"/>
       <c r="G12" s="79"/>
       <c r="H12" s="80"/>
-      <c r="I12" s="105" t="s">
+      <c r="I12" s="94" t="s">
         <v>74</v>
       </c>
       <c r="J12" s="79"/>
@@ -6114,11 +6114,11 @@
     </row>
     <row r="13" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A13" s="2"/>
-      <c r="B13" s="135" t="s">
+      <c r="B13" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="96"/>
-      <c r="D13" s="96"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="105"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
@@ -6221,7 +6221,7 @@
       <c r="AB14" s="79"/>
       <c r="AC14" s="79"/>
       <c r="AD14" s="80"/>
-      <c r="AE14" s="130" t="s">
+      <c r="AE14" s="100" t="s">
         <v>20</v>
       </c>
       <c r="AF14" s="79"/>
@@ -6269,7 +6269,7 @@
     <row r="15" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A15" s="2"/>
       <c r="B15" s="13"/>
-      <c r="C15" s="92" t="s">
+      <c r="C15" s="88" t="s">
         <v>116</v>
       </c>
       <c r="D15" s="79"/>
@@ -6303,12 +6303,12 @@
       <c r="AB15" s="79"/>
       <c r="AC15" s="79"/>
       <c r="AD15" s="80"/>
-      <c r="AE15" s="92"/>
+      <c r="AE15" s="88"/>
       <c r="AF15" s="79"/>
       <c r="AG15" s="80"/>
-      <c r="AH15" s="89"/>
-      <c r="AI15" s="90"/>
-      <c r="AJ15" s="91"/>
+      <c r="AH15" s="91"/>
+      <c r="AI15" s="92"/>
+      <c r="AJ15" s="93"/>
       <c r="AK15" s="87"/>
       <c r="AL15" s="79"/>
       <c r="AM15" s="79"/>
@@ -6344,11 +6344,11 @@
     </row>
     <row r="16" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A16" s="2"/>
-      <c r="B16" s="135" t="s">
+      <c r="B16" s="110" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="96"/>
-      <c r="D16" s="96"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="105"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
@@ -6451,7 +6451,7 @@
       <c r="AB17" s="79"/>
       <c r="AC17" s="79"/>
       <c r="AD17" s="80"/>
-      <c r="AE17" s="130" t="s">
+      <c r="AE17" s="100" t="s">
         <v>20</v>
       </c>
       <c r="AF17" s="79"/>
@@ -6499,7 +6499,7 @@
     <row r="18" spans="1:68" ht="33" customHeight="1" outlineLevel="1">
       <c r="A18" s="2"/>
       <c r="B18" s="13"/>
-      <c r="C18" s="92" t="s">
+      <c r="C18" s="88" t="s">
         <v>75</v>
       </c>
       <c r="D18" s="79"/>
@@ -6533,15 +6533,15 @@
       <c r="AB18" s="79"/>
       <c r="AC18" s="79"/>
       <c r="AD18" s="80"/>
-      <c r="AE18" s="92">
+      <c r="AE18" s="88">
         <v>1</v>
       </c>
       <c r="AF18" s="79"/>
       <c r="AG18" s="80"/>
-      <c r="AH18" s="89"/>
-      <c r="AI18" s="90"/>
-      <c r="AJ18" s="91"/>
-      <c r="AK18" s="113" t="s">
+      <c r="AH18" s="91"/>
+      <c r="AI18" s="92"/>
+      <c r="AJ18" s="93"/>
+      <c r="AK18" s="101" t="s">
         <v>76</v>
       </c>
       <c r="AL18" s="79"/>
@@ -6611,14 +6611,14 @@
       <c r="AB19" s="79"/>
       <c r="AC19" s="79"/>
       <c r="AD19" s="80"/>
-      <c r="AE19" s="92"/>
+      <c r="AE19" s="88"/>
       <c r="AF19" s="79"/>
       <c r="AG19" s="80"/>
-      <c r="AH19" s="89" t="s">
+      <c r="AH19" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="AI19" s="90"/>
-      <c r="AJ19" s="91"/>
+      <c r="AI19" s="92"/>
+      <c r="AJ19" s="93"/>
       <c r="AK19" s="87" t="s">
         <v>77</v>
       </c>
@@ -6658,21 +6658,21 @@
       <c r="A20" s="2"/>
       <c r="B20" s="13"/>
       <c r="C20" s="41"/>
-      <c r="D20" s="92" t="s">
+      <c r="D20" s="88" t="s">
         <v>78</v>
       </c>
-      <c r="E20" s="105"/>
-      <c r="F20" s="105"/>
-      <c r="G20" s="105"/>
-      <c r="H20" s="105"/>
-      <c r="I20" s="105"/>
-      <c r="J20" s="105"/>
-      <c r="K20" s="105"/>
-      <c r="L20" s="105"/>
-      <c r="M20" s="105"/>
-      <c r="N20" s="105"/>
-      <c r="O20" s="105"/>
-      <c r="P20" s="107"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="94"/>
+      <c r="G20" s="94"/>
+      <c r="H20" s="94"/>
+      <c r="I20" s="94"/>
+      <c r="J20" s="94"/>
+      <c r="K20" s="94"/>
+      <c r="L20" s="94"/>
+      <c r="M20" s="94"/>
+      <c r="N20" s="94"/>
+      <c r="O20" s="94"/>
+      <c r="P20" s="95"/>
       <c r="Q20" s="87" t="s">
         <v>95</v>
       </c>
@@ -6689,12 +6689,12 @@
       <c r="AB20" s="79"/>
       <c r="AC20" s="79"/>
       <c r="AD20" s="80"/>
-      <c r="AE20" s="92"/>
+      <c r="AE20" s="88"/>
       <c r="AF20" s="79"/>
       <c r="AG20" s="80"/>
-      <c r="AH20" s="89"/>
-      <c r="AI20" s="90"/>
-      <c r="AJ20" s="91"/>
+      <c r="AH20" s="91"/>
+      <c r="AI20" s="92"/>
+      <c r="AJ20" s="93"/>
       <c r="AK20" s="87"/>
       <c r="AL20" s="79"/>
       <c r="AM20" s="79"/>
@@ -6763,14 +6763,14 @@
       <c r="AB21" s="79"/>
       <c r="AC21" s="79"/>
       <c r="AD21" s="80"/>
-      <c r="AE21" s="92"/>
+      <c r="AE21" s="88"/>
       <c r="AF21" s="79"/>
       <c r="AG21" s="80"/>
-      <c r="AH21" s="89" t="s">
+      <c r="AH21" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="AI21" s="90"/>
-      <c r="AJ21" s="91"/>
+      <c r="AI21" s="92"/>
+      <c r="AJ21" s="93"/>
       <c r="AK21" s="87" t="s">
         <v>97</v>
       </c>
@@ -6810,21 +6810,21 @@
       <c r="A22" s="2"/>
       <c r="B22" s="13"/>
       <c r="C22" s="24"/>
-      <c r="D22" s="92" t="s">
+      <c r="D22" s="88" t="s">
         <v>88</v>
       </c>
-      <c r="E22" s="105"/>
-      <c r="F22" s="105"/>
-      <c r="G22" s="105"/>
-      <c r="H22" s="105"/>
-      <c r="I22" s="105"/>
-      <c r="J22" s="105"/>
-      <c r="K22" s="105"/>
-      <c r="L22" s="105"/>
-      <c r="M22" s="105"/>
-      <c r="N22" s="105"/>
-      <c r="O22" s="105"/>
-      <c r="P22" s="107"/>
+      <c r="E22" s="94"/>
+      <c r="F22" s="94"/>
+      <c r="G22" s="94"/>
+      <c r="H22" s="94"/>
+      <c r="I22" s="94"/>
+      <c r="J22" s="94"/>
+      <c r="K22" s="94"/>
+      <c r="L22" s="94"/>
+      <c r="M22" s="94"/>
+      <c r="N22" s="94"/>
+      <c r="O22" s="94"/>
+      <c r="P22" s="95"/>
       <c r="Q22" s="87" t="s">
         <v>36</v>
       </c>
@@ -6841,12 +6841,12 @@
       <c r="AB22" s="79"/>
       <c r="AC22" s="79"/>
       <c r="AD22" s="80"/>
-      <c r="AE22" s="92"/>
+      <c r="AE22" s="88"/>
       <c r="AF22" s="79"/>
       <c r="AG22" s="80"/>
-      <c r="AH22" s="89"/>
-      <c r="AI22" s="90"/>
-      <c r="AJ22" s="91"/>
+      <c r="AH22" s="91"/>
+      <c r="AI22" s="92"/>
+      <c r="AJ22" s="93"/>
       <c r="AK22" s="87"/>
       <c r="AL22" s="79"/>
       <c r="AM22" s="79"/>
@@ -6884,21 +6884,21 @@
       <c r="A23" s="2"/>
       <c r="B23" s="13"/>
       <c r="C23" s="24"/>
-      <c r="D23" s="117" t="s">
+      <c r="D23" s="97" t="s">
         <v>87</v>
       </c>
-      <c r="E23" s="118"/>
-      <c r="F23" s="118"/>
-      <c r="G23" s="118"/>
-      <c r="H23" s="118"/>
-      <c r="I23" s="118"/>
-      <c r="J23" s="118"/>
-      <c r="K23" s="118"/>
-      <c r="L23" s="118"/>
-      <c r="M23" s="118"/>
-      <c r="N23" s="118"/>
-      <c r="O23" s="118"/>
-      <c r="P23" s="119"/>
+      <c r="E23" s="98"/>
+      <c r="F23" s="98"/>
+      <c r="G23" s="98"/>
+      <c r="H23" s="98"/>
+      <c r="I23" s="98"/>
+      <c r="J23" s="98"/>
+      <c r="K23" s="98"/>
+      <c r="L23" s="98"/>
+      <c r="M23" s="98"/>
+      <c r="N23" s="98"/>
+      <c r="O23" s="98"/>
+      <c r="P23" s="99"/>
       <c r="Q23" s="87" t="s">
         <v>36</v>
       </c>
@@ -6915,12 +6915,12 @@
       <c r="AB23" s="79"/>
       <c r="AC23" s="79"/>
       <c r="AD23" s="80"/>
-      <c r="AE23" s="92"/>
+      <c r="AE23" s="88"/>
       <c r="AF23" s="79"/>
       <c r="AG23" s="80"/>
-      <c r="AH23" s="89"/>
-      <c r="AI23" s="90"/>
-      <c r="AJ23" s="91"/>
+      <c r="AH23" s="91"/>
+      <c r="AI23" s="92"/>
+      <c r="AJ23" s="93"/>
       <c r="AK23" s="87" t="s">
         <v>143</v>
       </c>
@@ -6960,21 +6960,21 @@
       <c r="A24" s="2"/>
       <c r="B24" s="13"/>
       <c r="C24" s="24"/>
-      <c r="D24" s="117" t="s">
+      <c r="D24" s="97" t="s">
         <v>96</v>
       </c>
-      <c r="E24" s="118"/>
-      <c r="F24" s="118"/>
-      <c r="G24" s="118"/>
-      <c r="H24" s="118"/>
-      <c r="I24" s="118"/>
-      <c r="J24" s="118"/>
-      <c r="K24" s="118"/>
-      <c r="L24" s="118"/>
-      <c r="M24" s="118"/>
-      <c r="N24" s="118"/>
-      <c r="O24" s="118"/>
-      <c r="P24" s="119"/>
+      <c r="E24" s="98"/>
+      <c r="F24" s="98"/>
+      <c r="G24" s="98"/>
+      <c r="H24" s="98"/>
+      <c r="I24" s="98"/>
+      <c r="J24" s="98"/>
+      <c r="K24" s="98"/>
+      <c r="L24" s="98"/>
+      <c r="M24" s="98"/>
+      <c r="N24" s="98"/>
+      <c r="O24" s="98"/>
+      <c r="P24" s="99"/>
       <c r="Q24" s="87" t="s">
         <v>36</v>
       </c>
@@ -6991,12 +6991,12 @@
       <c r="AB24" s="79"/>
       <c r="AC24" s="79"/>
       <c r="AD24" s="80"/>
-      <c r="AE24" s="92"/>
+      <c r="AE24" s="88"/>
       <c r="AF24" s="79"/>
       <c r="AG24" s="80"/>
-      <c r="AH24" s="89"/>
-      <c r="AI24" s="90"/>
-      <c r="AJ24" s="91"/>
+      <c r="AH24" s="91"/>
+      <c r="AI24" s="92"/>
+      <c r="AJ24" s="93"/>
       <c r="AK24" s="87" t="s">
         <v>142</v>
       </c>
@@ -7065,12 +7065,12 @@
       <c r="AB25" s="79"/>
       <c r="AC25" s="79"/>
       <c r="AD25" s="80"/>
-      <c r="AE25" s="92"/>
+      <c r="AE25" s="88"/>
       <c r="AF25" s="79"/>
       <c r="AG25" s="80"/>
-      <c r="AH25" s="89"/>
-      <c r="AI25" s="90"/>
-      <c r="AJ25" s="91"/>
+      <c r="AH25" s="91"/>
+      <c r="AI25" s="92"/>
+      <c r="AJ25" s="93"/>
       <c r="AK25" s="87"/>
       <c r="AL25" s="79"/>
       <c r="AM25" s="79"/>
@@ -7139,14 +7139,14 @@
       <c r="AB26" s="79"/>
       <c r="AC26" s="79"/>
       <c r="AD26" s="80"/>
-      <c r="AE26" s="92">
+      <c r="AE26" s="88">
         <v>2</v>
       </c>
       <c r="AF26" s="79"/>
       <c r="AG26" s="80"/>
-      <c r="AH26" s="89"/>
-      <c r="AI26" s="90"/>
-      <c r="AJ26" s="91"/>
+      <c r="AH26" s="91"/>
+      <c r="AI26" s="92"/>
+      <c r="AJ26" s="93"/>
       <c r="AK26" s="87"/>
       <c r="AL26" s="79"/>
       <c r="AM26" s="79"/>
@@ -7215,12 +7215,12 @@
       <c r="AB27" s="79"/>
       <c r="AC27" s="79"/>
       <c r="AD27" s="80"/>
-      <c r="AE27" s="92"/>
+      <c r="AE27" s="88"/>
       <c r="AF27" s="79"/>
       <c r="AG27" s="80"/>
-      <c r="AH27" s="89"/>
-      <c r="AI27" s="90"/>
-      <c r="AJ27" s="91"/>
+      <c r="AH27" s="91"/>
+      <c r="AI27" s="92"/>
+      <c r="AJ27" s="93"/>
       <c r="AK27" s="87"/>
       <c r="AL27" s="79"/>
       <c r="AM27" s="79"/>
@@ -7287,12 +7287,12 @@
       <c r="AB28" s="79"/>
       <c r="AC28" s="79"/>
       <c r="AD28" s="80"/>
-      <c r="AE28" s="92"/>
+      <c r="AE28" s="88"/>
       <c r="AF28" s="79"/>
       <c r="AG28" s="80"/>
-      <c r="AH28" s="89"/>
-      <c r="AI28" s="90"/>
-      <c r="AJ28" s="91"/>
+      <c r="AH28" s="91"/>
+      <c r="AI28" s="92"/>
+      <c r="AJ28" s="93"/>
       <c r="AK28" s="87"/>
       <c r="AL28" s="79"/>
       <c r="AM28" s="79"/>
@@ -7361,14 +7361,14 @@
       <c r="AB29" s="79"/>
       <c r="AC29" s="79"/>
       <c r="AD29" s="80"/>
-      <c r="AE29" s="92">
+      <c r="AE29" s="88">
         <v>2</v>
       </c>
       <c r="AF29" s="79"/>
       <c r="AG29" s="80"/>
-      <c r="AH29" s="89"/>
-      <c r="AI29" s="90"/>
-      <c r="AJ29" s="91"/>
+      <c r="AH29" s="91"/>
+      <c r="AI29" s="92"/>
+      <c r="AJ29" s="93"/>
       <c r="AK29" s="87"/>
       <c r="AL29" s="79"/>
       <c r="AM29" s="79"/>
@@ -7437,12 +7437,12 @@
       <c r="AB30" s="79"/>
       <c r="AC30" s="79"/>
       <c r="AD30" s="80"/>
-      <c r="AE30" s="92"/>
+      <c r="AE30" s="88"/>
       <c r="AF30" s="79"/>
       <c r="AG30" s="80"/>
-      <c r="AH30" s="89"/>
-      <c r="AI30" s="90"/>
-      <c r="AJ30" s="91"/>
+      <c r="AH30" s="91"/>
+      <c r="AI30" s="92"/>
+      <c r="AJ30" s="93"/>
       <c r="AK30" s="87"/>
       <c r="AL30" s="79"/>
       <c r="AM30" s="79"/>
@@ -7480,21 +7480,21 @@
       <c r="A31" s="2"/>
       <c r="B31" s="13"/>
       <c r="C31" s="24"/>
-      <c r="D31" s="92" t="s">
+      <c r="D31" s="88" t="s">
         <v>91</v>
       </c>
-      <c r="E31" s="105"/>
-      <c r="F31" s="105"/>
-      <c r="G31" s="105"/>
-      <c r="H31" s="105"/>
-      <c r="I31" s="105"/>
-      <c r="J31" s="105"/>
-      <c r="K31" s="105"/>
-      <c r="L31" s="105"/>
-      <c r="M31" s="105"/>
-      <c r="N31" s="105"/>
-      <c r="O31" s="105"/>
-      <c r="P31" s="107"/>
+      <c r="E31" s="94"/>
+      <c r="F31" s="94"/>
+      <c r="G31" s="94"/>
+      <c r="H31" s="94"/>
+      <c r="I31" s="94"/>
+      <c r="J31" s="94"/>
+      <c r="K31" s="94"/>
+      <c r="L31" s="94"/>
+      <c r="M31" s="94"/>
+      <c r="N31" s="94"/>
+      <c r="O31" s="94"/>
+      <c r="P31" s="95"/>
       <c r="Q31" s="87" t="s">
         <v>95</v>
       </c>
@@ -7511,12 +7511,12 @@
       <c r="AB31" s="79"/>
       <c r="AC31" s="79"/>
       <c r="AD31" s="80"/>
-      <c r="AE31" s="92"/>
+      <c r="AE31" s="88"/>
       <c r="AF31" s="79"/>
       <c r="AG31" s="80"/>
-      <c r="AH31" s="89"/>
-      <c r="AI31" s="90"/>
-      <c r="AJ31" s="91"/>
+      <c r="AH31" s="91"/>
+      <c r="AI31" s="92"/>
+      <c r="AJ31" s="93"/>
       <c r="AK31" s="87"/>
       <c r="AL31" s="79"/>
       <c r="AM31" s="79"/>
@@ -7554,21 +7554,21 @@
       <c r="A32" s="2"/>
       <c r="B32" s="13"/>
       <c r="C32" s="24"/>
-      <c r="D32" s="92" t="s">
+      <c r="D32" s="88" t="s">
         <v>94</v>
       </c>
-      <c r="E32" s="105"/>
-      <c r="F32" s="105"/>
-      <c r="G32" s="105"/>
-      <c r="H32" s="105"/>
-      <c r="I32" s="105"/>
-      <c r="J32" s="105"/>
-      <c r="K32" s="105"/>
-      <c r="L32" s="105"/>
-      <c r="M32" s="105"/>
-      <c r="N32" s="105"/>
-      <c r="O32" s="105"/>
-      <c r="P32" s="107"/>
+      <c r="E32" s="94"/>
+      <c r="F32" s="94"/>
+      <c r="G32" s="94"/>
+      <c r="H32" s="94"/>
+      <c r="I32" s="94"/>
+      <c r="J32" s="94"/>
+      <c r="K32" s="94"/>
+      <c r="L32" s="94"/>
+      <c r="M32" s="94"/>
+      <c r="N32" s="94"/>
+      <c r="O32" s="94"/>
+      <c r="P32" s="95"/>
       <c r="Q32" s="87" t="s">
         <v>95</v>
       </c>
@@ -7585,12 +7585,12 @@
       <c r="AB32" s="79"/>
       <c r="AC32" s="79"/>
       <c r="AD32" s="80"/>
-      <c r="AE32" s="92"/>
+      <c r="AE32" s="88"/>
       <c r="AF32" s="79"/>
       <c r="AG32" s="80"/>
-      <c r="AH32" s="89"/>
-      <c r="AI32" s="90"/>
-      <c r="AJ32" s="91"/>
+      <c r="AH32" s="91"/>
+      <c r="AI32" s="92"/>
+      <c r="AJ32" s="93"/>
       <c r="AK32" s="87"/>
       <c r="AL32" s="79"/>
       <c r="AM32" s="79"/>
@@ -7628,21 +7628,21 @@
       <c r="A33" s="2"/>
       <c r="B33" s="13"/>
       <c r="C33" s="24"/>
-      <c r="D33" s="92" t="s">
+      <c r="D33" s="88" t="s">
         <v>92</v>
       </c>
-      <c r="E33" s="105"/>
-      <c r="F33" s="105"/>
-      <c r="G33" s="105"/>
-      <c r="H33" s="105"/>
-      <c r="I33" s="105"/>
-      <c r="J33" s="105"/>
-      <c r="K33" s="105"/>
-      <c r="L33" s="105"/>
-      <c r="M33" s="105"/>
-      <c r="N33" s="105"/>
-      <c r="O33" s="105"/>
-      <c r="P33" s="107"/>
+      <c r="E33" s="94"/>
+      <c r="F33" s="94"/>
+      <c r="G33" s="94"/>
+      <c r="H33" s="94"/>
+      <c r="I33" s="94"/>
+      <c r="J33" s="94"/>
+      <c r="K33" s="94"/>
+      <c r="L33" s="94"/>
+      <c r="M33" s="94"/>
+      <c r="N33" s="94"/>
+      <c r="O33" s="94"/>
+      <c r="P33" s="95"/>
       <c r="Q33" s="87" t="s">
         <v>68</v>
       </c>
@@ -7659,12 +7659,12 @@
       <c r="AB33" s="79"/>
       <c r="AC33" s="79"/>
       <c r="AD33" s="80"/>
-      <c r="AE33" s="92"/>
+      <c r="AE33" s="88"/>
       <c r="AF33" s="79"/>
       <c r="AG33" s="80"/>
-      <c r="AH33" s="89"/>
-      <c r="AI33" s="90"/>
-      <c r="AJ33" s="91"/>
+      <c r="AH33" s="91"/>
+      <c r="AI33" s="92"/>
+      <c r="AJ33" s="93"/>
       <c r="AK33" s="87"/>
       <c r="AL33" s="79"/>
       <c r="AM33" s="79"/>
@@ -7733,12 +7733,12 @@
       <c r="AB34" s="79"/>
       <c r="AC34" s="79"/>
       <c r="AD34" s="80"/>
-      <c r="AE34" s="92"/>
+      <c r="AE34" s="88"/>
       <c r="AF34" s="79"/>
       <c r="AG34" s="80"/>
-      <c r="AH34" s="89"/>
-      <c r="AI34" s="90"/>
-      <c r="AJ34" s="91"/>
+      <c r="AH34" s="91"/>
+      <c r="AI34" s="92"/>
+      <c r="AJ34" s="93"/>
       <c r="AK34" s="87"/>
       <c r="AL34" s="79"/>
       <c r="AM34" s="79"/>
@@ -7807,12 +7807,12 @@
       <c r="AB35" s="79"/>
       <c r="AC35" s="79"/>
       <c r="AD35" s="80"/>
-      <c r="AE35" s="92"/>
+      <c r="AE35" s="88"/>
       <c r="AF35" s="79"/>
       <c r="AG35" s="80"/>
-      <c r="AH35" s="89"/>
-      <c r="AI35" s="90"/>
-      <c r="AJ35" s="91"/>
+      <c r="AH35" s="91"/>
+      <c r="AI35" s="92"/>
+      <c r="AJ35" s="93"/>
       <c r="AK35" s="87" t="s">
         <v>97</v>
       </c>
@@ -7883,12 +7883,12 @@
       <c r="AB36" s="79"/>
       <c r="AC36" s="79"/>
       <c r="AD36" s="80"/>
-      <c r="AE36" s="92"/>
+      <c r="AE36" s="88"/>
       <c r="AF36" s="79"/>
       <c r="AG36" s="80"/>
-      <c r="AH36" s="89"/>
-      <c r="AI36" s="90"/>
-      <c r="AJ36" s="91"/>
+      <c r="AH36" s="91"/>
+      <c r="AI36" s="92"/>
+      <c r="AJ36" s="93"/>
       <c r="AK36" s="87"/>
       <c r="AL36" s="79"/>
       <c r="AM36" s="79"/>
@@ -7957,12 +7957,12 @@
       <c r="AB37" s="79"/>
       <c r="AC37" s="79"/>
       <c r="AD37" s="80"/>
-      <c r="AE37" s="92"/>
+      <c r="AE37" s="88"/>
       <c r="AF37" s="79"/>
       <c r="AG37" s="80"/>
-      <c r="AH37" s="89"/>
-      <c r="AI37" s="90"/>
-      <c r="AJ37" s="91"/>
+      <c r="AH37" s="91"/>
+      <c r="AI37" s="92"/>
+      <c r="AJ37" s="93"/>
       <c r="AK37" s="87"/>
       <c r="AL37" s="79"/>
       <c r="AM37" s="79"/>
@@ -8031,12 +8031,12 @@
       <c r="AB38" s="79"/>
       <c r="AC38" s="79"/>
       <c r="AD38" s="80"/>
-      <c r="AE38" s="92"/>
+      <c r="AE38" s="88"/>
       <c r="AF38" s="79"/>
       <c r="AG38" s="80"/>
-      <c r="AH38" s="89"/>
-      <c r="AI38" s="90"/>
-      <c r="AJ38" s="91"/>
+      <c r="AH38" s="91"/>
+      <c r="AI38" s="92"/>
+      <c r="AJ38" s="93"/>
       <c r="AK38" s="87"/>
       <c r="AL38" s="79"/>
       <c r="AM38" s="79"/>
@@ -8105,12 +8105,12 @@
       <c r="AB39" s="79"/>
       <c r="AC39" s="79"/>
       <c r="AD39" s="80"/>
-      <c r="AE39" s="92"/>
+      <c r="AE39" s="88"/>
       <c r="AF39" s="79"/>
       <c r="AG39" s="80"/>
-      <c r="AH39" s="89"/>
-      <c r="AI39" s="90"/>
-      <c r="AJ39" s="91"/>
+      <c r="AH39" s="91"/>
+      <c r="AI39" s="92"/>
+      <c r="AJ39" s="93"/>
       <c r="AK39" s="87"/>
       <c r="AL39" s="79"/>
       <c r="AM39" s="79"/>
@@ -8179,12 +8179,12 @@
       <c r="AB40" s="79"/>
       <c r="AC40" s="79"/>
       <c r="AD40" s="80"/>
-      <c r="AE40" s="92"/>
+      <c r="AE40" s="88"/>
       <c r="AF40" s="79"/>
       <c r="AG40" s="80"/>
-      <c r="AH40" s="89"/>
-      <c r="AI40" s="90"/>
-      <c r="AJ40" s="91"/>
+      <c r="AH40" s="91"/>
+      <c r="AI40" s="92"/>
+      <c r="AJ40" s="93"/>
       <c r="AK40" s="87"/>
       <c r="AL40" s="79"/>
       <c r="AM40" s="79"/>
@@ -8253,12 +8253,12 @@
       <c r="AB41" s="79"/>
       <c r="AC41" s="79"/>
       <c r="AD41" s="80"/>
-      <c r="AE41" s="92"/>
+      <c r="AE41" s="88"/>
       <c r="AF41" s="79"/>
       <c r="AG41" s="80"/>
-      <c r="AH41" s="89"/>
-      <c r="AI41" s="90"/>
-      <c r="AJ41" s="91"/>
+      <c r="AH41" s="91"/>
+      <c r="AI41" s="92"/>
+      <c r="AJ41" s="93"/>
       <c r="AK41" s="87"/>
       <c r="AL41" s="79"/>
       <c r="AM41" s="79"/>
@@ -8311,7 +8311,7 @@
       <c r="N42" s="38"/>
       <c r="O42" s="38"/>
       <c r="P42" s="39"/>
-      <c r="Q42" s="88" t="s">
+      <c r="Q42" s="96" t="s">
         <v>141</v>
       </c>
       <c r="R42" s="79"/>
@@ -8327,45 +8327,45 @@
       <c r="AB42" s="79"/>
       <c r="AC42" s="79"/>
       <c r="AD42" s="80"/>
-      <c r="AE42" s="92"/>
+      <c r="AE42" s="88"/>
       <c r="AF42" s="79"/>
       <c r="AG42" s="80"/>
-      <c r="AH42" s="89"/>
-      <c r="AI42" s="90"/>
-      <c r="AJ42" s="91"/>
-      <c r="AK42" s="113" t="s">
+      <c r="AH42" s="91"/>
+      <c r="AI42" s="92"/>
+      <c r="AJ42" s="93"/>
+      <c r="AK42" s="101" t="s">
         <v>106</v>
       </c>
-      <c r="AL42" s="114"/>
-      <c r="AM42" s="114"/>
-      <c r="AN42" s="114"/>
-      <c r="AO42" s="114"/>
-      <c r="AP42" s="114"/>
-      <c r="AQ42" s="114"/>
-      <c r="AR42" s="114"/>
-      <c r="AS42" s="114"/>
-      <c r="AT42" s="114"/>
-      <c r="AU42" s="114"/>
-      <c r="AV42" s="114"/>
-      <c r="AW42" s="114"/>
-      <c r="AX42" s="114"/>
-      <c r="AY42" s="114"/>
-      <c r="AZ42" s="114"/>
-      <c r="BA42" s="114"/>
-      <c r="BB42" s="114"/>
-      <c r="BC42" s="114"/>
-      <c r="BD42" s="114"/>
-      <c r="BE42" s="114"/>
-      <c r="BF42" s="114"/>
-      <c r="BG42" s="114"/>
-      <c r="BH42" s="114"/>
-      <c r="BI42" s="114"/>
-      <c r="BJ42" s="114"/>
-      <c r="BK42" s="114"/>
-      <c r="BL42" s="114"/>
-      <c r="BM42" s="114"/>
-      <c r="BN42" s="114"/>
-      <c r="BO42" s="115"/>
+      <c r="AL42" s="118"/>
+      <c r="AM42" s="118"/>
+      <c r="AN42" s="118"/>
+      <c r="AO42" s="118"/>
+      <c r="AP42" s="118"/>
+      <c r="AQ42" s="118"/>
+      <c r="AR42" s="118"/>
+      <c r="AS42" s="118"/>
+      <c r="AT42" s="118"/>
+      <c r="AU42" s="118"/>
+      <c r="AV42" s="118"/>
+      <c r="AW42" s="118"/>
+      <c r="AX42" s="118"/>
+      <c r="AY42" s="118"/>
+      <c r="AZ42" s="118"/>
+      <c r="BA42" s="118"/>
+      <c r="BB42" s="118"/>
+      <c r="BC42" s="118"/>
+      <c r="BD42" s="118"/>
+      <c r="BE42" s="118"/>
+      <c r="BF42" s="118"/>
+      <c r="BG42" s="118"/>
+      <c r="BH42" s="118"/>
+      <c r="BI42" s="118"/>
+      <c r="BJ42" s="118"/>
+      <c r="BK42" s="118"/>
+      <c r="BL42" s="118"/>
+      <c r="BM42" s="118"/>
+      <c r="BN42" s="118"/>
+      <c r="BO42" s="119"/>
       <c r="BP42" s="2"/>
     </row>
     <row r="43" spans="1:68" ht="16.5" outlineLevel="1">
@@ -8387,7 +8387,7 @@
       <c r="N43" s="38"/>
       <c r="O43" s="38"/>
       <c r="P43" s="39"/>
-      <c r="Q43" s="88" t="s">
+      <c r="Q43" s="96" t="s">
         <v>53</v>
       </c>
       <c r="R43" s="79"/>
@@ -8403,12 +8403,12 @@
       <c r="AB43" s="79"/>
       <c r="AC43" s="79"/>
       <c r="AD43" s="80"/>
-      <c r="AE43" s="92"/>
+      <c r="AE43" s="88"/>
       <c r="AF43" s="79"/>
       <c r="AG43" s="80"/>
-      <c r="AH43" s="89"/>
-      <c r="AI43" s="90"/>
-      <c r="AJ43" s="91"/>
+      <c r="AH43" s="91"/>
+      <c r="AI43" s="92"/>
+      <c r="AJ43" s="93"/>
       <c r="AK43" s="87"/>
       <c r="AL43" s="79"/>
       <c r="AM43" s="79"/>
@@ -8461,7 +8461,7 @@
       <c r="N44" s="38"/>
       <c r="O44" s="38"/>
       <c r="P44" s="39"/>
-      <c r="Q44" s="88" t="s">
+      <c r="Q44" s="96" t="s">
         <v>141</v>
       </c>
       <c r="R44" s="79"/>
@@ -8477,45 +8477,45 @@
       <c r="AB44" s="79"/>
       <c r="AC44" s="79"/>
       <c r="AD44" s="80"/>
-      <c r="AE44" s="92"/>
+      <c r="AE44" s="88"/>
       <c r="AF44" s="79"/>
       <c r="AG44" s="80"/>
-      <c r="AH44" s="89"/>
-      <c r="AI44" s="90"/>
-      <c r="AJ44" s="91"/>
-      <c r="AK44" s="113" t="s">
+      <c r="AH44" s="91"/>
+      <c r="AI44" s="92"/>
+      <c r="AJ44" s="93"/>
+      <c r="AK44" s="101" t="s">
         <v>106</v>
       </c>
-      <c r="AL44" s="114"/>
-      <c r="AM44" s="114"/>
-      <c r="AN44" s="114"/>
-      <c r="AO44" s="114"/>
-      <c r="AP44" s="114"/>
-      <c r="AQ44" s="114"/>
-      <c r="AR44" s="114"/>
-      <c r="AS44" s="114"/>
-      <c r="AT44" s="114"/>
-      <c r="AU44" s="114"/>
-      <c r="AV44" s="114"/>
-      <c r="AW44" s="114"/>
-      <c r="AX44" s="114"/>
-      <c r="AY44" s="114"/>
-      <c r="AZ44" s="114"/>
-      <c r="BA44" s="114"/>
-      <c r="BB44" s="114"/>
-      <c r="BC44" s="114"/>
-      <c r="BD44" s="114"/>
-      <c r="BE44" s="114"/>
-      <c r="BF44" s="114"/>
-      <c r="BG44" s="114"/>
-      <c r="BH44" s="114"/>
-      <c r="BI44" s="114"/>
-      <c r="BJ44" s="114"/>
-      <c r="BK44" s="114"/>
-      <c r="BL44" s="114"/>
-      <c r="BM44" s="114"/>
-      <c r="BN44" s="114"/>
-      <c r="BO44" s="115"/>
+      <c r="AL44" s="118"/>
+      <c r="AM44" s="118"/>
+      <c r="AN44" s="118"/>
+      <c r="AO44" s="118"/>
+      <c r="AP44" s="118"/>
+      <c r="AQ44" s="118"/>
+      <c r="AR44" s="118"/>
+      <c r="AS44" s="118"/>
+      <c r="AT44" s="118"/>
+      <c r="AU44" s="118"/>
+      <c r="AV44" s="118"/>
+      <c r="AW44" s="118"/>
+      <c r="AX44" s="118"/>
+      <c r="AY44" s="118"/>
+      <c r="AZ44" s="118"/>
+      <c r="BA44" s="118"/>
+      <c r="BB44" s="118"/>
+      <c r="BC44" s="118"/>
+      <c r="BD44" s="118"/>
+      <c r="BE44" s="118"/>
+      <c r="BF44" s="118"/>
+      <c r="BG44" s="118"/>
+      <c r="BH44" s="118"/>
+      <c r="BI44" s="118"/>
+      <c r="BJ44" s="118"/>
+      <c r="BK44" s="118"/>
+      <c r="BL44" s="118"/>
+      <c r="BM44" s="118"/>
+      <c r="BN44" s="118"/>
+      <c r="BO44" s="119"/>
       <c r="BP44" s="2"/>
     </row>
     <row r="45" spans="1:68" ht="16.5" outlineLevel="1">
@@ -8537,7 +8537,7 @@
       <c r="N45" s="38"/>
       <c r="O45" s="38"/>
       <c r="P45" s="39"/>
-      <c r="Q45" s="88" t="s">
+      <c r="Q45" s="96" t="s">
         <v>53</v>
       </c>
       <c r="R45" s="79"/>
@@ -8553,12 +8553,12 @@
       <c r="AB45" s="79"/>
       <c r="AC45" s="79"/>
       <c r="AD45" s="80"/>
-      <c r="AE45" s="92"/>
+      <c r="AE45" s="88"/>
       <c r="AF45" s="79"/>
       <c r="AG45" s="80"/>
-      <c r="AH45" s="89"/>
-      <c r="AI45" s="90"/>
-      <c r="AJ45" s="91"/>
+      <c r="AH45" s="91"/>
+      <c r="AI45" s="92"/>
+      <c r="AJ45" s="93"/>
       <c r="AK45" s="87"/>
       <c r="AL45" s="79"/>
       <c r="AM45" s="79"/>
@@ -8611,7 +8611,7 @@
       <c r="N46" s="38"/>
       <c r="O46" s="38"/>
       <c r="P46" s="39"/>
-      <c r="Q46" s="88" t="s">
+      <c r="Q46" s="96" t="s">
         <v>141</v>
       </c>
       <c r="R46" s="79"/>
@@ -8627,45 +8627,45 @@
       <c r="AB46" s="79"/>
       <c r="AC46" s="79"/>
       <c r="AD46" s="80"/>
-      <c r="AE46" s="92"/>
+      <c r="AE46" s="88"/>
       <c r="AF46" s="79"/>
       <c r="AG46" s="80"/>
-      <c r="AH46" s="89"/>
-      <c r="AI46" s="90"/>
-      <c r="AJ46" s="91"/>
-      <c r="AK46" s="113" t="s">
+      <c r="AH46" s="91"/>
+      <c r="AI46" s="92"/>
+      <c r="AJ46" s="93"/>
+      <c r="AK46" s="101" t="s">
         <v>111</v>
       </c>
-      <c r="AL46" s="88"/>
-      <c r="AM46" s="88"/>
-      <c r="AN46" s="88"/>
-      <c r="AO46" s="88"/>
-      <c r="AP46" s="88"/>
-      <c r="AQ46" s="88"/>
-      <c r="AR46" s="88"/>
-      <c r="AS46" s="88"/>
-      <c r="AT46" s="88"/>
-      <c r="AU46" s="88"/>
-      <c r="AV46" s="88"/>
-      <c r="AW46" s="88"/>
-      <c r="AX46" s="88"/>
-      <c r="AY46" s="88"/>
-      <c r="AZ46" s="88"/>
-      <c r="BA46" s="88"/>
-      <c r="BB46" s="88"/>
-      <c r="BC46" s="88"/>
-      <c r="BD46" s="88"/>
-      <c r="BE46" s="88"/>
-      <c r="BF46" s="88"/>
-      <c r="BG46" s="88"/>
-      <c r="BH46" s="88"/>
-      <c r="BI46" s="88"/>
-      <c r="BJ46" s="88"/>
-      <c r="BK46" s="88"/>
-      <c r="BL46" s="88"/>
-      <c r="BM46" s="88"/>
-      <c r="BN46" s="88"/>
-      <c r="BO46" s="116"/>
+      <c r="AL46" s="96"/>
+      <c r="AM46" s="96"/>
+      <c r="AN46" s="96"/>
+      <c r="AO46" s="96"/>
+      <c r="AP46" s="96"/>
+      <c r="AQ46" s="96"/>
+      <c r="AR46" s="96"/>
+      <c r="AS46" s="96"/>
+      <c r="AT46" s="96"/>
+      <c r="AU46" s="96"/>
+      <c r="AV46" s="96"/>
+      <c r="AW46" s="96"/>
+      <c r="AX46" s="96"/>
+      <c r="AY46" s="96"/>
+      <c r="AZ46" s="96"/>
+      <c r="BA46" s="96"/>
+      <c r="BB46" s="96"/>
+      <c r="BC46" s="96"/>
+      <c r="BD46" s="96"/>
+      <c r="BE46" s="96"/>
+      <c r="BF46" s="96"/>
+      <c r="BG46" s="96"/>
+      <c r="BH46" s="96"/>
+      <c r="BI46" s="96"/>
+      <c r="BJ46" s="96"/>
+      <c r="BK46" s="96"/>
+      <c r="BL46" s="96"/>
+      <c r="BM46" s="96"/>
+      <c r="BN46" s="96"/>
+      <c r="BO46" s="120"/>
       <c r="BP46" s="2"/>
     </row>
     <row r="47" spans="1:68" ht="16.5" outlineLevel="1">
@@ -8687,7 +8687,7 @@
       <c r="N47" s="38"/>
       <c r="O47" s="38"/>
       <c r="P47" s="39"/>
-      <c r="Q47" s="88" t="s">
+      <c r="Q47" s="96" t="s">
         <v>53</v>
       </c>
       <c r="R47" s="79"/>
@@ -8703,12 +8703,12 @@
       <c r="AB47" s="79"/>
       <c r="AC47" s="79"/>
       <c r="AD47" s="80"/>
-      <c r="AE47" s="92"/>
+      <c r="AE47" s="88"/>
       <c r="AF47" s="79"/>
       <c r="AG47" s="80"/>
-      <c r="AH47" s="89"/>
-      <c r="AI47" s="90"/>
-      <c r="AJ47" s="91"/>
+      <c r="AH47" s="91"/>
+      <c r="AI47" s="92"/>
+      <c r="AJ47" s="93"/>
       <c r="AK47" s="87"/>
       <c r="AL47" s="79"/>
       <c r="AM47" s="79"/>
@@ -8761,7 +8761,7 @@
       <c r="N48" s="38"/>
       <c r="O48" s="38"/>
       <c r="P48" s="39"/>
-      <c r="Q48" s="88" t="s">
+      <c r="Q48" s="96" t="s">
         <v>141</v>
       </c>
       <c r="R48" s="79"/>
@@ -8777,45 +8777,45 @@
       <c r="AB48" s="79"/>
       <c r="AC48" s="79"/>
       <c r="AD48" s="80"/>
-      <c r="AE48" s="92"/>
+      <c r="AE48" s="88"/>
       <c r="AF48" s="79"/>
       <c r="AG48" s="80"/>
-      <c r="AH48" s="89"/>
-      <c r="AI48" s="90"/>
-      <c r="AJ48" s="91"/>
-      <c r="AK48" s="113" t="s">
+      <c r="AH48" s="91"/>
+      <c r="AI48" s="92"/>
+      <c r="AJ48" s="93"/>
+      <c r="AK48" s="101" t="s">
         <v>114</v>
       </c>
-      <c r="AL48" s="88"/>
-      <c r="AM48" s="88"/>
-      <c r="AN48" s="88"/>
-      <c r="AO48" s="88"/>
-      <c r="AP48" s="88"/>
-      <c r="AQ48" s="88"/>
-      <c r="AR48" s="88"/>
-      <c r="AS48" s="88"/>
-      <c r="AT48" s="88"/>
-      <c r="AU48" s="88"/>
-      <c r="AV48" s="88"/>
-      <c r="AW48" s="88"/>
-      <c r="AX48" s="88"/>
-      <c r="AY48" s="88"/>
-      <c r="AZ48" s="88"/>
-      <c r="BA48" s="88"/>
-      <c r="BB48" s="88"/>
-      <c r="BC48" s="88"/>
-      <c r="BD48" s="88"/>
-      <c r="BE48" s="88"/>
-      <c r="BF48" s="88"/>
-      <c r="BG48" s="88"/>
-      <c r="BH48" s="88"/>
-      <c r="BI48" s="88"/>
-      <c r="BJ48" s="88"/>
-      <c r="BK48" s="88"/>
-      <c r="BL48" s="88"/>
-      <c r="BM48" s="88"/>
-      <c r="BN48" s="88"/>
-      <c r="BO48" s="116"/>
+      <c r="AL48" s="96"/>
+      <c r="AM48" s="96"/>
+      <c r="AN48" s="96"/>
+      <c r="AO48" s="96"/>
+      <c r="AP48" s="96"/>
+      <c r="AQ48" s="96"/>
+      <c r="AR48" s="96"/>
+      <c r="AS48" s="96"/>
+      <c r="AT48" s="96"/>
+      <c r="AU48" s="96"/>
+      <c r="AV48" s="96"/>
+      <c r="AW48" s="96"/>
+      <c r="AX48" s="96"/>
+      <c r="AY48" s="96"/>
+      <c r="AZ48" s="96"/>
+      <c r="BA48" s="96"/>
+      <c r="BB48" s="96"/>
+      <c r="BC48" s="96"/>
+      <c r="BD48" s="96"/>
+      <c r="BE48" s="96"/>
+      <c r="BF48" s="96"/>
+      <c r="BG48" s="96"/>
+      <c r="BH48" s="96"/>
+      <c r="BI48" s="96"/>
+      <c r="BJ48" s="96"/>
+      <c r="BK48" s="96"/>
+      <c r="BL48" s="96"/>
+      <c r="BM48" s="96"/>
+      <c r="BN48" s="96"/>
+      <c r="BO48" s="120"/>
       <c r="BP48" s="2"/>
     </row>
     <row r="49" spans="1:68" ht="16.5" outlineLevel="1">
@@ -8837,7 +8837,7 @@
       <c r="N49" s="38"/>
       <c r="O49" s="38"/>
       <c r="P49" s="39"/>
-      <c r="Q49" s="88" t="s">
+      <c r="Q49" s="96" t="s">
         <v>53</v>
       </c>
       <c r="R49" s="79"/>
@@ -8853,12 +8853,12 @@
       <c r="AB49" s="79"/>
       <c r="AC49" s="79"/>
       <c r="AD49" s="80"/>
-      <c r="AE49" s="92"/>
+      <c r="AE49" s="88"/>
       <c r="AF49" s="79"/>
       <c r="AG49" s="80"/>
-      <c r="AH49" s="89"/>
-      <c r="AI49" s="90"/>
-      <c r="AJ49" s="91"/>
+      <c r="AH49" s="91"/>
+      <c r="AI49" s="92"/>
+      <c r="AJ49" s="93"/>
       <c r="AK49" s="87"/>
       <c r="AL49" s="79"/>
       <c r="AM49" s="79"/>
@@ -9107,51 +9107,51 @@
     </row>
     <row r="53" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A53" s="5"/>
-      <c r="B53" s="120" t="s">
+      <c r="B53" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="C53" s="122" t="s">
+      <c r="C53" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="D53" s="96"/>
-      <c r="E53" s="96"/>
-      <c r="F53" s="96"/>
-      <c r="G53" s="96"/>
-      <c r="H53" s="96"/>
-      <c r="I53" s="96"/>
-      <c r="J53" s="96"/>
-      <c r="K53" s="123"/>
-      <c r="L53" s="122" t="s">
+      <c r="D53" s="105"/>
+      <c r="E53" s="105"/>
+      <c r="F53" s="105"/>
+      <c r="G53" s="105"/>
+      <c r="H53" s="105"/>
+      <c r="I53" s="105"/>
+      <c r="J53" s="105"/>
+      <c r="K53" s="106"/>
+      <c r="L53" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="M53" s="96"/>
-      <c r="N53" s="96"/>
-      <c r="O53" s="96"/>
-      <c r="P53" s="96"/>
-      <c r="Q53" s="96"/>
-      <c r="R53" s="96"/>
-      <c r="S53" s="96"/>
-      <c r="T53" s="96"/>
-      <c r="U53" s="96"/>
-      <c r="V53" s="96"/>
-      <c r="W53" s="96"/>
-      <c r="X53" s="96"/>
-      <c r="Y53" s="96"/>
-      <c r="Z53" s="96"/>
-      <c r="AA53" s="96"/>
-      <c r="AB53" s="123"/>
-      <c r="AC53" s="122" t="s">
+      <c r="M53" s="105"/>
+      <c r="N53" s="105"/>
+      <c r="O53" s="105"/>
+      <c r="P53" s="105"/>
+      <c r="Q53" s="105"/>
+      <c r="R53" s="105"/>
+      <c r="S53" s="105"/>
+      <c r="T53" s="105"/>
+      <c r="U53" s="105"/>
+      <c r="V53" s="105"/>
+      <c r="W53" s="105"/>
+      <c r="X53" s="105"/>
+      <c r="Y53" s="105"/>
+      <c r="Z53" s="105"/>
+      <c r="AA53" s="105"/>
+      <c r="AB53" s="106"/>
+      <c r="AC53" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="AD53" s="96"/>
-      <c r="AE53" s="96"/>
-      <c r="AF53" s="96"/>
-      <c r="AG53" s="96"/>
-      <c r="AH53" s="96"/>
-      <c r="AI53" s="96"/>
-      <c r="AJ53" s="96"/>
-      <c r="AK53" s="123"/>
-      <c r="AL53" s="108" t="s">
+      <c r="AD53" s="105"/>
+      <c r="AE53" s="105"/>
+      <c r="AF53" s="105"/>
+      <c r="AG53" s="105"/>
+      <c r="AH53" s="105"/>
+      <c r="AI53" s="105"/>
+      <c r="AJ53" s="105"/>
+      <c r="AK53" s="106"/>
+      <c r="AL53" s="121" t="s">
         <v>12</v>
       </c>
       <c r="AM53" s="79"/>
@@ -9187,43 +9187,43 @@
     </row>
     <row r="54" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A54" s="5"/>
-      <c r="B54" s="121"/>
-      <c r="C54" s="124"/>
-      <c r="D54" s="125"/>
-      <c r="E54" s="125"/>
-      <c r="F54" s="125"/>
-      <c r="G54" s="125"/>
-      <c r="H54" s="125"/>
-      <c r="I54" s="125"/>
-      <c r="J54" s="125"/>
-      <c r="K54" s="126"/>
-      <c r="L54" s="127"/>
-      <c r="M54" s="128"/>
-      <c r="N54" s="128"/>
-      <c r="O54" s="128"/>
-      <c r="P54" s="128"/>
-      <c r="Q54" s="128"/>
-      <c r="R54" s="128"/>
-      <c r="S54" s="128"/>
-      <c r="T54" s="128"/>
-      <c r="U54" s="128"/>
-      <c r="V54" s="128"/>
-      <c r="W54" s="128"/>
-      <c r="X54" s="128"/>
-      <c r="Y54" s="128"/>
-      <c r="Z54" s="128"/>
-      <c r="AA54" s="128"/>
-      <c r="AB54" s="129"/>
-      <c r="AC54" s="133"/>
-      <c r="AD54" s="134"/>
-      <c r="AE54" s="134"/>
-      <c r="AF54" s="134"/>
-      <c r="AG54" s="134"/>
-      <c r="AH54" s="134"/>
-      <c r="AI54" s="134"/>
-      <c r="AJ54" s="134"/>
-      <c r="AK54" s="121"/>
-      <c r="AL54" s="109" t="s">
+      <c r="B54" s="109"/>
+      <c r="C54" s="112"/>
+      <c r="D54" s="113"/>
+      <c r="E54" s="113"/>
+      <c r="F54" s="113"/>
+      <c r="G54" s="113"/>
+      <c r="H54" s="113"/>
+      <c r="I54" s="113"/>
+      <c r="J54" s="113"/>
+      <c r="K54" s="114"/>
+      <c r="L54" s="115"/>
+      <c r="M54" s="116"/>
+      <c r="N54" s="116"/>
+      <c r="O54" s="116"/>
+      <c r="P54" s="116"/>
+      <c r="Q54" s="116"/>
+      <c r="R54" s="116"/>
+      <c r="S54" s="116"/>
+      <c r="T54" s="116"/>
+      <c r="U54" s="116"/>
+      <c r="V54" s="116"/>
+      <c r="W54" s="116"/>
+      <c r="X54" s="116"/>
+      <c r="Y54" s="116"/>
+      <c r="Z54" s="116"/>
+      <c r="AA54" s="116"/>
+      <c r="AB54" s="117"/>
+      <c r="AC54" s="107"/>
+      <c r="AD54" s="108"/>
+      <c r="AE54" s="108"/>
+      <c r="AF54" s="108"/>
+      <c r="AG54" s="108"/>
+      <c r="AH54" s="108"/>
+      <c r="AI54" s="108"/>
+      <c r="AJ54" s="108"/>
+      <c r="AK54" s="109"/>
+      <c r="AL54" s="122" t="s">
         <v>13</v>
       </c>
       <c r="AM54" s="79"/>
@@ -9234,14 +9234,14 @@
       <c r="AR54" s="79"/>
       <c r="AS54" s="79"/>
       <c r="AT54" s="80"/>
-      <c r="AU54" s="109" t="s">
+      <c r="AU54" s="122" t="s">
         <v>14</v>
       </c>
       <c r="AV54" s="79"/>
       <c r="AW54" s="79"/>
       <c r="AX54" s="79"/>
       <c r="AY54" s="80"/>
-      <c r="AZ54" s="109" t="s">
+      <c r="AZ54" s="122" t="s">
         <v>15</v>
       </c>
       <c r="BA54" s="79"/>
@@ -9267,7 +9267,7 @@
         <f ca="1">MAX(B$53:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>1</v>
       </c>
-      <c r="C55" s="92" t="s">
+      <c r="C55" s="88" t="s">
         <v>117</v>
       </c>
       <c r="D55" s="79"/>
@@ -9278,26 +9278,26 @@
       <c r="I55" s="79"/>
       <c r="J55" s="79"/>
       <c r="K55" s="79"/>
-      <c r="L55" s="111" t="s">
+      <c r="L55" s="123" t="s">
         <v>118</v>
       </c>
-      <c r="M55" s="104"/>
-      <c r="N55" s="104"/>
-      <c r="O55" s="104"/>
-      <c r="P55" s="104"/>
-      <c r="Q55" s="104"/>
-      <c r="R55" s="104"/>
-      <c r="S55" s="104"/>
-      <c r="T55" s="104"/>
-      <c r="U55" s="104"/>
-      <c r="V55" s="104"/>
-      <c r="W55" s="104"/>
-      <c r="X55" s="104"/>
-      <c r="Y55" s="104"/>
-      <c r="Z55" s="104"/>
-      <c r="AA55" s="104"/>
-      <c r="AB55" s="104"/>
-      <c r="AC55" s="105"/>
+      <c r="M55" s="124"/>
+      <c r="N55" s="124"/>
+      <c r="O55" s="124"/>
+      <c r="P55" s="124"/>
+      <c r="Q55" s="124"/>
+      <c r="R55" s="124"/>
+      <c r="S55" s="124"/>
+      <c r="T55" s="124"/>
+      <c r="U55" s="124"/>
+      <c r="V55" s="124"/>
+      <c r="W55" s="124"/>
+      <c r="X55" s="124"/>
+      <c r="Y55" s="124"/>
+      <c r="Z55" s="124"/>
+      <c r="AA55" s="124"/>
+      <c r="AB55" s="124"/>
+      <c r="AC55" s="94"/>
       <c r="AD55" s="79"/>
       <c r="AE55" s="79"/>
       <c r="AF55" s="79"/>
@@ -9306,7 +9306,7 @@
       <c r="AI55" s="79"/>
       <c r="AJ55" s="79"/>
       <c r="AK55" s="80"/>
-      <c r="AL55" s="110"/>
+      <c r="AL55" s="89"/>
       <c r="AM55" s="79"/>
       <c r="AN55" s="79"/>
       <c r="AO55" s="79"/>
@@ -9315,12 +9315,12 @@
       <c r="AR55" s="79"/>
       <c r="AS55" s="79"/>
       <c r="AT55" s="80"/>
-      <c r="AU55" s="110"/>
+      <c r="AU55" s="89"/>
       <c r="AV55" s="79"/>
       <c r="AW55" s="79"/>
       <c r="AX55" s="79"/>
       <c r="AY55" s="80"/>
-      <c r="AZ55" s="112"/>
+      <c r="AZ55" s="90"/>
       <c r="BA55" s="79"/>
       <c r="BB55" s="79"/>
       <c r="BC55" s="79"/>
@@ -9344,37 +9344,37 @@
         <f ca="1">MAX(B$53:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>2</v>
       </c>
-      <c r="C56" s="100" t="s">
+      <c r="C56" s="131" t="s">
         <v>119</v>
       </c>
-      <c r="D56" s="101"/>
-      <c r="E56" s="101"/>
-      <c r="F56" s="101"/>
-      <c r="G56" s="101"/>
-      <c r="H56" s="101"/>
-      <c r="I56" s="101"/>
-      <c r="J56" s="101"/>
-      <c r="K56" s="102"/>
-      <c r="L56" s="103" t="s">
+      <c r="D56" s="132"/>
+      <c r="E56" s="132"/>
+      <c r="F56" s="132"/>
+      <c r="G56" s="132"/>
+      <c r="H56" s="132"/>
+      <c r="I56" s="132"/>
+      <c r="J56" s="132"/>
+      <c r="K56" s="133"/>
+      <c r="L56" s="134" t="s">
         <v>120</v>
       </c>
-      <c r="M56" s="104"/>
-      <c r="N56" s="104"/>
-      <c r="O56" s="104"/>
-      <c r="P56" s="104"/>
-      <c r="Q56" s="104"/>
-      <c r="R56" s="104"/>
-      <c r="S56" s="104"/>
-      <c r="T56" s="104"/>
-      <c r="U56" s="104"/>
-      <c r="V56" s="104"/>
-      <c r="W56" s="104"/>
-      <c r="X56" s="104"/>
-      <c r="Y56" s="104"/>
-      <c r="Z56" s="104"/>
-      <c r="AA56" s="104"/>
-      <c r="AB56" s="104"/>
-      <c r="AC56" s="105"/>
+      <c r="M56" s="124"/>
+      <c r="N56" s="124"/>
+      <c r="O56" s="124"/>
+      <c r="P56" s="124"/>
+      <c r="Q56" s="124"/>
+      <c r="R56" s="124"/>
+      <c r="S56" s="124"/>
+      <c r="T56" s="124"/>
+      <c r="U56" s="124"/>
+      <c r="V56" s="124"/>
+      <c r="W56" s="124"/>
+      <c r="X56" s="124"/>
+      <c r="Y56" s="124"/>
+      <c r="Z56" s="124"/>
+      <c r="AA56" s="124"/>
+      <c r="AB56" s="124"/>
+      <c r="AC56" s="94"/>
       <c r="AD56" s="79"/>
       <c r="AE56" s="79"/>
       <c r="AF56" s="79"/>
@@ -9383,7 +9383,7 @@
       <c r="AI56" s="79"/>
       <c r="AJ56" s="79"/>
       <c r="AK56" s="80"/>
-      <c r="AL56" s="110"/>
+      <c r="AL56" s="89"/>
       <c r="AM56" s="79"/>
       <c r="AN56" s="79"/>
       <c r="AO56" s="79"/>
@@ -9392,12 +9392,12 @@
       <c r="AR56" s="79"/>
       <c r="AS56" s="79"/>
       <c r="AT56" s="80"/>
-      <c r="AU56" s="110"/>
+      <c r="AU56" s="89"/>
       <c r="AV56" s="79"/>
       <c r="AW56" s="79"/>
       <c r="AX56" s="79"/>
       <c r="AY56" s="80"/>
-      <c r="AZ56" s="112"/>
+      <c r="AZ56" s="90"/>
       <c r="BA56" s="79"/>
       <c r="BB56" s="79"/>
       <c r="BC56" s="79"/>
@@ -9497,7 +9497,7 @@
         <v>4</v>
       </c>
       <c r="C58" s="56"/>
-      <c r="D58" s="92" t="s">
+      <c r="D58" s="88" t="s">
         <v>132</v>
       </c>
       <c r="E58" s="79"/>
@@ -9507,26 +9507,26 @@
       <c r="I58" s="79"/>
       <c r="J58" s="79"/>
       <c r="K58" s="80"/>
-      <c r="L58" s="98" t="s">
+      <c r="L58" s="129" t="s">
         <v>131</v>
       </c>
-      <c r="M58" s="99"/>
-      <c r="N58" s="99"/>
-      <c r="O58" s="99"/>
-      <c r="P58" s="99"/>
-      <c r="Q58" s="99"/>
-      <c r="R58" s="99"/>
-      <c r="S58" s="99"/>
-      <c r="T58" s="99"/>
-      <c r="U58" s="99"/>
-      <c r="V58" s="99"/>
-      <c r="W58" s="99"/>
-      <c r="X58" s="99"/>
-      <c r="Y58" s="99"/>
-      <c r="Z58" s="99"/>
-      <c r="AA58" s="99"/>
-      <c r="AB58" s="99"/>
-      <c r="AC58" s="92"/>
+      <c r="M58" s="130"/>
+      <c r="N58" s="130"/>
+      <c r="O58" s="130"/>
+      <c r="P58" s="130"/>
+      <c r="Q58" s="130"/>
+      <c r="R58" s="130"/>
+      <c r="S58" s="130"/>
+      <c r="T58" s="130"/>
+      <c r="U58" s="130"/>
+      <c r="V58" s="130"/>
+      <c r="W58" s="130"/>
+      <c r="X58" s="130"/>
+      <c r="Y58" s="130"/>
+      <c r="Z58" s="130"/>
+      <c r="AA58" s="130"/>
+      <c r="AB58" s="130"/>
+      <c r="AC58" s="88"/>
       <c r="AD58" s="79"/>
       <c r="AE58" s="79"/>
       <c r="AF58" s="79"/>
@@ -9535,7 +9535,7 @@
       <c r="AI58" s="79"/>
       <c r="AJ58" s="79"/>
       <c r="AK58" s="80"/>
-      <c r="AL58" s="110"/>
+      <c r="AL58" s="89"/>
       <c r="AM58" s="79"/>
       <c r="AN58" s="79"/>
       <c r="AO58" s="79"/>
@@ -9544,12 +9544,12 @@
       <c r="AR58" s="79"/>
       <c r="AS58" s="79"/>
       <c r="AT58" s="80"/>
-      <c r="AU58" s="110"/>
+      <c r="AU58" s="89"/>
       <c r="AV58" s="79"/>
       <c r="AW58" s="79"/>
       <c r="AX58" s="79"/>
       <c r="AY58" s="80"/>
-      <c r="AZ58" s="112"/>
+      <c r="AZ58" s="90"/>
       <c r="BA58" s="79"/>
       <c r="BB58" s="79"/>
       <c r="BC58" s="79"/>
@@ -9646,37 +9646,37 @@
         <f ca="1">MAX(B$53:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>6</v>
       </c>
-      <c r="C60" s="106" t="s">
+      <c r="C60" s="135" t="s">
         <v>71</v>
       </c>
-      <c r="D60" s="105"/>
-      <c r="E60" s="105"/>
-      <c r="F60" s="105"/>
-      <c r="G60" s="105"/>
-      <c r="H60" s="105"/>
-      <c r="I60" s="105"/>
-      <c r="J60" s="105"/>
-      <c r="K60" s="107"/>
-      <c r="L60" s="92" t="s">
+      <c r="D60" s="94"/>
+      <c r="E60" s="94"/>
+      <c r="F60" s="94"/>
+      <c r="G60" s="94"/>
+      <c r="H60" s="94"/>
+      <c r="I60" s="94"/>
+      <c r="J60" s="94"/>
+      <c r="K60" s="95"/>
+      <c r="L60" s="88" t="s">
         <v>72</v>
       </c>
-      <c r="M60" s="105"/>
-      <c r="N60" s="105"/>
-      <c r="O60" s="105"/>
-      <c r="P60" s="105"/>
-      <c r="Q60" s="105"/>
-      <c r="R60" s="105"/>
-      <c r="S60" s="105"/>
-      <c r="T60" s="105"/>
-      <c r="U60" s="105"/>
-      <c r="V60" s="105"/>
-      <c r="W60" s="105"/>
-      <c r="X60" s="105"/>
-      <c r="Y60" s="105"/>
-      <c r="Z60" s="105"/>
-      <c r="AA60" s="105"/>
-      <c r="AB60" s="107"/>
-      <c r="AC60" s="105"/>
+      <c r="M60" s="94"/>
+      <c r="N60" s="94"/>
+      <c r="O60" s="94"/>
+      <c r="P60" s="94"/>
+      <c r="Q60" s="94"/>
+      <c r="R60" s="94"/>
+      <c r="S60" s="94"/>
+      <c r="T60" s="94"/>
+      <c r="U60" s="94"/>
+      <c r="V60" s="94"/>
+      <c r="W60" s="94"/>
+      <c r="X60" s="94"/>
+      <c r="Y60" s="94"/>
+      <c r="Z60" s="94"/>
+      <c r="AA60" s="94"/>
+      <c r="AB60" s="95"/>
+      <c r="AC60" s="94"/>
       <c r="AD60" s="79"/>
       <c r="AE60" s="79"/>
       <c r="AF60" s="79"/>
@@ -9685,7 +9685,7 @@
       <c r="AI60" s="79"/>
       <c r="AJ60" s="79"/>
       <c r="AK60" s="80"/>
-      <c r="AL60" s="110"/>
+      <c r="AL60" s="89"/>
       <c r="AM60" s="79"/>
       <c r="AN60" s="79"/>
       <c r="AO60" s="79"/>
@@ -9694,12 +9694,12 @@
       <c r="AR60" s="79"/>
       <c r="AS60" s="79"/>
       <c r="AT60" s="80"/>
-      <c r="AU60" s="110"/>
+      <c r="AU60" s="89"/>
       <c r="AV60" s="79"/>
       <c r="AW60" s="79"/>
       <c r="AX60" s="79"/>
       <c r="AY60" s="80"/>
-      <c r="AZ60" s="112"/>
+      <c r="AZ60" s="90"/>
       <c r="BA60" s="79"/>
       <c r="BB60" s="79"/>
       <c r="BC60" s="79"/>
@@ -11944,22 +11944,22 @@
     <row r="92" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A92" s="2"/>
       <c r="B92" s="59"/>
-      <c r="C92" s="93" t="s">
+      <c r="C92" s="125" t="s">
         <v>133</v>
       </c>
-      <c r="D92" s="94"/>
-      <c r="E92" s="94"/>
-      <c r="F92" s="94"/>
-      <c r="G92" s="94"/>
-      <c r="H92" s="94"/>
-      <c r="I92" s="94"/>
-      <c r="J92" s="94"/>
-      <c r="K92" s="94"/>
-      <c r="L92" s="94"/>
-      <c r="M92" s="94"/>
-      <c r="N92" s="94"/>
-      <c r="O92" s="94"/>
-      <c r="P92" s="94"/>
+      <c r="D92" s="126"/>
+      <c r="E92" s="126"/>
+      <c r="F92" s="126"/>
+      <c r="G92" s="126"/>
+      <c r="H92" s="126"/>
+      <c r="I92" s="126"/>
+      <c r="J92" s="126"/>
+      <c r="K92" s="126"/>
+      <c r="L92" s="126"/>
+      <c r="M92" s="126"/>
+      <c r="N92" s="126"/>
+      <c r="O92" s="126"/>
+      <c r="P92" s="126"/>
       <c r="Q92" s="59"/>
       <c r="R92" s="59"/>
       <c r="S92" s="59"/>
@@ -12016,11 +12016,11 @@
     <row r="93" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A93" s="2"/>
       <c r="B93" s="59"/>
-      <c r="C93" s="95" t="s">
+      <c r="C93" s="127" t="s">
         <v>134</v>
       </c>
-      <c r="D93" s="96"/>
-      <c r="E93" s="96"/>
+      <c r="D93" s="105"/>
+      <c r="E93" s="105"/>
       <c r="F93" s="60"/>
       <c r="G93" s="60"/>
       <c r="H93" s="60"/>
@@ -12089,7 +12089,7 @@
       <c r="A94" s="2"/>
       <c r="B94" s="59"/>
       <c r="C94" s="62"/>
-      <c r="D94" s="97" t="s">
+      <c r="D94" s="128" t="s">
         <v>135</v>
       </c>
       <c r="E94" s="79"/>
@@ -12160,10 +12160,10 @@
     <row r="95" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A95" s="2"/>
       <c r="B95" s="59"/>
-      <c r="C95" s="95" t="s">
+      <c r="C95" s="127" t="s">
         <v>136</v>
       </c>
-      <c r="D95" s="96"/>
+      <c r="D95" s="105"/>
       <c r="E95" s="63"/>
       <c r="F95" s="63"/>
       <c r="G95" s="63"/>
@@ -12233,7 +12233,7 @@
       <c r="A96" s="2"/>
       <c r="B96" s="59"/>
       <c r="C96" s="62"/>
-      <c r="D96" s="97" t="s">
+      <c r="D96" s="128" t="s">
         <v>138</v>
       </c>
       <c r="E96" s="79"/>
@@ -12863,6 +12863,215 @@
     </row>
   </sheetData>
   <mergeCells count="233">
+    <mergeCell ref="Q35:W35"/>
+    <mergeCell ref="Q42:W42"/>
+    <mergeCell ref="Q43:W43"/>
+    <mergeCell ref="Q44:W44"/>
+    <mergeCell ref="Q45:W45"/>
+    <mergeCell ref="Q46:W46"/>
+    <mergeCell ref="AH47:AJ47"/>
+    <mergeCell ref="AH48:AJ48"/>
+    <mergeCell ref="AE34:AG34"/>
+    <mergeCell ref="AE35:AG35"/>
+    <mergeCell ref="AE37:AG37"/>
+    <mergeCell ref="AE39:AG39"/>
+    <mergeCell ref="AE36:AG36"/>
+    <mergeCell ref="AH36:AJ36"/>
+    <mergeCell ref="X34:AD34"/>
+    <mergeCell ref="D58:K58"/>
+    <mergeCell ref="C92:P92"/>
+    <mergeCell ref="C93:E93"/>
+    <mergeCell ref="D94:AJ94"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="D96:AJ96"/>
+    <mergeCell ref="Q39:W39"/>
+    <mergeCell ref="Q40:W40"/>
+    <mergeCell ref="Q41:W41"/>
+    <mergeCell ref="L58:AB58"/>
+    <mergeCell ref="AC58:AK58"/>
+    <mergeCell ref="C55:K55"/>
+    <mergeCell ref="C56:K56"/>
+    <mergeCell ref="L56:AB56"/>
+    <mergeCell ref="AC56:AK56"/>
+    <mergeCell ref="AE48:AG48"/>
+    <mergeCell ref="Q48:W48"/>
+    <mergeCell ref="C60:K60"/>
+    <mergeCell ref="L60:AB60"/>
+    <mergeCell ref="AC60:AK60"/>
+    <mergeCell ref="AL53:BO53"/>
+    <mergeCell ref="AL54:AT54"/>
+    <mergeCell ref="AU54:AY54"/>
+    <mergeCell ref="AZ54:BO54"/>
+    <mergeCell ref="AL55:AT55"/>
+    <mergeCell ref="Q34:W34"/>
+    <mergeCell ref="X35:AD35"/>
+    <mergeCell ref="X39:AD39"/>
+    <mergeCell ref="X40:AD40"/>
+    <mergeCell ref="X41:AD41"/>
+    <mergeCell ref="X42:AD42"/>
+    <mergeCell ref="X43:AD43"/>
+    <mergeCell ref="X44:AD44"/>
+    <mergeCell ref="X45:AD45"/>
+    <mergeCell ref="AK35:BO35"/>
+    <mergeCell ref="AK37:BO37"/>
+    <mergeCell ref="AK39:BO39"/>
+    <mergeCell ref="AK40:BO40"/>
+    <mergeCell ref="AK41:BO41"/>
+    <mergeCell ref="AK43:BO43"/>
+    <mergeCell ref="AK45:BO45"/>
+    <mergeCell ref="AK47:BO47"/>
+    <mergeCell ref="L55:AB55"/>
+    <mergeCell ref="AC55:AK55"/>
+    <mergeCell ref="AL60:AT60"/>
+    <mergeCell ref="AU60:AY60"/>
+    <mergeCell ref="AZ60:BO60"/>
+    <mergeCell ref="AL58:AT58"/>
+    <mergeCell ref="AU58:AY58"/>
+    <mergeCell ref="AZ58:BO58"/>
+    <mergeCell ref="AL56:AT56"/>
+    <mergeCell ref="AU56:AY56"/>
+    <mergeCell ref="AZ56:BO56"/>
+    <mergeCell ref="AK29:BO29"/>
+    <mergeCell ref="AK30:BO30"/>
+    <mergeCell ref="X46:AD46"/>
+    <mergeCell ref="X47:AD47"/>
+    <mergeCell ref="X48:AD48"/>
+    <mergeCell ref="AK42:BO42"/>
+    <mergeCell ref="AK44:BO44"/>
+    <mergeCell ref="AK46:BO46"/>
+    <mergeCell ref="AK48:BO48"/>
+    <mergeCell ref="AK34:BO34"/>
+    <mergeCell ref="AH29:AJ29"/>
+    <mergeCell ref="AH30:AJ30"/>
+    <mergeCell ref="AH34:AJ34"/>
+    <mergeCell ref="AH35:AJ35"/>
+    <mergeCell ref="AH37:AJ37"/>
+    <mergeCell ref="AH39:AJ39"/>
+    <mergeCell ref="AH40:AJ40"/>
+    <mergeCell ref="AH41:AJ41"/>
+    <mergeCell ref="AH42:AJ42"/>
+    <mergeCell ref="AH43:AJ43"/>
+    <mergeCell ref="AH44:AJ44"/>
+    <mergeCell ref="AH45:AJ45"/>
+    <mergeCell ref="AH46:AJ46"/>
+    <mergeCell ref="AE40:AG40"/>
+    <mergeCell ref="D22:P22"/>
+    <mergeCell ref="Q22:W22"/>
+    <mergeCell ref="X22:AD22"/>
+    <mergeCell ref="AE22:AG22"/>
+    <mergeCell ref="AH22:AJ22"/>
+    <mergeCell ref="Q28:W28"/>
+    <mergeCell ref="X27:AD27"/>
+    <mergeCell ref="AE27:AG27"/>
+    <mergeCell ref="AH27:AJ27"/>
+    <mergeCell ref="X24:AD24"/>
+    <mergeCell ref="AE24:AG24"/>
+    <mergeCell ref="AH24:AJ24"/>
+    <mergeCell ref="X25:AD25"/>
+    <mergeCell ref="X26:AD26"/>
+    <mergeCell ref="X28:AD28"/>
+    <mergeCell ref="AE25:AG25"/>
+    <mergeCell ref="AE26:AG26"/>
+    <mergeCell ref="AE28:AG28"/>
+    <mergeCell ref="AH25:AJ25"/>
+    <mergeCell ref="AH26:AJ26"/>
+    <mergeCell ref="AH28:AJ28"/>
+    <mergeCell ref="D23:P23"/>
+    <mergeCell ref="Q23:W23"/>
+    <mergeCell ref="X23:AD23"/>
+    <mergeCell ref="AE23:AG23"/>
+    <mergeCell ref="AH23:AJ23"/>
+    <mergeCell ref="AK23:BO23"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:K54"/>
+    <mergeCell ref="L53:AB54"/>
+    <mergeCell ref="D33:P33"/>
+    <mergeCell ref="Q33:W33"/>
+    <mergeCell ref="X33:AD33"/>
+    <mergeCell ref="AE33:AG33"/>
+    <mergeCell ref="AH33:AJ33"/>
+    <mergeCell ref="AK33:BO33"/>
+    <mergeCell ref="AK27:BO27"/>
+    <mergeCell ref="D31:P31"/>
+    <mergeCell ref="Q31:W31"/>
+    <mergeCell ref="X31:AD31"/>
+    <mergeCell ref="AE31:AG31"/>
+    <mergeCell ref="AH31:AJ31"/>
+    <mergeCell ref="AK31:BO31"/>
+    <mergeCell ref="D32:P32"/>
+    <mergeCell ref="Q32:W32"/>
+    <mergeCell ref="AK38:BO38"/>
+    <mergeCell ref="Q36:W36"/>
+    <mergeCell ref="X36:AD36"/>
+    <mergeCell ref="AK36:BO36"/>
+    <mergeCell ref="Q37:W37"/>
+    <mergeCell ref="AE41:AG41"/>
+    <mergeCell ref="AE42:AG42"/>
+    <mergeCell ref="AE43:AG43"/>
+    <mergeCell ref="AE44:AG44"/>
+    <mergeCell ref="AE45:AG45"/>
+    <mergeCell ref="AE46:AG46"/>
+    <mergeCell ref="AE47:AG47"/>
+    <mergeCell ref="Q47:W47"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="I7:BO7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="I8:BO8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="I9:BO9"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="I10:BO10"/>
+    <mergeCell ref="AC53:AK54"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="C17:P17"/>
+    <mergeCell ref="AK14:BO14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="Q14:W14"/>
+    <mergeCell ref="X14:AD14"/>
+    <mergeCell ref="AK15:BO15"/>
+    <mergeCell ref="C14:P14"/>
+    <mergeCell ref="Q15:W15"/>
+    <mergeCell ref="X15:AD15"/>
+    <mergeCell ref="AE15:AG15"/>
+    <mergeCell ref="AH15:AJ15"/>
+    <mergeCell ref="AE14:AG14"/>
+    <mergeCell ref="Q17:W17"/>
+    <mergeCell ref="X17:AD17"/>
+    <mergeCell ref="AE17:AG17"/>
+    <mergeCell ref="AK17:BO17"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="I12:BO12"/>
+    <mergeCell ref="C18:P18"/>
+    <mergeCell ref="Q18:W18"/>
+    <mergeCell ref="X18:AD18"/>
+    <mergeCell ref="AE18:AG18"/>
+    <mergeCell ref="AH18:AJ18"/>
+    <mergeCell ref="AK18:BO18"/>
+    <mergeCell ref="C15:P15"/>
+    <mergeCell ref="D20:P20"/>
+    <mergeCell ref="Q20:W20"/>
+    <mergeCell ref="X20:AD20"/>
+    <mergeCell ref="AE20:AG20"/>
+    <mergeCell ref="AH20:AJ20"/>
+    <mergeCell ref="AK20:BO20"/>
+    <mergeCell ref="Q19:W19"/>
+    <mergeCell ref="X19:AD19"/>
+    <mergeCell ref="AK49:BO49"/>
+    <mergeCell ref="Q49:W49"/>
+    <mergeCell ref="X49:AD49"/>
+    <mergeCell ref="AE49:AG49"/>
+    <mergeCell ref="AH49:AJ49"/>
+    <mergeCell ref="AK21:BO21"/>
+    <mergeCell ref="Q38:W38"/>
+    <mergeCell ref="X38:AD38"/>
+    <mergeCell ref="AE38:AG38"/>
+    <mergeCell ref="AH38:AJ38"/>
+    <mergeCell ref="Q25:W25"/>
+    <mergeCell ref="Q26:W26"/>
+    <mergeCell ref="Q27:W27"/>
+    <mergeCell ref="D24:P24"/>
+    <mergeCell ref="Q24:W24"/>
+    <mergeCell ref="AK22:BO22"/>
     <mergeCell ref="Q21:W21"/>
     <mergeCell ref="X21:AD21"/>
     <mergeCell ref="AE21:AG21"/>
@@ -12887,215 +13096,6 @@
     <mergeCell ref="AK25:BO25"/>
     <mergeCell ref="AK26:BO26"/>
     <mergeCell ref="AK28:BO28"/>
-    <mergeCell ref="D20:P20"/>
-    <mergeCell ref="Q20:W20"/>
-    <mergeCell ref="X20:AD20"/>
-    <mergeCell ref="AE20:AG20"/>
-    <mergeCell ref="AH20:AJ20"/>
-    <mergeCell ref="AK20:BO20"/>
-    <mergeCell ref="Q19:W19"/>
-    <mergeCell ref="X19:AD19"/>
-    <mergeCell ref="AK49:BO49"/>
-    <mergeCell ref="Q49:W49"/>
-    <mergeCell ref="X49:AD49"/>
-    <mergeCell ref="AE49:AG49"/>
-    <mergeCell ref="AH49:AJ49"/>
-    <mergeCell ref="AK21:BO21"/>
-    <mergeCell ref="Q38:W38"/>
-    <mergeCell ref="X38:AD38"/>
-    <mergeCell ref="AE38:AG38"/>
-    <mergeCell ref="AH38:AJ38"/>
-    <mergeCell ref="Q25:W25"/>
-    <mergeCell ref="Q26:W26"/>
-    <mergeCell ref="Q27:W27"/>
-    <mergeCell ref="D24:P24"/>
-    <mergeCell ref="Q24:W24"/>
-    <mergeCell ref="AK22:BO22"/>
-    <mergeCell ref="AE17:AG17"/>
-    <mergeCell ref="AK17:BO17"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="I12:BO12"/>
-    <mergeCell ref="C18:P18"/>
-    <mergeCell ref="Q18:W18"/>
-    <mergeCell ref="X18:AD18"/>
-    <mergeCell ref="AE18:AG18"/>
-    <mergeCell ref="AH18:AJ18"/>
-    <mergeCell ref="AK18:BO18"/>
-    <mergeCell ref="C15:P15"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="I7:BO7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="I8:BO8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="I9:BO9"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="I10:BO10"/>
-    <mergeCell ref="AC53:AK54"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="C17:P17"/>
-    <mergeCell ref="AK14:BO14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="Q14:W14"/>
-    <mergeCell ref="X14:AD14"/>
-    <mergeCell ref="AK15:BO15"/>
-    <mergeCell ref="C14:P14"/>
-    <mergeCell ref="Q15:W15"/>
-    <mergeCell ref="X15:AD15"/>
-    <mergeCell ref="AE15:AG15"/>
-    <mergeCell ref="AH15:AJ15"/>
-    <mergeCell ref="AE14:AG14"/>
-    <mergeCell ref="Q17:W17"/>
-    <mergeCell ref="X17:AD17"/>
-    <mergeCell ref="AK36:BO36"/>
-    <mergeCell ref="Q37:W37"/>
-    <mergeCell ref="AE41:AG41"/>
-    <mergeCell ref="AE42:AG42"/>
-    <mergeCell ref="AE43:AG43"/>
-    <mergeCell ref="AE44:AG44"/>
-    <mergeCell ref="AE45:AG45"/>
-    <mergeCell ref="AE46:AG46"/>
-    <mergeCell ref="AE47:AG47"/>
-    <mergeCell ref="Q47:W47"/>
-    <mergeCell ref="AE23:AG23"/>
-    <mergeCell ref="AH23:AJ23"/>
-    <mergeCell ref="AK23:BO23"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:K54"/>
-    <mergeCell ref="L53:AB54"/>
-    <mergeCell ref="D33:P33"/>
-    <mergeCell ref="Q33:W33"/>
-    <mergeCell ref="X33:AD33"/>
-    <mergeCell ref="AE33:AG33"/>
-    <mergeCell ref="AH33:AJ33"/>
-    <mergeCell ref="AK33:BO33"/>
-    <mergeCell ref="AK27:BO27"/>
-    <mergeCell ref="D31:P31"/>
-    <mergeCell ref="Q31:W31"/>
-    <mergeCell ref="X31:AD31"/>
-    <mergeCell ref="AE31:AG31"/>
-    <mergeCell ref="AH31:AJ31"/>
-    <mergeCell ref="AK31:BO31"/>
-    <mergeCell ref="D32:P32"/>
-    <mergeCell ref="Q32:W32"/>
-    <mergeCell ref="AK38:BO38"/>
-    <mergeCell ref="Q36:W36"/>
-    <mergeCell ref="X36:AD36"/>
-    <mergeCell ref="D22:P22"/>
-    <mergeCell ref="Q22:W22"/>
-    <mergeCell ref="X22:AD22"/>
-    <mergeCell ref="AE22:AG22"/>
-    <mergeCell ref="AH22:AJ22"/>
-    <mergeCell ref="Q28:W28"/>
-    <mergeCell ref="X27:AD27"/>
-    <mergeCell ref="AE27:AG27"/>
-    <mergeCell ref="AH27:AJ27"/>
-    <mergeCell ref="X24:AD24"/>
-    <mergeCell ref="AE24:AG24"/>
-    <mergeCell ref="AH24:AJ24"/>
-    <mergeCell ref="X25:AD25"/>
-    <mergeCell ref="X26:AD26"/>
-    <mergeCell ref="X28:AD28"/>
-    <mergeCell ref="AE25:AG25"/>
-    <mergeCell ref="AE26:AG26"/>
-    <mergeCell ref="AE28:AG28"/>
-    <mergeCell ref="AH25:AJ25"/>
-    <mergeCell ref="AH26:AJ26"/>
-    <mergeCell ref="AH28:AJ28"/>
-    <mergeCell ref="D23:P23"/>
-    <mergeCell ref="Q23:W23"/>
-    <mergeCell ref="X23:AD23"/>
-    <mergeCell ref="AK29:BO29"/>
-    <mergeCell ref="AK30:BO30"/>
-    <mergeCell ref="X46:AD46"/>
-    <mergeCell ref="X47:AD47"/>
-    <mergeCell ref="X48:AD48"/>
-    <mergeCell ref="AK42:BO42"/>
-    <mergeCell ref="AK44:BO44"/>
-    <mergeCell ref="AK46:BO46"/>
-    <mergeCell ref="AK48:BO48"/>
-    <mergeCell ref="AK34:BO34"/>
-    <mergeCell ref="AH29:AJ29"/>
-    <mergeCell ref="AH30:AJ30"/>
-    <mergeCell ref="AH34:AJ34"/>
-    <mergeCell ref="AH35:AJ35"/>
-    <mergeCell ref="AH37:AJ37"/>
-    <mergeCell ref="AH39:AJ39"/>
-    <mergeCell ref="AH40:AJ40"/>
-    <mergeCell ref="AH41:AJ41"/>
-    <mergeCell ref="AH42:AJ42"/>
-    <mergeCell ref="AH43:AJ43"/>
-    <mergeCell ref="AH44:AJ44"/>
-    <mergeCell ref="AH45:AJ45"/>
-    <mergeCell ref="AH46:AJ46"/>
-    <mergeCell ref="AE40:AG40"/>
-    <mergeCell ref="AL60:AT60"/>
-    <mergeCell ref="AU60:AY60"/>
-    <mergeCell ref="AZ60:BO60"/>
-    <mergeCell ref="AL58:AT58"/>
-    <mergeCell ref="AU58:AY58"/>
-    <mergeCell ref="AZ58:BO58"/>
-    <mergeCell ref="AL56:AT56"/>
-    <mergeCell ref="AU56:AY56"/>
-    <mergeCell ref="AZ56:BO56"/>
-    <mergeCell ref="AL53:BO53"/>
-    <mergeCell ref="AL54:AT54"/>
-    <mergeCell ref="AU54:AY54"/>
-    <mergeCell ref="AZ54:BO54"/>
-    <mergeCell ref="AL55:AT55"/>
-    <mergeCell ref="Q34:W34"/>
-    <mergeCell ref="X35:AD35"/>
-    <mergeCell ref="X39:AD39"/>
-    <mergeCell ref="X40:AD40"/>
-    <mergeCell ref="X41:AD41"/>
-    <mergeCell ref="X42:AD42"/>
-    <mergeCell ref="X43:AD43"/>
-    <mergeCell ref="X44:AD44"/>
-    <mergeCell ref="X45:AD45"/>
-    <mergeCell ref="AK35:BO35"/>
-    <mergeCell ref="AK37:BO37"/>
-    <mergeCell ref="AK39:BO39"/>
-    <mergeCell ref="AK40:BO40"/>
-    <mergeCell ref="AK41:BO41"/>
-    <mergeCell ref="AK43:BO43"/>
-    <mergeCell ref="AK45:BO45"/>
-    <mergeCell ref="AK47:BO47"/>
-    <mergeCell ref="L55:AB55"/>
-    <mergeCell ref="AC55:AK55"/>
-    <mergeCell ref="D58:K58"/>
-    <mergeCell ref="C92:P92"/>
-    <mergeCell ref="C93:E93"/>
-    <mergeCell ref="D94:AJ94"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="D96:AJ96"/>
-    <mergeCell ref="Q39:W39"/>
-    <mergeCell ref="Q40:W40"/>
-    <mergeCell ref="Q41:W41"/>
-    <mergeCell ref="L58:AB58"/>
-    <mergeCell ref="AC58:AK58"/>
-    <mergeCell ref="C55:K55"/>
-    <mergeCell ref="C56:K56"/>
-    <mergeCell ref="L56:AB56"/>
-    <mergeCell ref="AC56:AK56"/>
-    <mergeCell ref="AE48:AG48"/>
-    <mergeCell ref="Q48:W48"/>
-    <mergeCell ref="C60:K60"/>
-    <mergeCell ref="L60:AB60"/>
-    <mergeCell ref="AC60:AK60"/>
-    <mergeCell ref="Q35:W35"/>
-    <mergeCell ref="Q42:W42"/>
-    <mergeCell ref="Q43:W43"/>
-    <mergeCell ref="Q44:W44"/>
-    <mergeCell ref="Q45:W45"/>
-    <mergeCell ref="Q46:W46"/>
-    <mergeCell ref="AH47:AJ47"/>
-    <mergeCell ref="AH48:AJ48"/>
-    <mergeCell ref="AE34:AG34"/>
-    <mergeCell ref="AE35:AG35"/>
-    <mergeCell ref="AE37:AG37"/>
-    <mergeCell ref="AE39:AG39"/>
-    <mergeCell ref="AE36:AG36"/>
-    <mergeCell ref="AH36:AJ36"/>
-    <mergeCell ref="X34:AD34"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <dataValidations count="1">
@@ -13583,7 +13583,7 @@
     <row r="7" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A7" s="2"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="130" t="s">
+      <c r="C7" s="100" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="79"/>
@@ -13591,7 +13591,7 @@
       <c r="F7" s="79"/>
       <c r="G7" s="79"/>
       <c r="H7" s="80"/>
-      <c r="I7" s="92" t="s">
+      <c r="I7" s="88" t="s">
         <v>48</v>
       </c>
       <c r="J7" s="79"/>
@@ -13657,7 +13657,7 @@
     <row r="8" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A8" s="2"/>
       <c r="B8" s="13"/>
-      <c r="C8" s="130" t="s">
+      <c r="C8" s="100" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="79"/>
@@ -13665,7 +13665,7 @@
       <c r="F8" s="79"/>
       <c r="G8" s="79"/>
       <c r="H8" s="80"/>
-      <c r="I8" s="92" t="s">
+      <c r="I8" s="88" t="s">
         <v>24</v>
       </c>
       <c r="J8" s="79"/>
@@ -13731,7 +13731,7 @@
     <row r="9" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A9" s="2"/>
       <c r="B9" s="13"/>
-      <c r="C9" s="130" t="s">
+      <c r="C9" s="100" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="79"/>
@@ -13739,7 +13739,7 @@
       <c r="F9" s="79"/>
       <c r="G9" s="79"/>
       <c r="H9" s="80"/>
-      <c r="I9" s="92" t="s">
+      <c r="I9" s="88" t="s">
         <v>26</v>
       </c>
       <c r="J9" s="79"/>
@@ -13805,75 +13805,75 @@
     <row r="10" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A10" s="32"/>
       <c r="B10" s="33"/>
-      <c r="C10" s="130" t="s">
+      <c r="C10" s="100" t="s">
         <v>193</v>
       </c>
-      <c r="D10" s="131"/>
-      <c r="E10" s="131"/>
-      <c r="F10" s="131"/>
-      <c r="G10" s="131"/>
-      <c r="H10" s="131"/>
-      <c r="I10" s="132" t="s">
+      <c r="D10" s="102"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="103" t="s">
         <v>139</v>
       </c>
-      <c r="J10" s="132"/>
-      <c r="K10" s="132"/>
-      <c r="L10" s="132"/>
-      <c r="M10" s="132"/>
-      <c r="N10" s="132"/>
-      <c r="O10" s="132"/>
-      <c r="P10" s="132"/>
-      <c r="Q10" s="132"/>
-      <c r="R10" s="132"/>
-      <c r="S10" s="132"/>
-      <c r="T10" s="132"/>
-      <c r="U10" s="132"/>
-      <c r="V10" s="132"/>
-      <c r="W10" s="132"/>
-      <c r="X10" s="132"/>
-      <c r="Y10" s="132"/>
-      <c r="Z10" s="132"/>
-      <c r="AA10" s="132"/>
-      <c r="AB10" s="132"/>
-      <c r="AC10" s="132"/>
-      <c r="AD10" s="132"/>
-      <c r="AE10" s="132"/>
-      <c r="AF10" s="132"/>
-      <c r="AG10" s="132"/>
-      <c r="AH10" s="132"/>
-      <c r="AI10" s="132"/>
-      <c r="AJ10" s="132"/>
-      <c r="AK10" s="132"/>
-      <c r="AL10" s="132"/>
-      <c r="AM10" s="132"/>
-      <c r="AN10" s="132"/>
-      <c r="AO10" s="132"/>
-      <c r="AP10" s="132"/>
-      <c r="AQ10" s="132"/>
-      <c r="AR10" s="132"/>
-      <c r="AS10" s="132"/>
-      <c r="AT10" s="132"/>
-      <c r="AU10" s="132"/>
-      <c r="AV10" s="132"/>
-      <c r="AW10" s="132"/>
-      <c r="AX10" s="132"/>
-      <c r="AY10" s="132"/>
-      <c r="AZ10" s="132"/>
-      <c r="BA10" s="132"/>
-      <c r="BB10" s="132"/>
-      <c r="BC10" s="132"/>
-      <c r="BD10" s="132"/>
-      <c r="BE10" s="132"/>
-      <c r="BF10" s="132"/>
-      <c r="BG10" s="132"/>
-      <c r="BH10" s="132"/>
-      <c r="BI10" s="132"/>
-      <c r="BJ10" s="132"/>
-      <c r="BK10" s="132"/>
-      <c r="BL10" s="132"/>
-      <c r="BM10" s="132"/>
-      <c r="BN10" s="132"/>
-      <c r="BO10" s="132"/>
+      <c r="J10" s="103"/>
+      <c r="K10" s="103"/>
+      <c r="L10" s="103"/>
+      <c r="M10" s="103"/>
+      <c r="N10" s="103"/>
+      <c r="O10" s="103"/>
+      <c r="P10" s="103"/>
+      <c r="Q10" s="103"/>
+      <c r="R10" s="103"/>
+      <c r="S10" s="103"/>
+      <c r="T10" s="103"/>
+      <c r="U10" s="103"/>
+      <c r="V10" s="103"/>
+      <c r="W10" s="103"/>
+      <c r="X10" s="103"/>
+      <c r="Y10" s="103"/>
+      <c r="Z10" s="103"/>
+      <c r="AA10" s="103"/>
+      <c r="AB10" s="103"/>
+      <c r="AC10" s="103"/>
+      <c r="AD10" s="103"/>
+      <c r="AE10" s="103"/>
+      <c r="AF10" s="103"/>
+      <c r="AG10" s="103"/>
+      <c r="AH10" s="103"/>
+      <c r="AI10" s="103"/>
+      <c r="AJ10" s="103"/>
+      <c r="AK10" s="103"/>
+      <c r="AL10" s="103"/>
+      <c r="AM10" s="103"/>
+      <c r="AN10" s="103"/>
+      <c r="AO10" s="103"/>
+      <c r="AP10" s="103"/>
+      <c r="AQ10" s="103"/>
+      <c r="AR10" s="103"/>
+      <c r="AS10" s="103"/>
+      <c r="AT10" s="103"/>
+      <c r="AU10" s="103"/>
+      <c r="AV10" s="103"/>
+      <c r="AW10" s="103"/>
+      <c r="AX10" s="103"/>
+      <c r="AY10" s="103"/>
+      <c r="AZ10" s="103"/>
+      <c r="BA10" s="103"/>
+      <c r="BB10" s="103"/>
+      <c r="BC10" s="103"/>
+      <c r="BD10" s="103"/>
+      <c r="BE10" s="103"/>
+      <c r="BF10" s="103"/>
+      <c r="BG10" s="103"/>
+      <c r="BH10" s="103"/>
+      <c r="BI10" s="103"/>
+      <c r="BJ10" s="103"/>
+      <c r="BK10" s="103"/>
+      <c r="BL10" s="103"/>
+      <c r="BM10" s="103"/>
+      <c r="BN10" s="103"/>
+      <c r="BO10" s="103"/>
       <c r="BP10" s="32"/>
     </row>
     <row r="11" spans="1:68" ht="16.5" outlineLevel="1">
@@ -13952,14 +13952,14 @@
       <c r="A12" s="2"/>
       <c r="B12" s="13"/>
       <c r="C12" s="17"/>
-      <c r="D12" s="92" t="s">
+      <c r="D12" s="88" t="s">
         <v>28</v>
       </c>
       <c r="E12" s="79"/>
       <c r="F12" s="79"/>
       <c r="G12" s="79"/>
       <c r="H12" s="80"/>
-      <c r="I12" s="105" t="s">
+      <c r="I12" s="94" t="s">
         <v>29</v>
       </c>
       <c r="J12" s="79"/>
@@ -14026,14 +14026,14 @@
       <c r="A13" s="2"/>
       <c r="B13" s="13"/>
       <c r="C13" s="17"/>
-      <c r="D13" s="92" t="s">
+      <c r="D13" s="88" t="s">
         <v>30</v>
       </c>
       <c r="E13" s="79"/>
       <c r="F13" s="79"/>
       <c r="G13" s="79"/>
       <c r="H13" s="80"/>
-      <c r="I13" s="105" t="s">
+      <c r="I13" s="94" t="s">
         <v>31</v>
       </c>
       <c r="J13" s="79"/>
@@ -14100,14 +14100,14 @@
       <c r="A14" s="2"/>
       <c r="B14" s="13"/>
       <c r="C14" s="17"/>
-      <c r="D14" s="92" t="s">
+      <c r="D14" s="88" t="s">
         <v>73</v>
       </c>
       <c r="E14" s="79"/>
       <c r="F14" s="79"/>
       <c r="G14" s="79"/>
       <c r="H14" s="80"/>
-      <c r="I14" s="105" t="s">
+      <c r="I14" s="94" t="s">
         <v>74</v>
       </c>
       <c r="J14" s="79"/>
@@ -14172,11 +14172,11 @@
     </row>
     <row r="15" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A15" s="2"/>
-      <c r="B15" s="135" t="s">
+      <c r="B15" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="96"/>
-      <c r="D15" s="96"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="105"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
@@ -14279,7 +14279,7 @@
       <c r="AB16" s="79"/>
       <c r="AC16" s="79"/>
       <c r="AD16" s="80"/>
-      <c r="AE16" s="130" t="s">
+      <c r="AE16" s="100" t="s">
         <v>20</v>
       </c>
       <c r="AF16" s="79"/>
@@ -14327,22 +14327,22 @@
     <row r="17" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A17" s="2"/>
       <c r="B17" s="13"/>
-      <c r="C17" s="117" t="s">
-        <v>89</v>
+      <c r="C17" s="97" t="s">
+        <v>140</v>
       </c>
-      <c r="D17" s="96"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="96"/>
-      <c r="H17" s="96"/>
-      <c r="I17" s="96"/>
-      <c r="J17" s="96"/>
-      <c r="K17" s="96"/>
-      <c r="L17" s="96"/>
-      <c r="M17" s="96"/>
-      <c r="N17" s="96"/>
-      <c r="O17" s="96"/>
-      <c r="P17" s="123"/>
+      <c r="D17" s="105"/>
+      <c r="E17" s="105"/>
+      <c r="F17" s="105"/>
+      <c r="G17" s="105"/>
+      <c r="H17" s="105"/>
+      <c r="I17" s="105"/>
+      <c r="J17" s="105"/>
+      <c r="K17" s="105"/>
+      <c r="L17" s="105"/>
+      <c r="M17" s="105"/>
+      <c r="N17" s="105"/>
+      <c r="O17" s="105"/>
+      <c r="P17" s="106"/>
       <c r="Q17" s="87" t="s">
         <v>36</v>
       </c>
@@ -14361,7 +14361,7 @@
       <c r="AB17" s="79"/>
       <c r="AC17" s="79"/>
       <c r="AD17" s="80"/>
-      <c r="AE17" s="92"/>
+      <c r="AE17" s="88"/>
       <c r="AF17" s="79"/>
       <c r="AG17" s="80"/>
       <c r="AH17" s="87"/>
@@ -14403,22 +14403,22 @@
     <row r="18" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A18" s="2"/>
       <c r="B18" s="13"/>
-      <c r="C18" s="117" t="s">
-        <v>140</v>
+      <c r="C18" s="97" t="s">
+        <v>89</v>
       </c>
-      <c r="D18" s="96"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="96"/>
-      <c r="G18" s="96"/>
-      <c r="H18" s="96"/>
-      <c r="I18" s="96"/>
-      <c r="J18" s="96"/>
-      <c r="K18" s="96"/>
-      <c r="L18" s="96"/>
-      <c r="M18" s="96"/>
-      <c r="N18" s="96"/>
-      <c r="O18" s="96"/>
-      <c r="P18" s="123"/>
+      <c r="D18" s="105"/>
+      <c r="E18" s="105"/>
+      <c r="F18" s="105"/>
+      <c r="G18" s="105"/>
+      <c r="H18" s="105"/>
+      <c r="I18" s="105"/>
+      <c r="J18" s="105"/>
+      <c r="K18" s="105"/>
+      <c r="L18" s="105"/>
+      <c r="M18" s="105"/>
+      <c r="N18" s="105"/>
+      <c r="O18" s="105"/>
+      <c r="P18" s="106"/>
       <c r="Q18" s="87" t="s">
         <v>36</v>
       </c>
@@ -14437,7 +14437,7 @@
       <c r="AB18" s="79"/>
       <c r="AC18" s="79"/>
       <c r="AD18" s="80"/>
-      <c r="AE18" s="92"/>
+      <c r="AE18" s="88"/>
       <c r="AF18" s="79"/>
       <c r="AG18" s="80"/>
       <c r="AH18" s="87"/>
@@ -14478,11 +14478,11 @@
     </row>
     <row r="19" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A19" s="2"/>
-      <c r="B19" s="135" t="s">
+      <c r="B19" s="110" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="96"/>
-      <c r="D19" s="96"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="105"/>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
@@ -14585,7 +14585,7 @@
       <c r="AB20" s="79"/>
       <c r="AC20" s="79"/>
       <c r="AD20" s="80"/>
-      <c r="AE20" s="130" t="s">
+      <c r="AE20" s="100" t="s">
         <v>20</v>
       </c>
       <c r="AF20" s="79"/>
@@ -14633,7 +14633,7 @@
     <row r="21" spans="1:68" ht="33" customHeight="1" outlineLevel="1">
       <c r="A21" s="2"/>
       <c r="B21" s="13"/>
-      <c r="C21" s="92" t="s">
+      <c r="C21" s="88" t="s">
         <v>75</v>
       </c>
       <c r="D21" s="79"/>
@@ -14667,15 +14667,15 @@
       <c r="AB21" s="79"/>
       <c r="AC21" s="79"/>
       <c r="AD21" s="80"/>
-      <c r="AE21" s="92">
+      <c r="AE21" s="88">
         <v>1</v>
       </c>
       <c r="AF21" s="79"/>
       <c r="AG21" s="80"/>
-      <c r="AH21" s="89"/>
-      <c r="AI21" s="90"/>
-      <c r="AJ21" s="91"/>
-      <c r="AK21" s="113" t="s">
+      <c r="AH21" s="91"/>
+      <c r="AI21" s="92"/>
+      <c r="AJ21" s="93"/>
+      <c r="AK21" s="101" t="s">
         <v>76</v>
       </c>
       <c r="AL21" s="79"/>
@@ -14745,14 +14745,14 @@
       <c r="AB22" s="79"/>
       <c r="AC22" s="79"/>
       <c r="AD22" s="80"/>
-      <c r="AE22" s="92"/>
+      <c r="AE22" s="88"/>
       <c r="AF22" s="79"/>
       <c r="AG22" s="80"/>
-      <c r="AH22" s="89" t="s">
+      <c r="AH22" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="AI22" s="90"/>
-      <c r="AJ22" s="91"/>
+      <c r="AI22" s="92"/>
+      <c r="AJ22" s="93"/>
       <c r="AK22" s="87" t="s">
         <v>77</v>
       </c>
@@ -14792,21 +14792,21 @@
       <c r="A23" s="2"/>
       <c r="B23" s="65"/>
       <c r="C23" s="41"/>
-      <c r="D23" s="92" t="s">
+      <c r="D23" s="88" t="s">
         <v>78</v>
       </c>
-      <c r="E23" s="105"/>
-      <c r="F23" s="105"/>
-      <c r="G23" s="105"/>
-      <c r="H23" s="105"/>
-      <c r="I23" s="105"/>
-      <c r="J23" s="105"/>
-      <c r="K23" s="105"/>
-      <c r="L23" s="105"/>
-      <c r="M23" s="105"/>
-      <c r="N23" s="105"/>
-      <c r="O23" s="105"/>
-      <c r="P23" s="107"/>
+      <c r="E23" s="94"/>
+      <c r="F23" s="94"/>
+      <c r="G23" s="94"/>
+      <c r="H23" s="94"/>
+      <c r="I23" s="94"/>
+      <c r="J23" s="94"/>
+      <c r="K23" s="94"/>
+      <c r="L23" s="94"/>
+      <c r="M23" s="94"/>
+      <c r="N23" s="94"/>
+      <c r="O23" s="94"/>
+      <c r="P23" s="95"/>
       <c r="Q23" s="87" t="s">
         <v>95</v>
       </c>
@@ -14823,12 +14823,12 @@
       <c r="AB23" s="79"/>
       <c r="AC23" s="79"/>
       <c r="AD23" s="80"/>
-      <c r="AE23" s="92"/>
+      <c r="AE23" s="88"/>
       <c r="AF23" s="79"/>
       <c r="AG23" s="80"/>
-      <c r="AH23" s="89"/>
-      <c r="AI23" s="90"/>
-      <c r="AJ23" s="91"/>
+      <c r="AH23" s="91"/>
+      <c r="AI23" s="92"/>
+      <c r="AJ23" s="93"/>
       <c r="AK23" s="87"/>
       <c r="AL23" s="79"/>
       <c r="AM23" s="79"/>
@@ -15077,51 +15077,51 @@
     </row>
     <row r="27" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A27" s="5"/>
-      <c r="B27" s="120" t="s">
+      <c r="B27" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="122" t="s">
+      <c r="C27" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="96"/>
-      <c r="E27" s="96"/>
-      <c r="F27" s="96"/>
-      <c r="G27" s="96"/>
-      <c r="H27" s="96"/>
-      <c r="I27" s="96"/>
-      <c r="J27" s="96"/>
-      <c r="K27" s="123"/>
-      <c r="L27" s="122" t="s">
+      <c r="D27" s="105"/>
+      <c r="E27" s="105"/>
+      <c r="F27" s="105"/>
+      <c r="G27" s="105"/>
+      <c r="H27" s="105"/>
+      <c r="I27" s="105"/>
+      <c r="J27" s="105"/>
+      <c r="K27" s="106"/>
+      <c r="L27" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="M27" s="96"/>
-      <c r="N27" s="96"/>
-      <c r="O27" s="96"/>
-      <c r="P27" s="96"/>
-      <c r="Q27" s="96"/>
-      <c r="R27" s="96"/>
-      <c r="S27" s="96"/>
-      <c r="T27" s="96"/>
-      <c r="U27" s="96"/>
-      <c r="V27" s="96"/>
-      <c r="W27" s="96"/>
-      <c r="X27" s="96"/>
-      <c r="Y27" s="96"/>
-      <c r="Z27" s="96"/>
-      <c r="AA27" s="96"/>
-      <c r="AB27" s="123"/>
-      <c r="AC27" s="122" t="s">
+      <c r="M27" s="105"/>
+      <c r="N27" s="105"/>
+      <c r="O27" s="105"/>
+      <c r="P27" s="105"/>
+      <c r="Q27" s="105"/>
+      <c r="R27" s="105"/>
+      <c r="S27" s="105"/>
+      <c r="T27" s="105"/>
+      <c r="U27" s="105"/>
+      <c r="V27" s="105"/>
+      <c r="W27" s="105"/>
+      <c r="X27" s="105"/>
+      <c r="Y27" s="105"/>
+      <c r="Z27" s="105"/>
+      <c r="AA27" s="105"/>
+      <c r="AB27" s="106"/>
+      <c r="AC27" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="AD27" s="96"/>
-      <c r="AE27" s="96"/>
-      <c r="AF27" s="96"/>
-      <c r="AG27" s="96"/>
-      <c r="AH27" s="96"/>
-      <c r="AI27" s="96"/>
-      <c r="AJ27" s="96"/>
-      <c r="AK27" s="123"/>
-      <c r="AL27" s="108" t="s">
+      <c r="AD27" s="105"/>
+      <c r="AE27" s="105"/>
+      <c r="AF27" s="105"/>
+      <c r="AG27" s="105"/>
+      <c r="AH27" s="105"/>
+      <c r="AI27" s="105"/>
+      <c r="AJ27" s="105"/>
+      <c r="AK27" s="106"/>
+      <c r="AL27" s="121" t="s">
         <v>12</v>
       </c>
       <c r="AM27" s="79"/>
@@ -15157,43 +15157,43 @@
     </row>
     <row r="28" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A28" s="5"/>
-      <c r="B28" s="121"/>
-      <c r="C28" s="124"/>
-      <c r="D28" s="125"/>
-      <c r="E28" s="125"/>
-      <c r="F28" s="125"/>
-      <c r="G28" s="125"/>
-      <c r="H28" s="125"/>
-      <c r="I28" s="125"/>
-      <c r="J28" s="125"/>
-      <c r="K28" s="126"/>
-      <c r="L28" s="124"/>
-      <c r="M28" s="125"/>
-      <c r="N28" s="125"/>
-      <c r="O28" s="125"/>
-      <c r="P28" s="125"/>
-      <c r="Q28" s="125"/>
-      <c r="R28" s="125"/>
-      <c r="S28" s="125"/>
-      <c r="T28" s="125"/>
-      <c r="U28" s="125"/>
-      <c r="V28" s="125"/>
-      <c r="W28" s="125"/>
-      <c r="X28" s="125"/>
-      <c r="Y28" s="125"/>
-      <c r="Z28" s="125"/>
-      <c r="AA28" s="125"/>
-      <c r="AB28" s="126"/>
-      <c r="AC28" s="133"/>
-      <c r="AD28" s="134"/>
-      <c r="AE28" s="134"/>
-      <c r="AF28" s="134"/>
-      <c r="AG28" s="134"/>
-      <c r="AH28" s="134"/>
-      <c r="AI28" s="134"/>
-      <c r="AJ28" s="134"/>
-      <c r="AK28" s="121"/>
-      <c r="AL28" s="109" t="s">
+      <c r="B28" s="109"/>
+      <c r="C28" s="112"/>
+      <c r="D28" s="113"/>
+      <c r="E28" s="113"/>
+      <c r="F28" s="113"/>
+      <c r="G28" s="113"/>
+      <c r="H28" s="113"/>
+      <c r="I28" s="113"/>
+      <c r="J28" s="113"/>
+      <c r="K28" s="114"/>
+      <c r="L28" s="112"/>
+      <c r="M28" s="113"/>
+      <c r="N28" s="113"/>
+      <c r="O28" s="113"/>
+      <c r="P28" s="113"/>
+      <c r="Q28" s="113"/>
+      <c r="R28" s="113"/>
+      <c r="S28" s="113"/>
+      <c r="T28" s="113"/>
+      <c r="U28" s="113"/>
+      <c r="V28" s="113"/>
+      <c r="W28" s="113"/>
+      <c r="X28" s="113"/>
+      <c r="Y28" s="113"/>
+      <c r="Z28" s="113"/>
+      <c r="AA28" s="113"/>
+      <c r="AB28" s="114"/>
+      <c r="AC28" s="107"/>
+      <c r="AD28" s="108"/>
+      <c r="AE28" s="108"/>
+      <c r="AF28" s="108"/>
+      <c r="AG28" s="108"/>
+      <c r="AH28" s="108"/>
+      <c r="AI28" s="108"/>
+      <c r="AJ28" s="108"/>
+      <c r="AK28" s="109"/>
+      <c r="AL28" s="122" t="s">
         <v>13</v>
       </c>
       <c r="AM28" s="79"/>
@@ -15204,14 +15204,14 @@
       <c r="AR28" s="79"/>
       <c r="AS28" s="79"/>
       <c r="AT28" s="80"/>
-      <c r="AU28" s="109" t="s">
+      <c r="AU28" s="122" t="s">
         <v>14</v>
       </c>
       <c r="AV28" s="79"/>
       <c r="AW28" s="79"/>
       <c r="AX28" s="79"/>
       <c r="AY28" s="80"/>
-      <c r="AZ28" s="109" t="s">
+      <c r="AZ28" s="122" t="s">
         <v>15</v>
       </c>
       <c r="BA28" s="79"/>
@@ -15237,62 +15237,62 @@
         <f ca="1">MAX(B$27:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>1</v>
       </c>
-      <c r="C29" s="92" t="s">
+      <c r="C29" s="88" t="s">
         <v>145</v>
       </c>
-      <c r="D29" s="165"/>
-      <c r="E29" s="165"/>
-      <c r="F29" s="165"/>
-      <c r="G29" s="165"/>
-      <c r="H29" s="165"/>
-      <c r="I29" s="165"/>
-      <c r="J29" s="165"/>
-      <c r="K29" s="166"/>
-      <c r="L29" s="103"/>
-      <c r="M29" s="104"/>
-      <c r="N29" s="104"/>
-      <c r="O29" s="104"/>
-      <c r="P29" s="104"/>
-      <c r="Q29" s="104"/>
-      <c r="R29" s="104"/>
-      <c r="S29" s="104"/>
-      <c r="T29" s="104"/>
-      <c r="U29" s="104"/>
-      <c r="V29" s="104"/>
-      <c r="W29" s="104"/>
-      <c r="X29" s="104"/>
-      <c r="Y29" s="104"/>
-      <c r="Z29" s="104"/>
-      <c r="AA29" s="104"/>
-      <c r="AB29" s="104"/>
-      <c r="AC29" s="92" t="s">
+      <c r="D29" s="140"/>
+      <c r="E29" s="140"/>
+      <c r="F29" s="140"/>
+      <c r="G29" s="140"/>
+      <c r="H29" s="140"/>
+      <c r="I29" s="140"/>
+      <c r="J29" s="140"/>
+      <c r="K29" s="141"/>
+      <c r="L29" s="134"/>
+      <c r="M29" s="124"/>
+      <c r="N29" s="124"/>
+      <c r="O29" s="124"/>
+      <c r="P29" s="124"/>
+      <c r="Q29" s="124"/>
+      <c r="R29" s="124"/>
+      <c r="S29" s="124"/>
+      <c r="T29" s="124"/>
+      <c r="U29" s="124"/>
+      <c r="V29" s="124"/>
+      <c r="W29" s="124"/>
+      <c r="X29" s="124"/>
+      <c r="Y29" s="124"/>
+      <c r="Z29" s="124"/>
+      <c r="AA29" s="124"/>
+      <c r="AB29" s="124"/>
+      <c r="AC29" s="88" t="s">
         <v>146</v>
       </c>
-      <c r="AD29" s="165"/>
-      <c r="AE29" s="165"/>
-      <c r="AF29" s="165"/>
-      <c r="AG29" s="165"/>
-      <c r="AH29" s="165"/>
-      <c r="AI29" s="165"/>
-      <c r="AJ29" s="165"/>
-      <c r="AK29" s="166"/>
-      <c r="AL29" s="167" t="s">
+      <c r="AD29" s="140"/>
+      <c r="AE29" s="140"/>
+      <c r="AF29" s="140"/>
+      <c r="AG29" s="140"/>
+      <c r="AH29" s="140"/>
+      <c r="AI29" s="140"/>
+      <c r="AJ29" s="140"/>
+      <c r="AK29" s="141"/>
+      <c r="AL29" s="142" t="s">
         <v>147</v>
       </c>
-      <c r="AM29" s="168"/>
-      <c r="AN29" s="168"/>
-      <c r="AO29" s="168"/>
-      <c r="AP29" s="168"/>
-      <c r="AQ29" s="168"/>
-      <c r="AR29" s="168"/>
-      <c r="AS29" s="168"/>
-      <c r="AT29" s="169"/>
-      <c r="AU29" s="110"/>
+      <c r="AM29" s="143"/>
+      <c r="AN29" s="143"/>
+      <c r="AO29" s="143"/>
+      <c r="AP29" s="143"/>
+      <c r="AQ29" s="143"/>
+      <c r="AR29" s="143"/>
+      <c r="AS29" s="143"/>
+      <c r="AT29" s="144"/>
+      <c r="AU29" s="89"/>
       <c r="AV29" s="79"/>
       <c r="AW29" s="79"/>
       <c r="AX29" s="79"/>
       <c r="AY29" s="80"/>
-      <c r="AZ29" s="112"/>
+      <c r="AZ29" s="90"/>
       <c r="BA29" s="79"/>
       <c r="BB29" s="79"/>
       <c r="BC29" s="79"/>
@@ -15316,37 +15316,37 @@
         <f ca="1">MAX(B$27:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>2</v>
       </c>
-      <c r="C30" s="158" t="s">
+      <c r="C30" s="145" t="s">
         <v>159</v>
       </c>
-      <c r="D30" s="159"/>
-      <c r="E30" s="159"/>
-      <c r="F30" s="159"/>
-      <c r="G30" s="159"/>
-      <c r="H30" s="159"/>
-      <c r="I30" s="159"/>
-      <c r="J30" s="159"/>
-      <c r="K30" s="160"/>
-      <c r="L30" s="132" t="s">
+      <c r="D30" s="146"/>
+      <c r="E30" s="146"/>
+      <c r="F30" s="146"/>
+      <c r="G30" s="146"/>
+      <c r="H30" s="146"/>
+      <c r="I30" s="146"/>
+      <c r="J30" s="146"/>
+      <c r="K30" s="147"/>
+      <c r="L30" s="103" t="s">
         <v>161</v>
       </c>
-      <c r="M30" s="132"/>
-      <c r="N30" s="132"/>
-      <c r="O30" s="132"/>
-      <c r="P30" s="132"/>
-      <c r="Q30" s="132"/>
-      <c r="R30" s="132"/>
-      <c r="S30" s="132"/>
-      <c r="T30" s="132"/>
-      <c r="U30" s="132"/>
-      <c r="V30" s="132"/>
-      <c r="W30" s="132"/>
-      <c r="X30" s="132"/>
-      <c r="Y30" s="132"/>
-      <c r="Z30" s="132"/>
-      <c r="AA30" s="132"/>
-      <c r="AB30" s="132"/>
-      <c r="AC30" s="105"/>
+      <c r="M30" s="103"/>
+      <c r="N30" s="103"/>
+      <c r="O30" s="103"/>
+      <c r="P30" s="103"/>
+      <c r="Q30" s="103"/>
+      <c r="R30" s="103"/>
+      <c r="S30" s="103"/>
+      <c r="T30" s="103"/>
+      <c r="U30" s="103"/>
+      <c r="V30" s="103"/>
+      <c r="W30" s="103"/>
+      <c r="X30" s="103"/>
+      <c r="Y30" s="103"/>
+      <c r="Z30" s="103"/>
+      <c r="AA30" s="103"/>
+      <c r="AB30" s="103"/>
+      <c r="AC30" s="94"/>
       <c r="AD30" s="79"/>
       <c r="AE30" s="79"/>
       <c r="AF30" s="79"/>
@@ -15355,7 +15355,7 @@
       <c r="AI30" s="79"/>
       <c r="AJ30" s="79"/>
       <c r="AK30" s="80"/>
-      <c r="AL30" s="110"/>
+      <c r="AL30" s="89"/>
       <c r="AM30" s="79"/>
       <c r="AN30" s="79"/>
       <c r="AO30" s="79"/>
@@ -15364,12 +15364,12 @@
       <c r="AR30" s="79"/>
       <c r="AS30" s="79"/>
       <c r="AT30" s="80"/>
-      <c r="AU30" s="110"/>
+      <c r="AU30" s="89"/>
       <c r="AV30" s="79"/>
       <c r="AW30" s="79"/>
       <c r="AX30" s="79"/>
       <c r="AY30" s="80"/>
-      <c r="AZ30" s="112"/>
+      <c r="AZ30" s="90"/>
       <c r="BA30" s="79"/>
       <c r="BB30" s="79"/>
       <c r="BC30" s="79"/>
@@ -15393,37 +15393,37 @@
         <f ca="1">MAX(B$27:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>3</v>
       </c>
-      <c r="C31" s="158" t="s">
+      <c r="C31" s="145" t="s">
         <v>148</v>
       </c>
-      <c r="D31" s="159"/>
-      <c r="E31" s="159"/>
-      <c r="F31" s="159"/>
-      <c r="G31" s="159"/>
-      <c r="H31" s="159"/>
-      <c r="I31" s="159"/>
-      <c r="J31" s="159"/>
-      <c r="K31" s="160"/>
-      <c r="L31" s="132" t="s">
+      <c r="D31" s="146"/>
+      <c r="E31" s="146"/>
+      <c r="F31" s="146"/>
+      <c r="G31" s="146"/>
+      <c r="H31" s="146"/>
+      <c r="I31" s="146"/>
+      <c r="J31" s="146"/>
+      <c r="K31" s="147"/>
+      <c r="L31" s="103" t="s">
         <v>160</v>
       </c>
-      <c r="M31" s="132"/>
-      <c r="N31" s="132"/>
-      <c r="O31" s="132"/>
-      <c r="P31" s="132"/>
-      <c r="Q31" s="132"/>
-      <c r="R31" s="132"/>
-      <c r="S31" s="132"/>
-      <c r="T31" s="132"/>
-      <c r="U31" s="132"/>
-      <c r="V31" s="132"/>
-      <c r="W31" s="132"/>
-      <c r="X31" s="132"/>
-      <c r="Y31" s="132"/>
-      <c r="Z31" s="132"/>
-      <c r="AA31" s="132"/>
-      <c r="AB31" s="132"/>
-      <c r="AC31" s="105"/>
+      <c r="M31" s="103"/>
+      <c r="N31" s="103"/>
+      <c r="O31" s="103"/>
+      <c r="P31" s="103"/>
+      <c r="Q31" s="103"/>
+      <c r="R31" s="103"/>
+      <c r="S31" s="103"/>
+      <c r="T31" s="103"/>
+      <c r="U31" s="103"/>
+      <c r="V31" s="103"/>
+      <c r="W31" s="103"/>
+      <c r="X31" s="103"/>
+      <c r="Y31" s="103"/>
+      <c r="Z31" s="103"/>
+      <c r="AA31" s="103"/>
+      <c r="AB31" s="103"/>
+      <c r="AC31" s="94"/>
       <c r="AD31" s="79"/>
       <c r="AE31" s="79"/>
       <c r="AF31" s="79"/>
@@ -15432,7 +15432,7 @@
       <c r="AI31" s="79"/>
       <c r="AJ31" s="79"/>
       <c r="AK31" s="80"/>
-      <c r="AL31" s="110"/>
+      <c r="AL31" s="89"/>
       <c r="AM31" s="79"/>
       <c r="AN31" s="79"/>
       <c r="AO31" s="79"/>
@@ -15441,12 +15441,12 @@
       <c r="AR31" s="79"/>
       <c r="AS31" s="79"/>
       <c r="AT31" s="80"/>
-      <c r="AU31" s="110"/>
+      <c r="AU31" s="89"/>
       <c r="AV31" s="79"/>
       <c r="AW31" s="79"/>
       <c r="AX31" s="79"/>
       <c r="AY31" s="80"/>
-      <c r="AZ31" s="112"/>
+      <c r="AZ31" s="90"/>
       <c r="BA31" s="79"/>
       <c r="BB31" s="79"/>
       <c r="BC31" s="79"/>
@@ -15470,75 +15470,75 @@
         <f ca="1">MAX(B$27:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>4</v>
       </c>
-      <c r="C32" s="106" t="s">
+      <c r="C32" s="135" t="s">
         <v>71</v>
       </c>
-      <c r="D32" s="105"/>
-      <c r="E32" s="105"/>
-      <c r="F32" s="105"/>
-      <c r="G32" s="105"/>
-      <c r="H32" s="105"/>
-      <c r="I32" s="105"/>
-      <c r="J32" s="105"/>
-      <c r="K32" s="107"/>
-      <c r="L32" s="92" t="s">
+      <c r="D32" s="94"/>
+      <c r="E32" s="94"/>
+      <c r="F32" s="94"/>
+      <c r="G32" s="94"/>
+      <c r="H32" s="94"/>
+      <c r="I32" s="94"/>
+      <c r="J32" s="94"/>
+      <c r="K32" s="95"/>
+      <c r="L32" s="88" t="s">
         <v>144</v>
       </c>
-      <c r="M32" s="105"/>
-      <c r="N32" s="105"/>
-      <c r="O32" s="105"/>
-      <c r="P32" s="105"/>
-      <c r="Q32" s="105"/>
-      <c r="R32" s="105"/>
-      <c r="S32" s="105"/>
-      <c r="T32" s="105"/>
-      <c r="U32" s="105"/>
-      <c r="V32" s="105"/>
-      <c r="W32" s="105"/>
-      <c r="X32" s="105"/>
-      <c r="Y32" s="105"/>
-      <c r="Z32" s="105"/>
-      <c r="AA32" s="105"/>
-      <c r="AB32" s="107"/>
-      <c r="AC32" s="92"/>
-      <c r="AD32" s="105"/>
-      <c r="AE32" s="105"/>
-      <c r="AF32" s="105"/>
-      <c r="AG32" s="105"/>
-      <c r="AH32" s="105"/>
-      <c r="AI32" s="105"/>
-      <c r="AJ32" s="105"/>
-      <c r="AK32" s="107"/>
-      <c r="AL32" s="110"/>
-      <c r="AM32" s="161"/>
-      <c r="AN32" s="161"/>
-      <c r="AO32" s="161"/>
-      <c r="AP32" s="161"/>
-      <c r="AQ32" s="161"/>
-      <c r="AR32" s="161"/>
-      <c r="AS32" s="161"/>
-      <c r="AT32" s="162"/>
-      <c r="AU32" s="110"/>
-      <c r="AV32" s="161"/>
-      <c r="AW32" s="161"/>
-      <c r="AX32" s="161"/>
-      <c r="AY32" s="162"/>
-      <c r="AZ32" s="112"/>
-      <c r="BA32" s="163"/>
-      <c r="BB32" s="163"/>
-      <c r="BC32" s="163"/>
-      <c r="BD32" s="163"/>
-      <c r="BE32" s="163"/>
-      <c r="BF32" s="163"/>
-      <c r="BG32" s="163"/>
-      <c r="BH32" s="163"/>
-      <c r="BI32" s="163"/>
-      <c r="BJ32" s="163"/>
-      <c r="BK32" s="163"/>
-      <c r="BL32" s="163"/>
-      <c r="BM32" s="163"/>
-      <c r="BN32" s="163"/>
-      <c r="BO32" s="164"/>
+      <c r="M32" s="94"/>
+      <c r="N32" s="94"/>
+      <c r="O32" s="94"/>
+      <c r="P32" s="94"/>
+      <c r="Q32" s="94"/>
+      <c r="R32" s="94"/>
+      <c r="S32" s="94"/>
+      <c r="T32" s="94"/>
+      <c r="U32" s="94"/>
+      <c r="V32" s="94"/>
+      <c r="W32" s="94"/>
+      <c r="X32" s="94"/>
+      <c r="Y32" s="94"/>
+      <c r="Z32" s="94"/>
+      <c r="AA32" s="94"/>
+      <c r="AB32" s="95"/>
+      <c r="AC32" s="88"/>
+      <c r="AD32" s="94"/>
+      <c r="AE32" s="94"/>
+      <c r="AF32" s="94"/>
+      <c r="AG32" s="94"/>
+      <c r="AH32" s="94"/>
+      <c r="AI32" s="94"/>
+      <c r="AJ32" s="94"/>
+      <c r="AK32" s="95"/>
+      <c r="AL32" s="89"/>
+      <c r="AM32" s="136"/>
+      <c r="AN32" s="136"/>
+      <c r="AO32" s="136"/>
+      <c r="AP32" s="136"/>
+      <c r="AQ32" s="136"/>
+      <c r="AR32" s="136"/>
+      <c r="AS32" s="136"/>
+      <c r="AT32" s="137"/>
+      <c r="AU32" s="89"/>
+      <c r="AV32" s="136"/>
+      <c r="AW32" s="136"/>
+      <c r="AX32" s="136"/>
+      <c r="AY32" s="137"/>
+      <c r="AZ32" s="90"/>
+      <c r="BA32" s="138"/>
+      <c r="BB32" s="138"/>
+      <c r="BC32" s="138"/>
+      <c r="BD32" s="138"/>
+      <c r="BE32" s="138"/>
+      <c r="BF32" s="138"/>
+      <c r="BG32" s="138"/>
+      <c r="BH32" s="138"/>
+      <c r="BI32" s="138"/>
+      <c r="BJ32" s="138"/>
+      <c r="BK32" s="138"/>
+      <c r="BL32" s="138"/>
+      <c r="BM32" s="138"/>
+      <c r="BN32" s="138"/>
+      <c r="BO32" s="139"/>
       <c r="BP32" s="2"/>
     </row>
     <row r="33" spans="1:68" ht="16.5">
@@ -16483,16 +16483,16 @@
     <row r="46" spans="1:68" s="75" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A46" s="29"/>
       <c r="B46" s="68"/>
-      <c r="C46" s="132" t="s">
+      <c r="C46" s="103" t="s">
         <v>158</v>
       </c>
-      <c r="D46" s="132"/>
-      <c r="E46" s="132"/>
-      <c r="F46" s="132"/>
-      <c r="G46" s="132"/>
-      <c r="H46" s="132"/>
-      <c r="I46" s="132"/>
-      <c r="J46" s="132"/>
+      <c r="D46" s="103"/>
+      <c r="E46" s="103"/>
+      <c r="F46" s="103"/>
+      <c r="G46" s="103"/>
+      <c r="H46" s="103"/>
+      <c r="I46" s="103"/>
+      <c r="J46" s="103"/>
       <c r="K46" s="78" t="s">
         <v>88</v>
       </c>
@@ -16524,22 +16524,22 @@
       <c r="AK46" s="157" t="s">
         <v>152</v>
       </c>
-      <c r="AL46" s="118"/>
-      <c r="AM46" s="118"/>
-      <c r="AN46" s="118"/>
-      <c r="AO46" s="118"/>
-      <c r="AP46" s="118"/>
-      <c r="AQ46" s="118"/>
-      <c r="AR46" s="119"/>
-      <c r="AS46" s="92" t="s">
+      <c r="AL46" s="98"/>
+      <c r="AM46" s="98"/>
+      <c r="AN46" s="98"/>
+      <c r="AO46" s="98"/>
+      <c r="AP46" s="98"/>
+      <c r="AQ46" s="98"/>
+      <c r="AR46" s="99"/>
+      <c r="AS46" s="88" t="s">
         <v>153</v>
       </c>
-      <c r="AT46" s="105"/>
-      <c r="AU46" s="105"/>
-      <c r="AV46" s="105"/>
-      <c r="AW46" s="105"/>
-      <c r="AX46" s="105"/>
-      <c r="AY46" s="107"/>
+      <c r="AT46" s="94"/>
+      <c r="AU46" s="94"/>
+      <c r="AV46" s="94"/>
+      <c r="AW46" s="94"/>
+      <c r="AX46" s="94"/>
+      <c r="AY46" s="95"/>
       <c r="AZ46" s="29"/>
       <c r="BA46" s="29"/>
       <c r="BB46" s="29"/>
@@ -16561,16 +16561,16 @@
     <row r="47" spans="1:68" s="75" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A47" s="29"/>
       <c r="B47" s="68"/>
-      <c r="C47" s="132" t="s">
+      <c r="C47" s="103" t="s">
         <v>157</v>
       </c>
-      <c r="D47" s="132"/>
-      <c r="E47" s="132"/>
-      <c r="F47" s="132"/>
-      <c r="G47" s="132"/>
-      <c r="H47" s="132"/>
-      <c r="I47" s="132"/>
-      <c r="J47" s="132"/>
+      <c r="D47" s="103"/>
+      <c r="E47" s="103"/>
+      <c r="F47" s="103"/>
+      <c r="G47" s="103"/>
+      <c r="H47" s="103"/>
+      <c r="I47" s="103"/>
+      <c r="J47" s="103"/>
       <c r="K47" s="81" t="s">
         <v>89</v>
       </c>
@@ -16637,14 +16637,14 @@
     <row r="48" spans="1:68" s="75" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A48" s="29"/>
       <c r="B48" s="68"/>
-      <c r="C48" s="145"/>
-      <c r="D48" s="146"/>
-      <c r="E48" s="146"/>
-      <c r="F48" s="146"/>
-      <c r="G48" s="146"/>
-      <c r="H48" s="146"/>
-      <c r="I48" s="146"/>
-      <c r="J48" s="147"/>
+      <c r="C48" s="167"/>
+      <c r="D48" s="168"/>
+      <c r="E48" s="168"/>
+      <c r="F48" s="168"/>
+      <c r="G48" s="168"/>
+      <c r="H48" s="168"/>
+      <c r="I48" s="168"/>
+      <c r="J48" s="169"/>
       <c r="K48" s="78"/>
       <c r="L48" s="81"/>
       <c r="M48" s="81"/>
@@ -16711,61 +16711,61 @@
     <row r="49" spans="1:68" s="75" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A49" s="29"/>
       <c r="B49" s="68"/>
-      <c r="C49" s="132" t="s">
+      <c r="C49" s="103" t="s">
         <v>157</v>
       </c>
-      <c r="D49" s="132"/>
-      <c r="E49" s="132"/>
-      <c r="F49" s="132"/>
-      <c r="G49" s="132"/>
-      <c r="H49" s="132"/>
-      <c r="I49" s="132"/>
-      <c r="J49" s="132"/>
-      <c r="K49" s="136" t="s">
+      <c r="D49" s="103"/>
+      <c r="E49" s="103"/>
+      <c r="F49" s="103"/>
+      <c r="G49" s="103"/>
+      <c r="H49" s="103"/>
+      <c r="I49" s="103"/>
+      <c r="J49" s="103"/>
+      <c r="K49" s="158" t="s">
         <v>140</v>
       </c>
-      <c r="L49" s="136"/>
-      <c r="M49" s="136"/>
-      <c r="N49" s="136"/>
-      <c r="O49" s="136"/>
-      <c r="P49" s="136"/>
-      <c r="Q49" s="136"/>
-      <c r="R49" s="137"/>
-      <c r="S49" s="138"/>
-      <c r="T49" s="138"/>
-      <c r="U49" s="138"/>
-      <c r="V49" s="138"/>
-      <c r="W49" s="138"/>
-      <c r="X49" s="138"/>
-      <c r="Y49" s="138"/>
-      <c r="Z49" s="138"/>
-      <c r="AA49" s="138"/>
-      <c r="AB49" s="138"/>
-      <c r="AC49" s="138"/>
-      <c r="AD49" s="138"/>
-      <c r="AE49" s="138"/>
-      <c r="AF49" s="138"/>
-      <c r="AG49" s="138"/>
-      <c r="AH49" s="138"/>
-      <c r="AI49" s="138"/>
-      <c r="AJ49" s="139"/>
-      <c r="AK49" s="140"/>
-      <c r="AL49" s="141"/>
-      <c r="AM49" s="141"/>
-      <c r="AN49" s="141"/>
-      <c r="AO49" s="141"/>
-      <c r="AP49" s="141"/>
-      <c r="AQ49" s="141"/>
-      <c r="AR49" s="142"/>
-      <c r="AS49" s="143" t="s">
+      <c r="L49" s="158"/>
+      <c r="M49" s="158"/>
+      <c r="N49" s="158"/>
+      <c r="O49" s="158"/>
+      <c r="P49" s="158"/>
+      <c r="Q49" s="158"/>
+      <c r="R49" s="159"/>
+      <c r="S49" s="160"/>
+      <c r="T49" s="160"/>
+      <c r="U49" s="160"/>
+      <c r="V49" s="160"/>
+      <c r="W49" s="160"/>
+      <c r="X49" s="160"/>
+      <c r="Y49" s="160"/>
+      <c r="Z49" s="160"/>
+      <c r="AA49" s="160"/>
+      <c r="AB49" s="160"/>
+      <c r="AC49" s="160"/>
+      <c r="AD49" s="160"/>
+      <c r="AE49" s="160"/>
+      <c r="AF49" s="160"/>
+      <c r="AG49" s="160"/>
+      <c r="AH49" s="160"/>
+      <c r="AI49" s="160"/>
+      <c r="AJ49" s="161"/>
+      <c r="AK49" s="162"/>
+      <c r="AL49" s="163"/>
+      <c r="AM49" s="163"/>
+      <c r="AN49" s="163"/>
+      <c r="AO49" s="163"/>
+      <c r="AP49" s="163"/>
+      <c r="AQ49" s="163"/>
+      <c r="AR49" s="164"/>
+      <c r="AS49" s="165" t="s">
         <v>156</v>
       </c>
-      <c r="AT49" s="136"/>
-      <c r="AU49" s="136"/>
-      <c r="AV49" s="136"/>
-      <c r="AW49" s="136"/>
-      <c r="AX49" s="136"/>
-      <c r="AY49" s="144"/>
+      <c r="AT49" s="158"/>
+      <c r="AU49" s="158"/>
+      <c r="AV49" s="158"/>
+      <c r="AW49" s="158"/>
+      <c r="AX49" s="158"/>
+      <c r="AY49" s="166"/>
       <c r="AZ49" s="29"/>
       <c r="BA49" s="29"/>
       <c r="BB49" s="29"/>
@@ -17629,6 +17629,89 @@
     </row>
   </sheetData>
   <mergeCells count="107">
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="K49:Q49"/>
+    <mergeCell ref="R49:AJ49"/>
+    <mergeCell ref="AK49:AR49"/>
+    <mergeCell ref="AS49:AY49"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="K48:Q48"/>
+    <mergeCell ref="R48:AJ48"/>
+    <mergeCell ref="AK48:AR48"/>
+    <mergeCell ref="AS48:AY48"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="K47:Q47"/>
+    <mergeCell ref="R47:AJ47"/>
+    <mergeCell ref="AK47:AR47"/>
+    <mergeCell ref="AS47:AY47"/>
+    <mergeCell ref="C46:J46"/>
+    <mergeCell ref="K46:Q46"/>
+    <mergeCell ref="R46:AJ46"/>
+    <mergeCell ref="AK46:AR46"/>
+    <mergeCell ref="AS46:AY46"/>
+    <mergeCell ref="AE18:AG18"/>
+    <mergeCell ref="AH18:AJ18"/>
+    <mergeCell ref="AK18:BO18"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="I7:BO7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="I8:BO8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="I9:BO9"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="I10:BO10"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="I12:BO12"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="I13:BO13"/>
+    <mergeCell ref="C17:P17"/>
+    <mergeCell ref="Q17:W17"/>
+    <mergeCell ref="X17:AD17"/>
+    <mergeCell ref="AE17:AG17"/>
+    <mergeCell ref="AH17:AJ17"/>
+    <mergeCell ref="AK17:BO17"/>
+    <mergeCell ref="AE21:AG21"/>
+    <mergeCell ref="AH21:AJ21"/>
+    <mergeCell ref="C20:P20"/>
+    <mergeCell ref="Q20:W20"/>
+    <mergeCell ref="X20:AD20"/>
+    <mergeCell ref="AE20:AG20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="I14:BO14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C16:P16"/>
+    <mergeCell ref="Q16:W16"/>
+    <mergeCell ref="X16:AD16"/>
+    <mergeCell ref="AE16:AG16"/>
+    <mergeCell ref="AK16:BO16"/>
+    <mergeCell ref="C18:P18"/>
+    <mergeCell ref="Q18:W18"/>
+    <mergeCell ref="X18:AD18"/>
+    <mergeCell ref="L30:AB30"/>
+    <mergeCell ref="AC30:AK30"/>
+    <mergeCell ref="AL30:AT30"/>
+    <mergeCell ref="AU30:AY30"/>
+    <mergeCell ref="AZ30:BO30"/>
+    <mergeCell ref="C31:K31"/>
+    <mergeCell ref="L31:AB31"/>
+    <mergeCell ref="AC31:AK31"/>
+    <mergeCell ref="AK20:BO20"/>
+    <mergeCell ref="AK23:BO23"/>
+    <mergeCell ref="AK21:BO21"/>
+    <mergeCell ref="Q22:W22"/>
+    <mergeCell ref="X22:AD22"/>
+    <mergeCell ref="AE22:AG22"/>
+    <mergeCell ref="AH22:AJ22"/>
+    <mergeCell ref="AK22:BO22"/>
+    <mergeCell ref="D23:P23"/>
+    <mergeCell ref="Q23:W23"/>
+    <mergeCell ref="X23:AD23"/>
+    <mergeCell ref="AE23:AG23"/>
+    <mergeCell ref="AH23:AJ23"/>
+    <mergeCell ref="C21:P21"/>
+    <mergeCell ref="Q21:W21"/>
+    <mergeCell ref="X21:AD21"/>
     <mergeCell ref="AL31:AT31"/>
     <mergeCell ref="AU31:AY31"/>
     <mergeCell ref="C32:K32"/>
@@ -17653,93 +17736,10 @@
     <mergeCell ref="AU29:AY29"/>
     <mergeCell ref="AZ29:BO29"/>
     <mergeCell ref="C30:K30"/>
-    <mergeCell ref="L30:AB30"/>
-    <mergeCell ref="AC30:AK30"/>
-    <mergeCell ref="AL30:AT30"/>
-    <mergeCell ref="AU30:AY30"/>
-    <mergeCell ref="AZ30:BO30"/>
-    <mergeCell ref="C31:K31"/>
-    <mergeCell ref="L31:AB31"/>
-    <mergeCell ref="AC31:AK31"/>
-    <mergeCell ref="AK20:BO20"/>
-    <mergeCell ref="AK23:BO23"/>
-    <mergeCell ref="AK21:BO21"/>
-    <mergeCell ref="Q22:W22"/>
-    <mergeCell ref="X22:AD22"/>
-    <mergeCell ref="AE22:AG22"/>
-    <mergeCell ref="AH22:AJ22"/>
-    <mergeCell ref="AK22:BO22"/>
-    <mergeCell ref="D23:P23"/>
-    <mergeCell ref="Q23:W23"/>
-    <mergeCell ref="X23:AD23"/>
-    <mergeCell ref="AE23:AG23"/>
-    <mergeCell ref="AH23:AJ23"/>
-    <mergeCell ref="C21:P21"/>
-    <mergeCell ref="Q21:W21"/>
-    <mergeCell ref="X21:AD21"/>
-    <mergeCell ref="AE21:AG21"/>
-    <mergeCell ref="AH21:AJ21"/>
-    <mergeCell ref="C20:P20"/>
-    <mergeCell ref="Q20:W20"/>
-    <mergeCell ref="X20:AD20"/>
-    <mergeCell ref="AE20:AG20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="I14:BO14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C16:P16"/>
-    <mergeCell ref="Q16:W16"/>
-    <mergeCell ref="X16:AD16"/>
-    <mergeCell ref="AE16:AG16"/>
-    <mergeCell ref="AK16:BO16"/>
-    <mergeCell ref="C17:P17"/>
-    <mergeCell ref="C18:P18"/>
-    <mergeCell ref="Q17:W17"/>
-    <mergeCell ref="X17:AD17"/>
-    <mergeCell ref="Q18:W18"/>
-    <mergeCell ref="X18:AD18"/>
-    <mergeCell ref="AE18:AG18"/>
-    <mergeCell ref="AH18:AJ18"/>
-    <mergeCell ref="AK18:BO18"/>
-    <mergeCell ref="AE17:AG17"/>
-    <mergeCell ref="AH17:AJ17"/>
-    <mergeCell ref="AK17:BO17"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="I7:BO7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="I8:BO8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="I9:BO9"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="I10:BO10"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="I12:BO12"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="I13:BO13"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="K47:Q47"/>
-    <mergeCell ref="R47:AJ47"/>
-    <mergeCell ref="AK47:AR47"/>
-    <mergeCell ref="AS47:AY47"/>
-    <mergeCell ref="C46:J46"/>
-    <mergeCell ref="K46:Q46"/>
-    <mergeCell ref="R46:AJ46"/>
-    <mergeCell ref="AK46:AR46"/>
-    <mergeCell ref="AS46:AY46"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="K49:Q49"/>
-    <mergeCell ref="R49:AJ49"/>
-    <mergeCell ref="AK49:AR49"/>
-    <mergeCell ref="AS49:AY49"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="K48:Q48"/>
-    <mergeCell ref="R48:AJ48"/>
-    <mergeCell ref="AK48:AR48"/>
-    <mergeCell ref="AS48:AY48"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="AH17:AH18 AH21:AH23" xr:uid="{D98647AE-E56F-448D-8AD9-8927F6DD4509}">
+    <dataValidation type="list" allowBlank="1" sqref="AH21:AH23 AH17:AH18" xr:uid="{D98647AE-E56F-448D-8AD9-8927F6DD4509}">
       <formula1>"○"</formula1>
     </dataValidation>
   </dataValidations>
@@ -17758,13 +17758,13 @@
           <x14:formula1>
             <xm:f>データ入力例!$B$1:$B$28</xm:f>
           </x14:formula1>
-          <xm:sqref>Q17:Q18 Q21:Q23</xm:sqref>
+          <xm:sqref>Q21:Q23 Q17:Q18</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{ACBAF9A0-393C-48C0-9B68-9822C226D34C}">
           <x14:formula1>
             <xm:f>データ入力例!$C$1:$C$28</xm:f>
           </x14:formula1>
-          <xm:sqref>X17:X18 X21:X23</xm:sqref>
+          <xm:sqref>X21:X23 X17:X18</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -18217,7 +18217,7 @@
     <row r="7" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A7" s="2"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="130" t="s">
+      <c r="C7" s="100" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="79"/>
@@ -18225,7 +18225,7 @@
       <c r="F7" s="79"/>
       <c r="G7" s="79"/>
       <c r="H7" s="80"/>
-      <c r="I7" s="92" t="s">
+      <c r="I7" s="88" t="s">
         <v>183</v>
       </c>
       <c r="J7" s="79"/>
@@ -18291,7 +18291,7 @@
     <row r="8" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A8" s="2"/>
       <c r="B8" s="13"/>
-      <c r="C8" s="130" t="s">
+      <c r="C8" s="100" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="79"/>
@@ -18299,7 +18299,7 @@
       <c r="F8" s="79"/>
       <c r="G8" s="79"/>
       <c r="H8" s="80"/>
-      <c r="I8" s="92" t="s">
+      <c r="I8" s="88" t="s">
         <v>24</v>
       </c>
       <c r="J8" s="79"/>
@@ -18365,7 +18365,7 @@
     <row r="9" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A9" s="2"/>
       <c r="B9" s="13"/>
-      <c r="C9" s="130" t="s">
+      <c r="C9" s="100" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="79"/>
@@ -18373,7 +18373,7 @@
       <c r="F9" s="79"/>
       <c r="G9" s="79"/>
       <c r="H9" s="80"/>
-      <c r="I9" s="92" t="s">
+      <c r="I9" s="88" t="s">
         <v>26</v>
       </c>
       <c r="J9" s="79"/>
@@ -18439,75 +18439,75 @@
     <row r="10" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A10" s="32"/>
       <c r="B10" s="33"/>
-      <c r="C10" s="130" t="s">
+      <c r="C10" s="100" t="s">
         <v>193</v>
       </c>
-      <c r="D10" s="131"/>
-      <c r="E10" s="131"/>
-      <c r="F10" s="131"/>
-      <c r="G10" s="131"/>
-      <c r="H10" s="131"/>
-      <c r="I10" s="132" t="s">
+      <c r="D10" s="102"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="103" t="s">
         <v>184</v>
       </c>
-      <c r="J10" s="132"/>
-      <c r="K10" s="132"/>
-      <c r="L10" s="132"/>
-      <c r="M10" s="132"/>
-      <c r="N10" s="132"/>
-      <c r="O10" s="132"/>
-      <c r="P10" s="132"/>
-      <c r="Q10" s="132"/>
-      <c r="R10" s="132"/>
-      <c r="S10" s="132"/>
-      <c r="T10" s="132"/>
-      <c r="U10" s="132"/>
-      <c r="V10" s="132"/>
-      <c r="W10" s="132"/>
-      <c r="X10" s="132"/>
-      <c r="Y10" s="132"/>
-      <c r="Z10" s="132"/>
-      <c r="AA10" s="132"/>
-      <c r="AB10" s="132"/>
-      <c r="AC10" s="132"/>
-      <c r="AD10" s="132"/>
-      <c r="AE10" s="132"/>
-      <c r="AF10" s="132"/>
-      <c r="AG10" s="132"/>
-      <c r="AH10" s="132"/>
-      <c r="AI10" s="132"/>
-      <c r="AJ10" s="132"/>
-      <c r="AK10" s="132"/>
-      <c r="AL10" s="132"/>
-      <c r="AM10" s="132"/>
-      <c r="AN10" s="132"/>
-      <c r="AO10" s="132"/>
-      <c r="AP10" s="132"/>
-      <c r="AQ10" s="132"/>
-      <c r="AR10" s="132"/>
-      <c r="AS10" s="132"/>
-      <c r="AT10" s="132"/>
-      <c r="AU10" s="132"/>
-      <c r="AV10" s="132"/>
-      <c r="AW10" s="132"/>
-      <c r="AX10" s="132"/>
-      <c r="AY10" s="132"/>
-      <c r="AZ10" s="132"/>
-      <c r="BA10" s="132"/>
-      <c r="BB10" s="132"/>
-      <c r="BC10" s="132"/>
-      <c r="BD10" s="132"/>
-      <c r="BE10" s="132"/>
-      <c r="BF10" s="132"/>
-      <c r="BG10" s="132"/>
-      <c r="BH10" s="132"/>
-      <c r="BI10" s="132"/>
-      <c r="BJ10" s="132"/>
-      <c r="BK10" s="132"/>
-      <c r="BL10" s="132"/>
-      <c r="BM10" s="132"/>
-      <c r="BN10" s="132"/>
-      <c r="BO10" s="132"/>
+      <c r="J10" s="103"/>
+      <c r="K10" s="103"/>
+      <c r="L10" s="103"/>
+      <c r="M10" s="103"/>
+      <c r="N10" s="103"/>
+      <c r="O10" s="103"/>
+      <c r="P10" s="103"/>
+      <c r="Q10" s="103"/>
+      <c r="R10" s="103"/>
+      <c r="S10" s="103"/>
+      <c r="T10" s="103"/>
+      <c r="U10" s="103"/>
+      <c r="V10" s="103"/>
+      <c r="W10" s="103"/>
+      <c r="X10" s="103"/>
+      <c r="Y10" s="103"/>
+      <c r="Z10" s="103"/>
+      <c r="AA10" s="103"/>
+      <c r="AB10" s="103"/>
+      <c r="AC10" s="103"/>
+      <c r="AD10" s="103"/>
+      <c r="AE10" s="103"/>
+      <c r="AF10" s="103"/>
+      <c r="AG10" s="103"/>
+      <c r="AH10" s="103"/>
+      <c r="AI10" s="103"/>
+      <c r="AJ10" s="103"/>
+      <c r="AK10" s="103"/>
+      <c r="AL10" s="103"/>
+      <c r="AM10" s="103"/>
+      <c r="AN10" s="103"/>
+      <c r="AO10" s="103"/>
+      <c r="AP10" s="103"/>
+      <c r="AQ10" s="103"/>
+      <c r="AR10" s="103"/>
+      <c r="AS10" s="103"/>
+      <c r="AT10" s="103"/>
+      <c r="AU10" s="103"/>
+      <c r="AV10" s="103"/>
+      <c r="AW10" s="103"/>
+      <c r="AX10" s="103"/>
+      <c r="AY10" s="103"/>
+      <c r="AZ10" s="103"/>
+      <c r="BA10" s="103"/>
+      <c r="BB10" s="103"/>
+      <c r="BC10" s="103"/>
+      <c r="BD10" s="103"/>
+      <c r="BE10" s="103"/>
+      <c r="BF10" s="103"/>
+      <c r="BG10" s="103"/>
+      <c r="BH10" s="103"/>
+      <c r="BI10" s="103"/>
+      <c r="BJ10" s="103"/>
+      <c r="BK10" s="103"/>
+      <c r="BL10" s="103"/>
+      <c r="BM10" s="103"/>
+      <c r="BN10" s="103"/>
+      <c r="BO10" s="103"/>
       <c r="BP10" s="32"/>
     </row>
     <row r="11" spans="1:68" ht="16.5" outlineLevel="1">
@@ -18586,14 +18586,14 @@
       <c r="A12" s="2"/>
       <c r="B12" s="13"/>
       <c r="C12" s="17"/>
-      <c r="D12" s="92" t="s">
+      <c r="D12" s="88" t="s">
         <v>73</v>
       </c>
       <c r="E12" s="79"/>
       <c r="F12" s="79"/>
       <c r="G12" s="79"/>
       <c r="H12" s="80"/>
-      <c r="I12" s="105" t="s">
+      <c r="I12" s="94" t="s">
         <v>74</v>
       </c>
       <c r="J12" s="79"/>
@@ -18658,11 +18658,11 @@
     </row>
     <row r="13" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A13" s="2"/>
-      <c r="B13" s="135" t="s">
+      <c r="B13" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="96"/>
-      <c r="D13" s="96"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="105"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
@@ -18765,7 +18765,7 @@
       <c r="AB14" s="79"/>
       <c r="AC14" s="79"/>
       <c r="AD14" s="80"/>
-      <c r="AE14" s="130" t="s">
+      <c r="AE14" s="100" t="s">
         <v>20</v>
       </c>
       <c r="AF14" s="79"/>
@@ -18813,22 +18813,22 @@
     <row r="15" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A15" s="2"/>
       <c r="B15" s="13"/>
-      <c r="C15" s="117" t="s">
+      <c r="C15" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="D15" s="96"/>
-      <c r="E15" s="96"/>
-      <c r="F15" s="96"/>
-      <c r="G15" s="96"/>
-      <c r="H15" s="96"/>
-      <c r="I15" s="96"/>
-      <c r="J15" s="96"/>
-      <c r="K15" s="96"/>
-      <c r="L15" s="96"/>
-      <c r="M15" s="96"/>
-      <c r="N15" s="96"/>
-      <c r="O15" s="96"/>
-      <c r="P15" s="123"/>
+      <c r="D15" s="105"/>
+      <c r="E15" s="105"/>
+      <c r="F15" s="105"/>
+      <c r="G15" s="105"/>
+      <c r="H15" s="105"/>
+      <c r="I15" s="105"/>
+      <c r="J15" s="105"/>
+      <c r="K15" s="105"/>
+      <c r="L15" s="105"/>
+      <c r="M15" s="105"/>
+      <c r="N15" s="105"/>
+      <c r="O15" s="105"/>
+      <c r="P15" s="106"/>
       <c r="Q15" s="87" t="s">
         <v>36</v>
       </c>
@@ -18847,12 +18847,12 @@
       <c r="AB15" s="79"/>
       <c r="AC15" s="79"/>
       <c r="AD15" s="80"/>
-      <c r="AE15" s="92"/>
+      <c r="AE15" s="88"/>
       <c r="AF15" s="79"/>
       <c r="AG15" s="80"/>
-      <c r="AH15" s="89"/>
-      <c r="AI15" s="90"/>
-      <c r="AJ15" s="91"/>
+      <c r="AH15" s="91"/>
+      <c r="AI15" s="92"/>
+      <c r="AJ15" s="93"/>
       <c r="AK15" s="87"/>
       <c r="AL15" s="79"/>
       <c r="AM15" s="79"/>
@@ -18888,11 +18888,11 @@
     </row>
     <row r="16" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A16" s="2"/>
-      <c r="B16" s="135" t="s">
+      <c r="B16" s="110" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="96"/>
-      <c r="D16" s="96"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="105"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
@@ -18995,7 +18995,7 @@
       <c r="AB17" s="79"/>
       <c r="AC17" s="79"/>
       <c r="AD17" s="80"/>
-      <c r="AE17" s="130" t="s">
+      <c r="AE17" s="100" t="s">
         <v>20</v>
       </c>
       <c r="AF17" s="79"/>
@@ -19043,7 +19043,7 @@
     <row r="18" spans="1:68" ht="33" customHeight="1" outlineLevel="1">
       <c r="A18" s="2"/>
       <c r="B18" s="13"/>
-      <c r="C18" s="92" t="s">
+      <c r="C18" s="88" t="s">
         <v>75</v>
       </c>
       <c r="D18" s="79"/>
@@ -19077,15 +19077,15 @@
       <c r="AB18" s="79"/>
       <c r="AC18" s="79"/>
       <c r="AD18" s="80"/>
-      <c r="AE18" s="92">
+      <c r="AE18" s="88">
         <v>1</v>
       </c>
       <c r="AF18" s="79"/>
       <c r="AG18" s="80"/>
-      <c r="AH18" s="89"/>
-      <c r="AI18" s="90"/>
-      <c r="AJ18" s="91"/>
-      <c r="AK18" s="113" t="s">
+      <c r="AH18" s="91"/>
+      <c r="AI18" s="92"/>
+      <c r="AJ18" s="93"/>
+      <c r="AK18" s="101" t="s">
         <v>76</v>
       </c>
       <c r="AL18" s="79"/>
@@ -19157,12 +19157,12 @@
       <c r="AB19" s="79"/>
       <c r="AC19" s="79"/>
       <c r="AD19" s="80"/>
-      <c r="AE19" s="92"/>
+      <c r="AE19" s="88"/>
       <c r="AF19" s="79"/>
       <c r="AG19" s="80"/>
-      <c r="AH19" s="89"/>
-      <c r="AI19" s="90"/>
-      <c r="AJ19" s="91"/>
+      <c r="AH19" s="91"/>
+      <c r="AI19" s="92"/>
+      <c r="AJ19" s="93"/>
       <c r="AK19" s="87" t="s">
         <v>97</v>
       </c>
@@ -19233,14 +19233,14 @@
       <c r="AB20" s="79"/>
       <c r="AC20" s="79"/>
       <c r="AD20" s="80"/>
-      <c r="AE20" s="92"/>
+      <c r="AE20" s="88"/>
       <c r="AF20" s="79"/>
       <c r="AG20" s="80"/>
-      <c r="AH20" s="89" t="s">
+      <c r="AH20" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="AI20" s="90"/>
-      <c r="AJ20" s="91"/>
+      <c r="AI20" s="92"/>
+      <c r="AJ20" s="93"/>
       <c r="AK20" s="87" t="s">
         <v>77</v>
       </c>
@@ -19280,21 +19280,21 @@
       <c r="A21" s="2"/>
       <c r="B21" s="65"/>
       <c r="C21" s="41"/>
-      <c r="D21" s="92" t="s">
+      <c r="D21" s="88" t="s">
         <v>78</v>
       </c>
-      <c r="E21" s="105"/>
-      <c r="F21" s="105"/>
-      <c r="G21" s="105"/>
-      <c r="H21" s="105"/>
-      <c r="I21" s="105"/>
-      <c r="J21" s="105"/>
-      <c r="K21" s="105"/>
-      <c r="L21" s="105"/>
-      <c r="M21" s="105"/>
-      <c r="N21" s="105"/>
-      <c r="O21" s="105"/>
-      <c r="P21" s="107"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="94"/>
+      <c r="I21" s="94"/>
+      <c r="J21" s="94"/>
+      <c r="K21" s="94"/>
+      <c r="L21" s="94"/>
+      <c r="M21" s="94"/>
+      <c r="N21" s="94"/>
+      <c r="O21" s="94"/>
+      <c r="P21" s="95"/>
       <c r="Q21" s="87" t="s">
         <v>95</v>
       </c>
@@ -19311,12 +19311,12 @@
       <c r="AB21" s="79"/>
       <c r="AC21" s="79"/>
       <c r="AD21" s="80"/>
-      <c r="AE21" s="92"/>
+      <c r="AE21" s="88"/>
       <c r="AF21" s="79"/>
       <c r="AG21" s="80"/>
-      <c r="AH21" s="89"/>
-      <c r="AI21" s="90"/>
-      <c r="AJ21" s="91"/>
+      <c r="AH21" s="91"/>
+      <c r="AI21" s="92"/>
+      <c r="AJ21" s="93"/>
       <c r="AK21" s="87"/>
       <c r="AL21" s="79"/>
       <c r="AM21" s="79"/>
@@ -19565,51 +19565,51 @@
     </row>
     <row r="25" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A25" s="5"/>
-      <c r="B25" s="120" t="s">
+      <c r="B25" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="122" t="s">
+      <c r="C25" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="96"/>
-      <c r="E25" s="96"/>
-      <c r="F25" s="96"/>
-      <c r="G25" s="96"/>
-      <c r="H25" s="96"/>
-      <c r="I25" s="96"/>
-      <c r="J25" s="96"/>
-      <c r="K25" s="123"/>
-      <c r="L25" s="122" t="s">
+      <c r="D25" s="105"/>
+      <c r="E25" s="105"/>
+      <c r="F25" s="105"/>
+      <c r="G25" s="105"/>
+      <c r="H25" s="105"/>
+      <c r="I25" s="105"/>
+      <c r="J25" s="105"/>
+      <c r="K25" s="106"/>
+      <c r="L25" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="M25" s="96"/>
-      <c r="N25" s="96"/>
-      <c r="O25" s="96"/>
-      <c r="P25" s="96"/>
-      <c r="Q25" s="96"/>
-      <c r="R25" s="96"/>
-      <c r="S25" s="96"/>
-      <c r="T25" s="96"/>
-      <c r="U25" s="96"/>
-      <c r="V25" s="96"/>
-      <c r="W25" s="96"/>
-      <c r="X25" s="96"/>
-      <c r="Y25" s="96"/>
-      <c r="Z25" s="96"/>
-      <c r="AA25" s="96"/>
-      <c r="AB25" s="123"/>
-      <c r="AC25" s="122" t="s">
+      <c r="M25" s="105"/>
+      <c r="N25" s="105"/>
+      <c r="O25" s="105"/>
+      <c r="P25" s="105"/>
+      <c r="Q25" s="105"/>
+      <c r="R25" s="105"/>
+      <c r="S25" s="105"/>
+      <c r="T25" s="105"/>
+      <c r="U25" s="105"/>
+      <c r="V25" s="105"/>
+      <c r="W25" s="105"/>
+      <c r="X25" s="105"/>
+      <c r="Y25" s="105"/>
+      <c r="Z25" s="105"/>
+      <c r="AA25" s="105"/>
+      <c r="AB25" s="106"/>
+      <c r="AC25" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="AD25" s="96"/>
-      <c r="AE25" s="96"/>
-      <c r="AF25" s="96"/>
-      <c r="AG25" s="96"/>
-      <c r="AH25" s="96"/>
-      <c r="AI25" s="96"/>
-      <c r="AJ25" s="96"/>
-      <c r="AK25" s="123"/>
-      <c r="AL25" s="108" t="s">
+      <c r="AD25" s="105"/>
+      <c r="AE25" s="105"/>
+      <c r="AF25" s="105"/>
+      <c r="AG25" s="105"/>
+      <c r="AH25" s="105"/>
+      <c r="AI25" s="105"/>
+      <c r="AJ25" s="105"/>
+      <c r="AK25" s="106"/>
+      <c r="AL25" s="121" t="s">
         <v>12</v>
       </c>
       <c r="AM25" s="79"/>
@@ -19645,43 +19645,43 @@
     </row>
     <row r="26" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A26" s="5"/>
-      <c r="B26" s="121"/>
-      <c r="C26" s="124"/>
-      <c r="D26" s="125"/>
-      <c r="E26" s="125"/>
-      <c r="F26" s="125"/>
-      <c r="G26" s="125"/>
-      <c r="H26" s="125"/>
-      <c r="I26" s="125"/>
-      <c r="J26" s="125"/>
-      <c r="K26" s="126"/>
-      <c r="L26" s="124"/>
-      <c r="M26" s="125"/>
-      <c r="N26" s="125"/>
-      <c r="O26" s="125"/>
-      <c r="P26" s="125"/>
-      <c r="Q26" s="125"/>
-      <c r="R26" s="125"/>
-      <c r="S26" s="125"/>
-      <c r="T26" s="125"/>
-      <c r="U26" s="125"/>
-      <c r="V26" s="125"/>
-      <c r="W26" s="125"/>
-      <c r="X26" s="125"/>
-      <c r="Y26" s="125"/>
-      <c r="Z26" s="125"/>
-      <c r="AA26" s="125"/>
-      <c r="AB26" s="126"/>
-      <c r="AC26" s="133"/>
-      <c r="AD26" s="134"/>
-      <c r="AE26" s="134"/>
-      <c r="AF26" s="134"/>
-      <c r="AG26" s="134"/>
-      <c r="AH26" s="134"/>
-      <c r="AI26" s="134"/>
-      <c r="AJ26" s="134"/>
-      <c r="AK26" s="121"/>
-      <c r="AL26" s="109" t="s">
+      <c r="B26" s="109"/>
+      <c r="C26" s="112"/>
+      <c r="D26" s="113"/>
+      <c r="E26" s="113"/>
+      <c r="F26" s="113"/>
+      <c r="G26" s="113"/>
+      <c r="H26" s="113"/>
+      <c r="I26" s="113"/>
+      <c r="J26" s="113"/>
+      <c r="K26" s="114"/>
+      <c r="L26" s="112"/>
+      <c r="M26" s="113"/>
+      <c r="N26" s="113"/>
+      <c r="O26" s="113"/>
+      <c r="P26" s="113"/>
+      <c r="Q26" s="113"/>
+      <c r="R26" s="113"/>
+      <c r="S26" s="113"/>
+      <c r="T26" s="113"/>
+      <c r="U26" s="113"/>
+      <c r="V26" s="113"/>
+      <c r="W26" s="113"/>
+      <c r="X26" s="113"/>
+      <c r="Y26" s="113"/>
+      <c r="Z26" s="113"/>
+      <c r="AA26" s="113"/>
+      <c r="AB26" s="114"/>
+      <c r="AC26" s="107"/>
+      <c r="AD26" s="108"/>
+      <c r="AE26" s="108"/>
+      <c r="AF26" s="108"/>
+      <c r="AG26" s="108"/>
+      <c r="AH26" s="108"/>
+      <c r="AI26" s="108"/>
+      <c r="AJ26" s="108"/>
+      <c r="AK26" s="109"/>
+      <c r="AL26" s="122" t="s">
         <v>13</v>
       </c>
       <c r="AM26" s="79"/>
@@ -19692,14 +19692,14 @@
       <c r="AR26" s="79"/>
       <c r="AS26" s="79"/>
       <c r="AT26" s="80"/>
-      <c r="AU26" s="109" t="s">
+      <c r="AU26" s="122" t="s">
         <v>14</v>
       </c>
       <c r="AV26" s="79"/>
       <c r="AW26" s="79"/>
       <c r="AX26" s="79"/>
       <c r="AY26" s="80"/>
-      <c r="AZ26" s="109" t="s">
+      <c r="AZ26" s="122" t="s">
         <v>15</v>
       </c>
       <c r="BA26" s="79"/>
@@ -19725,62 +19725,62 @@
         <f ca="1">MAX(B$25:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>1</v>
       </c>
-      <c r="C27" s="176" t="s">
+      <c r="C27" s="173" t="s">
         <v>145</v>
       </c>
-      <c r="D27" s="177"/>
-      <c r="E27" s="177"/>
-      <c r="F27" s="177"/>
-      <c r="G27" s="177"/>
-      <c r="H27" s="177"/>
-      <c r="I27" s="177"/>
-      <c r="J27" s="177"/>
-      <c r="K27" s="178"/>
-      <c r="L27" s="175"/>
-      <c r="M27" s="104"/>
-      <c r="N27" s="104"/>
-      <c r="O27" s="104"/>
-      <c r="P27" s="104"/>
-      <c r="Q27" s="104"/>
-      <c r="R27" s="104"/>
-      <c r="S27" s="104"/>
-      <c r="T27" s="104"/>
-      <c r="U27" s="104"/>
-      <c r="V27" s="104"/>
-      <c r="W27" s="104"/>
-      <c r="X27" s="104"/>
-      <c r="Y27" s="104"/>
-      <c r="Z27" s="104"/>
-      <c r="AA27" s="104"/>
-      <c r="AB27" s="104"/>
-      <c r="AC27" s="92" t="s">
+      <c r="D27" s="174"/>
+      <c r="E27" s="174"/>
+      <c r="F27" s="174"/>
+      <c r="G27" s="174"/>
+      <c r="H27" s="174"/>
+      <c r="I27" s="174"/>
+      <c r="J27" s="174"/>
+      <c r="K27" s="175"/>
+      <c r="L27" s="172"/>
+      <c r="M27" s="124"/>
+      <c r="N27" s="124"/>
+      <c r="O27" s="124"/>
+      <c r="P27" s="124"/>
+      <c r="Q27" s="124"/>
+      <c r="R27" s="124"/>
+      <c r="S27" s="124"/>
+      <c r="T27" s="124"/>
+      <c r="U27" s="124"/>
+      <c r="V27" s="124"/>
+      <c r="W27" s="124"/>
+      <c r="X27" s="124"/>
+      <c r="Y27" s="124"/>
+      <c r="Z27" s="124"/>
+      <c r="AA27" s="124"/>
+      <c r="AB27" s="124"/>
+      <c r="AC27" s="88" t="s">
         <v>186</v>
       </c>
-      <c r="AD27" s="165"/>
-      <c r="AE27" s="165"/>
-      <c r="AF27" s="165"/>
-      <c r="AG27" s="165"/>
-      <c r="AH27" s="165"/>
-      <c r="AI27" s="165"/>
-      <c r="AJ27" s="165"/>
-      <c r="AK27" s="166"/>
-      <c r="AL27" s="167" t="s">
+      <c r="AD27" s="140"/>
+      <c r="AE27" s="140"/>
+      <c r="AF27" s="140"/>
+      <c r="AG27" s="140"/>
+      <c r="AH27" s="140"/>
+      <c r="AI27" s="140"/>
+      <c r="AJ27" s="140"/>
+      <c r="AK27" s="141"/>
+      <c r="AL27" s="142" t="s">
         <v>187</v>
       </c>
-      <c r="AM27" s="168"/>
-      <c r="AN27" s="168"/>
-      <c r="AO27" s="168"/>
-      <c r="AP27" s="168"/>
-      <c r="AQ27" s="168"/>
-      <c r="AR27" s="168"/>
-      <c r="AS27" s="168"/>
-      <c r="AT27" s="169"/>
-      <c r="AU27" s="110"/>
+      <c r="AM27" s="143"/>
+      <c r="AN27" s="143"/>
+      <c r="AO27" s="143"/>
+      <c r="AP27" s="143"/>
+      <c r="AQ27" s="143"/>
+      <c r="AR27" s="143"/>
+      <c r="AS27" s="143"/>
+      <c r="AT27" s="144"/>
+      <c r="AU27" s="89"/>
       <c r="AV27" s="79"/>
       <c r="AW27" s="79"/>
       <c r="AX27" s="79"/>
       <c r="AY27" s="80"/>
-      <c r="AZ27" s="112"/>
+      <c r="AZ27" s="90"/>
       <c r="BA27" s="79"/>
       <c r="BB27" s="79"/>
       <c r="BC27" s="79"/>
@@ -19804,60 +19804,60 @@
         <f ca="1">MAX(B$25:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>2</v>
       </c>
-      <c r="C28" s="140"/>
-      <c r="D28" s="173"/>
-      <c r="E28" s="173"/>
-      <c r="F28" s="173"/>
-      <c r="G28" s="173"/>
-      <c r="H28" s="173"/>
-      <c r="I28" s="173"/>
-      <c r="J28" s="173"/>
-      <c r="K28" s="174"/>
-      <c r="L28" s="175"/>
-      <c r="M28" s="104"/>
-      <c r="N28" s="104"/>
-      <c r="O28" s="104"/>
-      <c r="P28" s="104"/>
-      <c r="Q28" s="104"/>
-      <c r="R28" s="104"/>
-      <c r="S28" s="104"/>
-      <c r="T28" s="104"/>
-      <c r="U28" s="104"/>
-      <c r="V28" s="104"/>
-      <c r="W28" s="104"/>
-      <c r="X28" s="104"/>
-      <c r="Y28" s="104"/>
-      <c r="Z28" s="104"/>
-      <c r="AA28" s="104"/>
-      <c r="AB28" s="104"/>
-      <c r="AC28" s="92" t="s">
+      <c r="C28" s="162"/>
+      <c r="D28" s="170"/>
+      <c r="E28" s="170"/>
+      <c r="F28" s="170"/>
+      <c r="G28" s="170"/>
+      <c r="H28" s="170"/>
+      <c r="I28" s="170"/>
+      <c r="J28" s="170"/>
+      <c r="K28" s="171"/>
+      <c r="L28" s="172"/>
+      <c r="M28" s="124"/>
+      <c r="N28" s="124"/>
+      <c r="O28" s="124"/>
+      <c r="P28" s="124"/>
+      <c r="Q28" s="124"/>
+      <c r="R28" s="124"/>
+      <c r="S28" s="124"/>
+      <c r="T28" s="124"/>
+      <c r="U28" s="124"/>
+      <c r="V28" s="124"/>
+      <c r="W28" s="124"/>
+      <c r="X28" s="124"/>
+      <c r="Y28" s="124"/>
+      <c r="Z28" s="124"/>
+      <c r="AA28" s="124"/>
+      <c r="AB28" s="124"/>
+      <c r="AC28" s="88" t="s">
         <v>188</v>
       </c>
-      <c r="AD28" s="165"/>
-      <c r="AE28" s="165"/>
-      <c r="AF28" s="165"/>
-      <c r="AG28" s="165"/>
-      <c r="AH28" s="165"/>
-      <c r="AI28" s="165"/>
-      <c r="AJ28" s="165"/>
-      <c r="AK28" s="166"/>
-      <c r="AL28" s="167" t="s">
+      <c r="AD28" s="140"/>
+      <c r="AE28" s="140"/>
+      <c r="AF28" s="140"/>
+      <c r="AG28" s="140"/>
+      <c r="AH28" s="140"/>
+      <c r="AI28" s="140"/>
+      <c r="AJ28" s="140"/>
+      <c r="AK28" s="141"/>
+      <c r="AL28" s="142" t="s">
         <v>189</v>
       </c>
-      <c r="AM28" s="168"/>
-      <c r="AN28" s="168"/>
-      <c r="AO28" s="168"/>
-      <c r="AP28" s="168"/>
-      <c r="AQ28" s="168"/>
-      <c r="AR28" s="168"/>
-      <c r="AS28" s="168"/>
-      <c r="AT28" s="169"/>
-      <c r="AU28" s="110"/>
+      <c r="AM28" s="143"/>
+      <c r="AN28" s="143"/>
+      <c r="AO28" s="143"/>
+      <c r="AP28" s="143"/>
+      <c r="AQ28" s="143"/>
+      <c r="AR28" s="143"/>
+      <c r="AS28" s="143"/>
+      <c r="AT28" s="144"/>
+      <c r="AU28" s="89"/>
       <c r="AV28" s="79"/>
       <c r="AW28" s="79"/>
       <c r="AX28" s="79"/>
       <c r="AY28" s="80"/>
-      <c r="AZ28" s="112"/>
+      <c r="AZ28" s="90"/>
       <c r="BA28" s="79"/>
       <c r="BB28" s="79"/>
       <c r="BC28" s="79"/>
@@ -19881,37 +19881,37 @@
         <f ca="1">MAX(B$25:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>3</v>
       </c>
-      <c r="C29" s="170" t="s">
+      <c r="C29" s="176" t="s">
         <v>159</v>
       </c>
-      <c r="D29" s="171"/>
-      <c r="E29" s="171"/>
-      <c r="F29" s="171"/>
-      <c r="G29" s="171"/>
-      <c r="H29" s="171"/>
-      <c r="I29" s="171"/>
-      <c r="J29" s="171"/>
-      <c r="K29" s="172"/>
-      <c r="L29" s="132" t="s">
+      <c r="D29" s="177"/>
+      <c r="E29" s="177"/>
+      <c r="F29" s="177"/>
+      <c r="G29" s="177"/>
+      <c r="H29" s="177"/>
+      <c r="I29" s="177"/>
+      <c r="J29" s="177"/>
+      <c r="K29" s="178"/>
+      <c r="L29" s="103" t="s">
         <v>190</v>
       </c>
-      <c r="M29" s="132"/>
-      <c r="N29" s="132"/>
-      <c r="O29" s="132"/>
-      <c r="P29" s="132"/>
-      <c r="Q29" s="132"/>
-      <c r="R29" s="132"/>
-      <c r="S29" s="132"/>
-      <c r="T29" s="132"/>
-      <c r="U29" s="132"/>
-      <c r="V29" s="132"/>
-      <c r="W29" s="132"/>
-      <c r="X29" s="132"/>
-      <c r="Y29" s="132"/>
-      <c r="Z29" s="132"/>
-      <c r="AA29" s="132"/>
-      <c r="AB29" s="132"/>
-      <c r="AC29" s="105"/>
+      <c r="M29" s="103"/>
+      <c r="N29" s="103"/>
+      <c r="O29" s="103"/>
+      <c r="P29" s="103"/>
+      <c r="Q29" s="103"/>
+      <c r="R29" s="103"/>
+      <c r="S29" s="103"/>
+      <c r="T29" s="103"/>
+      <c r="U29" s="103"/>
+      <c r="V29" s="103"/>
+      <c r="W29" s="103"/>
+      <c r="X29" s="103"/>
+      <c r="Y29" s="103"/>
+      <c r="Z29" s="103"/>
+      <c r="AA29" s="103"/>
+      <c r="AB29" s="103"/>
+      <c r="AC29" s="94"/>
       <c r="AD29" s="79"/>
       <c r="AE29" s="79"/>
       <c r="AF29" s="79"/>
@@ -19920,7 +19920,7 @@
       <c r="AI29" s="79"/>
       <c r="AJ29" s="79"/>
       <c r="AK29" s="80"/>
-      <c r="AL29" s="110"/>
+      <c r="AL29" s="89"/>
       <c r="AM29" s="79"/>
       <c r="AN29" s="79"/>
       <c r="AO29" s="79"/>
@@ -19929,12 +19929,12 @@
       <c r="AR29" s="79"/>
       <c r="AS29" s="79"/>
       <c r="AT29" s="80"/>
-      <c r="AU29" s="110"/>
+      <c r="AU29" s="89"/>
       <c r="AV29" s="79"/>
       <c r="AW29" s="79"/>
       <c r="AX29" s="79"/>
       <c r="AY29" s="80"/>
-      <c r="AZ29" s="112"/>
+      <c r="AZ29" s="90"/>
       <c r="BA29" s="79"/>
       <c r="BB29" s="79"/>
       <c r="BC29" s="79"/>
@@ -19958,75 +19958,75 @@
         <f ca="1">MAX(B$25:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>4</v>
       </c>
-      <c r="C30" s="106" t="s">
+      <c r="C30" s="135" t="s">
         <v>71</v>
       </c>
-      <c r="D30" s="105"/>
-      <c r="E30" s="105"/>
-      <c r="F30" s="105"/>
-      <c r="G30" s="105"/>
-      <c r="H30" s="105"/>
-      <c r="I30" s="105"/>
-      <c r="J30" s="105"/>
-      <c r="K30" s="107"/>
-      <c r="L30" s="92" t="s">
+      <c r="D30" s="94"/>
+      <c r="E30" s="94"/>
+      <c r="F30" s="94"/>
+      <c r="G30" s="94"/>
+      <c r="H30" s="94"/>
+      <c r="I30" s="94"/>
+      <c r="J30" s="94"/>
+      <c r="K30" s="95"/>
+      <c r="L30" s="88" t="s">
         <v>144</v>
       </c>
-      <c r="M30" s="105"/>
-      <c r="N30" s="105"/>
-      <c r="O30" s="105"/>
-      <c r="P30" s="105"/>
-      <c r="Q30" s="105"/>
-      <c r="R30" s="105"/>
-      <c r="S30" s="105"/>
-      <c r="T30" s="105"/>
-      <c r="U30" s="105"/>
-      <c r="V30" s="105"/>
-      <c r="W30" s="105"/>
-      <c r="X30" s="105"/>
-      <c r="Y30" s="105"/>
-      <c r="Z30" s="105"/>
-      <c r="AA30" s="105"/>
-      <c r="AB30" s="107"/>
-      <c r="AC30" s="92"/>
-      <c r="AD30" s="105"/>
-      <c r="AE30" s="105"/>
-      <c r="AF30" s="105"/>
-      <c r="AG30" s="105"/>
-      <c r="AH30" s="105"/>
-      <c r="AI30" s="105"/>
-      <c r="AJ30" s="105"/>
-      <c r="AK30" s="107"/>
-      <c r="AL30" s="110"/>
-      <c r="AM30" s="161"/>
-      <c r="AN30" s="161"/>
-      <c r="AO30" s="161"/>
-      <c r="AP30" s="161"/>
-      <c r="AQ30" s="161"/>
-      <c r="AR30" s="161"/>
-      <c r="AS30" s="161"/>
-      <c r="AT30" s="162"/>
-      <c r="AU30" s="110"/>
-      <c r="AV30" s="161"/>
-      <c r="AW30" s="161"/>
-      <c r="AX30" s="161"/>
-      <c r="AY30" s="162"/>
-      <c r="AZ30" s="112"/>
-      <c r="BA30" s="163"/>
-      <c r="BB30" s="163"/>
-      <c r="BC30" s="163"/>
-      <c r="BD30" s="163"/>
-      <c r="BE30" s="163"/>
-      <c r="BF30" s="163"/>
-      <c r="BG30" s="163"/>
-      <c r="BH30" s="163"/>
-      <c r="BI30" s="163"/>
-      <c r="BJ30" s="163"/>
-      <c r="BK30" s="163"/>
-      <c r="BL30" s="163"/>
-      <c r="BM30" s="163"/>
-      <c r="BN30" s="163"/>
-      <c r="BO30" s="164"/>
+      <c r="M30" s="94"/>
+      <c r="N30" s="94"/>
+      <c r="O30" s="94"/>
+      <c r="P30" s="94"/>
+      <c r="Q30" s="94"/>
+      <c r="R30" s="94"/>
+      <c r="S30" s="94"/>
+      <c r="T30" s="94"/>
+      <c r="U30" s="94"/>
+      <c r="V30" s="94"/>
+      <c r="W30" s="94"/>
+      <c r="X30" s="94"/>
+      <c r="Y30" s="94"/>
+      <c r="Z30" s="94"/>
+      <c r="AA30" s="94"/>
+      <c r="AB30" s="95"/>
+      <c r="AC30" s="88"/>
+      <c r="AD30" s="94"/>
+      <c r="AE30" s="94"/>
+      <c r="AF30" s="94"/>
+      <c r="AG30" s="94"/>
+      <c r="AH30" s="94"/>
+      <c r="AI30" s="94"/>
+      <c r="AJ30" s="94"/>
+      <c r="AK30" s="95"/>
+      <c r="AL30" s="89"/>
+      <c r="AM30" s="136"/>
+      <c r="AN30" s="136"/>
+      <c r="AO30" s="136"/>
+      <c r="AP30" s="136"/>
+      <c r="AQ30" s="136"/>
+      <c r="AR30" s="136"/>
+      <c r="AS30" s="136"/>
+      <c r="AT30" s="137"/>
+      <c r="AU30" s="89"/>
+      <c r="AV30" s="136"/>
+      <c r="AW30" s="136"/>
+      <c r="AX30" s="136"/>
+      <c r="AY30" s="137"/>
+      <c r="AZ30" s="90"/>
+      <c r="BA30" s="138"/>
+      <c r="BB30" s="138"/>
+      <c r="BC30" s="138"/>
+      <c r="BD30" s="138"/>
+      <c r="BE30" s="138"/>
+      <c r="BF30" s="138"/>
+      <c r="BG30" s="138"/>
+      <c r="BH30" s="138"/>
+      <c r="BI30" s="138"/>
+      <c r="BJ30" s="138"/>
+      <c r="BK30" s="138"/>
+      <c r="BL30" s="138"/>
+      <c r="BM30" s="138"/>
+      <c r="BN30" s="138"/>
+      <c r="BO30" s="139"/>
       <c r="BP30" s="2"/>
     </row>
     <row r="31" spans="1:68" ht="16.5">
@@ -21661,52 +21661,28 @@
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="AE19:AG19"/>
-    <mergeCell ref="AH19:AJ19"/>
-    <mergeCell ref="Q19:W19"/>
-    <mergeCell ref="X19:AD19"/>
-    <mergeCell ref="AK19:BO19"/>
-    <mergeCell ref="C28:K28"/>
-    <mergeCell ref="L28:AB28"/>
-    <mergeCell ref="AC28:AK28"/>
-    <mergeCell ref="AL28:AT28"/>
-    <mergeCell ref="AU28:AY28"/>
-    <mergeCell ref="AZ28:BO28"/>
-    <mergeCell ref="C27:K27"/>
-    <mergeCell ref="L27:AB27"/>
-    <mergeCell ref="AC27:AK27"/>
-    <mergeCell ref="AL27:AT27"/>
-    <mergeCell ref="AU27:AY27"/>
-    <mergeCell ref="AZ27:BO27"/>
-    <mergeCell ref="AK21:BO21"/>
-    <mergeCell ref="AZ30:BO30"/>
-    <mergeCell ref="C29:K29"/>
-    <mergeCell ref="L29:AB29"/>
-    <mergeCell ref="AC29:AK29"/>
-    <mergeCell ref="AL29:AT29"/>
-    <mergeCell ref="AU29:AY29"/>
-    <mergeCell ref="AZ29:BO29"/>
-    <mergeCell ref="C30:K30"/>
-    <mergeCell ref="L30:AB30"/>
-    <mergeCell ref="AC30:AK30"/>
-    <mergeCell ref="AL30:AT30"/>
-    <mergeCell ref="AU30:AY30"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:K26"/>
-    <mergeCell ref="L25:AB26"/>
-    <mergeCell ref="AC25:AK26"/>
-    <mergeCell ref="AL25:BO25"/>
-    <mergeCell ref="AL26:AT26"/>
-    <mergeCell ref="AU26:AY26"/>
-    <mergeCell ref="AZ26:BO26"/>
-    <mergeCell ref="Q20:W20"/>
-    <mergeCell ref="X20:AD20"/>
-    <mergeCell ref="AE20:AG20"/>
-    <mergeCell ref="AH20:AJ20"/>
-    <mergeCell ref="AK20:BO20"/>
-    <mergeCell ref="D21:P21"/>
-    <mergeCell ref="Q21:W21"/>
-    <mergeCell ref="X21:AD21"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="I10:BO10"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="I7:BO7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="I8:BO8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="I9:BO9"/>
+    <mergeCell ref="AK15:BO15"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="I12:BO12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="C14:P14"/>
+    <mergeCell ref="Q14:W14"/>
+    <mergeCell ref="X14:AD14"/>
+    <mergeCell ref="AE14:AG14"/>
+    <mergeCell ref="AK14:BO14"/>
+    <mergeCell ref="C15:P15"/>
+    <mergeCell ref="Q15:W15"/>
+    <mergeCell ref="X15:AD15"/>
+    <mergeCell ref="AE15:AG15"/>
+    <mergeCell ref="AH15:AJ15"/>
     <mergeCell ref="AE21:AG21"/>
     <mergeCell ref="AH21:AJ21"/>
     <mergeCell ref="AK18:BO18"/>
@@ -21721,28 +21697,52 @@
     <mergeCell ref="X18:AD18"/>
     <mergeCell ref="AE18:AG18"/>
     <mergeCell ref="AH18:AJ18"/>
-    <mergeCell ref="AK15:BO15"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="I12:BO12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="C14:P14"/>
-    <mergeCell ref="Q14:W14"/>
-    <mergeCell ref="X14:AD14"/>
-    <mergeCell ref="AE14:AG14"/>
-    <mergeCell ref="AK14:BO14"/>
-    <mergeCell ref="C15:P15"/>
-    <mergeCell ref="Q15:W15"/>
-    <mergeCell ref="X15:AD15"/>
-    <mergeCell ref="AE15:AG15"/>
-    <mergeCell ref="AH15:AJ15"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="I10:BO10"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="I7:BO7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="I8:BO8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="I9:BO9"/>
+    <mergeCell ref="Q20:W20"/>
+    <mergeCell ref="X20:AD20"/>
+    <mergeCell ref="AE20:AG20"/>
+    <mergeCell ref="AH20:AJ20"/>
+    <mergeCell ref="AK20:BO20"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:K26"/>
+    <mergeCell ref="L25:AB26"/>
+    <mergeCell ref="AC25:AK26"/>
+    <mergeCell ref="AL25:BO25"/>
+    <mergeCell ref="AL26:AT26"/>
+    <mergeCell ref="AU26:AY26"/>
+    <mergeCell ref="AZ26:BO26"/>
+    <mergeCell ref="AK21:BO21"/>
+    <mergeCell ref="AZ30:BO30"/>
+    <mergeCell ref="C29:K29"/>
+    <mergeCell ref="L29:AB29"/>
+    <mergeCell ref="AC29:AK29"/>
+    <mergeCell ref="AL29:AT29"/>
+    <mergeCell ref="AU29:AY29"/>
+    <mergeCell ref="AZ29:BO29"/>
+    <mergeCell ref="C30:K30"/>
+    <mergeCell ref="L30:AB30"/>
+    <mergeCell ref="AC30:AK30"/>
+    <mergeCell ref="AL30:AT30"/>
+    <mergeCell ref="AU30:AY30"/>
+    <mergeCell ref="D21:P21"/>
+    <mergeCell ref="Q21:W21"/>
+    <mergeCell ref="X21:AD21"/>
+    <mergeCell ref="AZ28:BO28"/>
+    <mergeCell ref="C27:K27"/>
+    <mergeCell ref="L27:AB27"/>
+    <mergeCell ref="AC27:AK27"/>
+    <mergeCell ref="AL27:AT27"/>
+    <mergeCell ref="AU27:AY27"/>
+    <mergeCell ref="AZ27:BO27"/>
+    <mergeCell ref="C28:K28"/>
+    <mergeCell ref="L28:AB28"/>
+    <mergeCell ref="AC28:AK28"/>
+    <mergeCell ref="AL28:AT28"/>
+    <mergeCell ref="AU28:AY28"/>
+    <mergeCell ref="AE19:AG19"/>
+    <mergeCell ref="AH19:AJ19"/>
+    <mergeCell ref="Q19:W19"/>
+    <mergeCell ref="X19:AD19"/>
+    <mergeCell ref="AK19:BO19"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <dataValidations count="1">

--- a/ha-asset/01_design/05_rootapi/設計書_5.10.問い合わせ情報API.xlsx
+++ b/ha-asset/01_design/05_rootapi/設計書_5.10.問い合わせ情報API.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\01_design\05_rootapi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0134E293-D11C-490A-8B86-ADBE1E203C15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57191B70-38AD-4058-80EF-5BDB475ED2EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="255" windowWidth="21435" windowHeight="15150" tabRatio="776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="75" yWindow="300" windowWidth="21450" windowHeight="15150" tabRatio="776" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0.更新履歴" sheetId="1" r:id="rId1"/>
@@ -1103,10 +1103,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t xml:space="preserve">  INQUIRY_STATUS = '00';</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>2.3.問い合わせ情報通知API　追加</t>
     <rPh sb="17" eb="19">
       <t>ツイカ</t>
@@ -1119,6 +1115,10 @@
   </si>
   <si>
     <t>errors</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  INQUIRY_STATUS = リクエストパラメータ.status;</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -2001,14 +2001,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2019,73 +2013,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2093,6 +2023,7 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2108,65 +2039,76 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2201,14 +2143,72 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2219,14 +2219,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2449,7 +2449,7 @@
   </sheetPr>
   <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -2606,7 +2606,7 @@
       <c r="H5" s="81"/>
       <c r="I5" s="82"/>
       <c r="J5" s="78" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K5" s="79"/>
       <c r="L5" s="79"/>
@@ -3326,12 +3326,60 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:Z24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:Z25"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J14:Z14"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J12:Z12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J13:Z13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:Z17"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:Z15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:Z16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:Z20"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:Z18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:Z19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:Z23"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:Z21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:Z22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:Z5"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:Z3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:Z4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:Z8"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:Z6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:Z7"/>
+    <mergeCell ref="B8:E8"/>
     <mergeCell ref="F11:I11"/>
     <mergeCell ref="J11:Z11"/>
     <mergeCell ref="B9:E9"/>
@@ -3341,60 +3389,12 @@
     <mergeCell ref="F10:I10"/>
     <mergeCell ref="J10:Z10"/>
     <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:Z8"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:Z6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:Z7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J5:Z5"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:Z3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:Z4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:Z23"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:Z21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:Z22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:Z20"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:Z18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:Z19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:Z17"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:Z15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:Z16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J14:Z14"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J12:Z12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J13:Z13"/>
-    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:Z24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:Z25"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5235,7 +5235,7 @@
   </sheetPr>
   <dimension ref="A1:BP104"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A49" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
   <cols>
@@ -5673,7 +5673,7 @@
     <row r="7" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A7" s="2"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="100" t="s">
+      <c r="C7" s="130" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="79"/>
@@ -5681,7 +5681,7 @@
       <c r="F7" s="79"/>
       <c r="G7" s="79"/>
       <c r="H7" s="80"/>
-      <c r="I7" s="88" t="s">
+      <c r="I7" s="92" t="s">
         <v>38</v>
       </c>
       <c r="J7" s="79"/>
@@ -5747,7 +5747,7 @@
     <row r="8" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A8" s="2"/>
       <c r="B8" s="13"/>
-      <c r="C8" s="100" t="s">
+      <c r="C8" s="130" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="79"/>
@@ -5755,7 +5755,7 @@
       <c r="F8" s="79"/>
       <c r="G8" s="79"/>
       <c r="H8" s="80"/>
-      <c r="I8" s="88" t="s">
+      <c r="I8" s="92" t="s">
         <v>24</v>
       </c>
       <c r="J8" s="79"/>
@@ -5821,7 +5821,7 @@
     <row r="9" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A9" s="2"/>
       <c r="B9" s="13"/>
-      <c r="C9" s="100" t="s">
+      <c r="C9" s="130" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="79"/>
@@ -5829,7 +5829,7 @@
       <c r="F9" s="79"/>
       <c r="G9" s="79"/>
       <c r="H9" s="80"/>
-      <c r="I9" s="88" t="s">
+      <c r="I9" s="92" t="s">
         <v>26</v>
       </c>
       <c r="J9" s="79"/>
@@ -5895,75 +5895,75 @@
     <row r="10" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A10" s="32"/>
       <c r="B10" s="33"/>
-      <c r="C10" s="100" t="s">
-        <v>193</v>
+      <c r="C10" s="130" t="s">
+        <v>192</v>
       </c>
-      <c r="D10" s="102"/>
-      <c r="E10" s="102"/>
-      <c r="F10" s="102"/>
-      <c r="G10" s="102"/>
-      <c r="H10" s="102"/>
-      <c r="I10" s="103" t="s">
+      <c r="D10" s="131"/>
+      <c r="E10" s="131"/>
+      <c r="F10" s="131"/>
+      <c r="G10" s="131"/>
+      <c r="H10" s="131"/>
+      <c r="I10" s="132" t="s">
         <v>83</v>
       </c>
-      <c r="J10" s="103"/>
-      <c r="K10" s="103"/>
-      <c r="L10" s="103"/>
-      <c r="M10" s="103"/>
-      <c r="N10" s="103"/>
-      <c r="O10" s="103"/>
-      <c r="P10" s="103"/>
-      <c r="Q10" s="103"/>
-      <c r="R10" s="103"/>
-      <c r="S10" s="103"/>
-      <c r="T10" s="103"/>
-      <c r="U10" s="103"/>
-      <c r="V10" s="103"/>
-      <c r="W10" s="103"/>
-      <c r="X10" s="103"/>
-      <c r="Y10" s="103"/>
-      <c r="Z10" s="103"/>
-      <c r="AA10" s="103"/>
-      <c r="AB10" s="103"/>
-      <c r="AC10" s="103"/>
-      <c r="AD10" s="103"/>
-      <c r="AE10" s="103"/>
-      <c r="AF10" s="103"/>
-      <c r="AG10" s="103"/>
-      <c r="AH10" s="103"/>
-      <c r="AI10" s="103"/>
-      <c r="AJ10" s="103"/>
-      <c r="AK10" s="103"/>
-      <c r="AL10" s="103"/>
-      <c r="AM10" s="103"/>
-      <c r="AN10" s="103"/>
-      <c r="AO10" s="103"/>
-      <c r="AP10" s="103"/>
-      <c r="AQ10" s="103"/>
-      <c r="AR10" s="103"/>
-      <c r="AS10" s="103"/>
-      <c r="AT10" s="103"/>
-      <c r="AU10" s="103"/>
-      <c r="AV10" s="103"/>
-      <c r="AW10" s="103"/>
-      <c r="AX10" s="103"/>
-      <c r="AY10" s="103"/>
-      <c r="AZ10" s="103"/>
-      <c r="BA10" s="103"/>
-      <c r="BB10" s="103"/>
-      <c r="BC10" s="103"/>
-      <c r="BD10" s="103"/>
-      <c r="BE10" s="103"/>
-      <c r="BF10" s="103"/>
-      <c r="BG10" s="103"/>
-      <c r="BH10" s="103"/>
-      <c r="BI10" s="103"/>
-      <c r="BJ10" s="103"/>
-      <c r="BK10" s="103"/>
-      <c r="BL10" s="103"/>
-      <c r="BM10" s="103"/>
-      <c r="BN10" s="103"/>
-      <c r="BO10" s="103"/>
+      <c r="J10" s="132"/>
+      <c r="K10" s="132"/>
+      <c r="L10" s="132"/>
+      <c r="M10" s="132"/>
+      <c r="N10" s="132"/>
+      <c r="O10" s="132"/>
+      <c r="P10" s="132"/>
+      <c r="Q10" s="132"/>
+      <c r="R10" s="132"/>
+      <c r="S10" s="132"/>
+      <c r="T10" s="132"/>
+      <c r="U10" s="132"/>
+      <c r="V10" s="132"/>
+      <c r="W10" s="132"/>
+      <c r="X10" s="132"/>
+      <c r="Y10" s="132"/>
+      <c r="Z10" s="132"/>
+      <c r="AA10" s="132"/>
+      <c r="AB10" s="132"/>
+      <c r="AC10" s="132"/>
+      <c r="AD10" s="132"/>
+      <c r="AE10" s="132"/>
+      <c r="AF10" s="132"/>
+      <c r="AG10" s="132"/>
+      <c r="AH10" s="132"/>
+      <c r="AI10" s="132"/>
+      <c r="AJ10" s="132"/>
+      <c r="AK10" s="132"/>
+      <c r="AL10" s="132"/>
+      <c r="AM10" s="132"/>
+      <c r="AN10" s="132"/>
+      <c r="AO10" s="132"/>
+      <c r="AP10" s="132"/>
+      <c r="AQ10" s="132"/>
+      <c r="AR10" s="132"/>
+      <c r="AS10" s="132"/>
+      <c r="AT10" s="132"/>
+      <c r="AU10" s="132"/>
+      <c r="AV10" s="132"/>
+      <c r="AW10" s="132"/>
+      <c r="AX10" s="132"/>
+      <c r="AY10" s="132"/>
+      <c r="AZ10" s="132"/>
+      <c r="BA10" s="132"/>
+      <c r="BB10" s="132"/>
+      <c r="BC10" s="132"/>
+      <c r="BD10" s="132"/>
+      <c r="BE10" s="132"/>
+      <c r="BF10" s="132"/>
+      <c r="BG10" s="132"/>
+      <c r="BH10" s="132"/>
+      <c r="BI10" s="132"/>
+      <c r="BJ10" s="132"/>
+      <c r="BK10" s="132"/>
+      <c r="BL10" s="132"/>
+      <c r="BM10" s="132"/>
+      <c r="BN10" s="132"/>
+      <c r="BO10" s="132"/>
       <c r="BP10" s="32"/>
     </row>
     <row r="11" spans="1:68" ht="16.5" outlineLevel="1">
@@ -6042,14 +6042,14 @@
       <c r="A12" s="2"/>
       <c r="B12" s="13"/>
       <c r="C12" s="17"/>
-      <c r="D12" s="88" t="s">
+      <c r="D12" s="92" t="s">
         <v>73</v>
       </c>
       <c r="E12" s="79"/>
       <c r="F12" s="79"/>
       <c r="G12" s="79"/>
       <c r="H12" s="80"/>
-      <c r="I12" s="94" t="s">
+      <c r="I12" s="105" t="s">
         <v>74</v>
       </c>
       <c r="J12" s="79"/>
@@ -6114,11 +6114,11 @@
     </row>
     <row r="13" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A13" s="2"/>
-      <c r="B13" s="110" t="s">
+      <c r="B13" s="135" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="105"/>
-      <c r="D13" s="105"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="96"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
@@ -6221,7 +6221,7 @@
       <c r="AB14" s="79"/>
       <c r="AC14" s="79"/>
       <c r="AD14" s="80"/>
-      <c r="AE14" s="100" t="s">
+      <c r="AE14" s="130" t="s">
         <v>20</v>
       </c>
       <c r="AF14" s="79"/>
@@ -6269,7 +6269,7 @@
     <row r="15" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A15" s="2"/>
       <c r="B15" s="13"/>
-      <c r="C15" s="88" t="s">
+      <c r="C15" s="92" t="s">
         <v>116</v>
       </c>
       <c r="D15" s="79"/>
@@ -6303,12 +6303,12 @@
       <c r="AB15" s="79"/>
       <c r="AC15" s="79"/>
       <c r="AD15" s="80"/>
-      <c r="AE15" s="88"/>
+      <c r="AE15" s="92"/>
       <c r="AF15" s="79"/>
       <c r="AG15" s="80"/>
-      <c r="AH15" s="91"/>
-      <c r="AI15" s="92"/>
-      <c r="AJ15" s="93"/>
+      <c r="AH15" s="89"/>
+      <c r="AI15" s="90"/>
+      <c r="AJ15" s="91"/>
       <c r="AK15" s="87"/>
       <c r="AL15" s="79"/>
       <c r="AM15" s="79"/>
@@ -6344,11 +6344,11 @@
     </row>
     <row r="16" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A16" s="2"/>
-      <c r="B16" s="110" t="s">
+      <c r="B16" s="135" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="105"/>
-      <c r="D16" s="105"/>
+      <c r="C16" s="96"/>
+      <c r="D16" s="96"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
@@ -6451,7 +6451,7 @@
       <c r="AB17" s="79"/>
       <c r="AC17" s="79"/>
       <c r="AD17" s="80"/>
-      <c r="AE17" s="100" t="s">
+      <c r="AE17" s="130" t="s">
         <v>20</v>
       </c>
       <c r="AF17" s="79"/>
@@ -6499,7 +6499,7 @@
     <row r="18" spans="1:68" ht="33" customHeight="1" outlineLevel="1">
       <c r="A18" s="2"/>
       <c r="B18" s="13"/>
-      <c r="C18" s="88" t="s">
+      <c r="C18" s="92" t="s">
         <v>75</v>
       </c>
       <c r="D18" s="79"/>
@@ -6533,15 +6533,15 @@
       <c r="AB18" s="79"/>
       <c r="AC18" s="79"/>
       <c r="AD18" s="80"/>
-      <c r="AE18" s="88">
+      <c r="AE18" s="92">
         <v>1</v>
       </c>
       <c r="AF18" s="79"/>
       <c r="AG18" s="80"/>
-      <c r="AH18" s="91"/>
-      <c r="AI18" s="92"/>
-      <c r="AJ18" s="93"/>
-      <c r="AK18" s="101" t="s">
+      <c r="AH18" s="89"/>
+      <c r="AI18" s="90"/>
+      <c r="AJ18" s="91"/>
+      <c r="AK18" s="113" t="s">
         <v>76</v>
       </c>
       <c r="AL18" s="79"/>
@@ -6580,7 +6580,7 @@
       <c r="A19" s="2"/>
       <c r="B19" s="13"/>
       <c r="C19" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D19" s="21"/>
       <c r="E19" s="21"/>
@@ -6611,14 +6611,14 @@
       <c r="AB19" s="79"/>
       <c r="AC19" s="79"/>
       <c r="AD19" s="80"/>
-      <c r="AE19" s="88"/>
+      <c r="AE19" s="92"/>
       <c r="AF19" s="79"/>
       <c r="AG19" s="80"/>
-      <c r="AH19" s="91" t="s">
+      <c r="AH19" s="89" t="s">
         <v>79</v>
       </c>
-      <c r="AI19" s="92"/>
-      <c r="AJ19" s="93"/>
+      <c r="AI19" s="90"/>
+      <c r="AJ19" s="91"/>
       <c r="AK19" s="87" t="s">
         <v>77</v>
       </c>
@@ -6658,21 +6658,21 @@
       <c r="A20" s="2"/>
       <c r="B20" s="13"/>
       <c r="C20" s="41"/>
-      <c r="D20" s="88" t="s">
+      <c r="D20" s="92" t="s">
         <v>78</v>
       </c>
-      <c r="E20" s="94"/>
-      <c r="F20" s="94"/>
-      <c r="G20" s="94"/>
-      <c r="H20" s="94"/>
-      <c r="I20" s="94"/>
-      <c r="J20" s="94"/>
-      <c r="K20" s="94"/>
-      <c r="L20" s="94"/>
-      <c r="M20" s="94"/>
-      <c r="N20" s="94"/>
-      <c r="O20" s="94"/>
-      <c r="P20" s="95"/>
+      <c r="E20" s="105"/>
+      <c r="F20" s="105"/>
+      <c r="G20" s="105"/>
+      <c r="H20" s="105"/>
+      <c r="I20" s="105"/>
+      <c r="J20" s="105"/>
+      <c r="K20" s="105"/>
+      <c r="L20" s="105"/>
+      <c r="M20" s="105"/>
+      <c r="N20" s="105"/>
+      <c r="O20" s="105"/>
+      <c r="P20" s="107"/>
       <c r="Q20" s="87" t="s">
         <v>95</v>
       </c>
@@ -6689,12 +6689,12 @@
       <c r="AB20" s="79"/>
       <c r="AC20" s="79"/>
       <c r="AD20" s="80"/>
-      <c r="AE20" s="88"/>
+      <c r="AE20" s="92"/>
       <c r="AF20" s="79"/>
       <c r="AG20" s="80"/>
-      <c r="AH20" s="91"/>
-      <c r="AI20" s="92"/>
-      <c r="AJ20" s="93"/>
+      <c r="AH20" s="89"/>
+      <c r="AI20" s="90"/>
+      <c r="AJ20" s="91"/>
       <c r="AK20" s="87"/>
       <c r="AL20" s="79"/>
       <c r="AM20" s="79"/>
@@ -6763,14 +6763,14 @@
       <c r="AB21" s="79"/>
       <c r="AC21" s="79"/>
       <c r="AD21" s="80"/>
-      <c r="AE21" s="88"/>
+      <c r="AE21" s="92"/>
       <c r="AF21" s="79"/>
       <c r="AG21" s="80"/>
-      <c r="AH21" s="91" t="s">
+      <c r="AH21" s="89" t="s">
         <v>79</v>
       </c>
-      <c r="AI21" s="92"/>
-      <c r="AJ21" s="93"/>
+      <c r="AI21" s="90"/>
+      <c r="AJ21" s="91"/>
       <c r="AK21" s="87" t="s">
         <v>97</v>
       </c>
@@ -6810,21 +6810,21 @@
       <c r="A22" s="2"/>
       <c r="B22" s="13"/>
       <c r="C22" s="24"/>
-      <c r="D22" s="88" t="s">
+      <c r="D22" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="E22" s="94"/>
-      <c r="F22" s="94"/>
-      <c r="G22" s="94"/>
-      <c r="H22" s="94"/>
-      <c r="I22" s="94"/>
-      <c r="J22" s="94"/>
-      <c r="K22" s="94"/>
-      <c r="L22" s="94"/>
-      <c r="M22" s="94"/>
-      <c r="N22" s="94"/>
-      <c r="O22" s="94"/>
-      <c r="P22" s="95"/>
+      <c r="E22" s="105"/>
+      <c r="F22" s="105"/>
+      <c r="G22" s="105"/>
+      <c r="H22" s="105"/>
+      <c r="I22" s="105"/>
+      <c r="J22" s="105"/>
+      <c r="K22" s="105"/>
+      <c r="L22" s="105"/>
+      <c r="M22" s="105"/>
+      <c r="N22" s="105"/>
+      <c r="O22" s="105"/>
+      <c r="P22" s="107"/>
       <c r="Q22" s="87" t="s">
         <v>36</v>
       </c>
@@ -6841,12 +6841,12 @@
       <c r="AB22" s="79"/>
       <c r="AC22" s="79"/>
       <c r="AD22" s="80"/>
-      <c r="AE22" s="88"/>
+      <c r="AE22" s="92"/>
       <c r="AF22" s="79"/>
       <c r="AG22" s="80"/>
-      <c r="AH22" s="91"/>
-      <c r="AI22" s="92"/>
-      <c r="AJ22" s="93"/>
+      <c r="AH22" s="89"/>
+      <c r="AI22" s="90"/>
+      <c r="AJ22" s="91"/>
       <c r="AK22" s="87"/>
       <c r="AL22" s="79"/>
       <c r="AM22" s="79"/>
@@ -6884,21 +6884,21 @@
       <c r="A23" s="2"/>
       <c r="B23" s="13"/>
       <c r="C23" s="24"/>
-      <c r="D23" s="97" t="s">
+      <c r="D23" s="117" t="s">
         <v>87</v>
       </c>
-      <c r="E23" s="98"/>
-      <c r="F23" s="98"/>
-      <c r="G23" s="98"/>
-      <c r="H23" s="98"/>
-      <c r="I23" s="98"/>
-      <c r="J23" s="98"/>
-      <c r="K23" s="98"/>
-      <c r="L23" s="98"/>
-      <c r="M23" s="98"/>
-      <c r="N23" s="98"/>
-      <c r="O23" s="98"/>
-      <c r="P23" s="99"/>
+      <c r="E23" s="118"/>
+      <c r="F23" s="118"/>
+      <c r="G23" s="118"/>
+      <c r="H23" s="118"/>
+      <c r="I23" s="118"/>
+      <c r="J23" s="118"/>
+      <c r="K23" s="118"/>
+      <c r="L23" s="118"/>
+      <c r="M23" s="118"/>
+      <c r="N23" s="118"/>
+      <c r="O23" s="118"/>
+      <c r="P23" s="119"/>
       <c r="Q23" s="87" t="s">
         <v>36</v>
       </c>
@@ -6915,12 +6915,12 @@
       <c r="AB23" s="79"/>
       <c r="AC23" s="79"/>
       <c r="AD23" s="80"/>
-      <c r="AE23" s="88"/>
+      <c r="AE23" s="92"/>
       <c r="AF23" s="79"/>
       <c r="AG23" s="80"/>
-      <c r="AH23" s="91"/>
-      <c r="AI23" s="92"/>
-      <c r="AJ23" s="93"/>
+      <c r="AH23" s="89"/>
+      <c r="AI23" s="90"/>
+      <c r="AJ23" s="91"/>
       <c r="AK23" s="87" t="s">
         <v>143</v>
       </c>
@@ -6960,21 +6960,21 @@
       <c r="A24" s="2"/>
       <c r="B24" s="13"/>
       <c r="C24" s="24"/>
-      <c r="D24" s="97" t="s">
+      <c r="D24" s="117" t="s">
         <v>96</v>
       </c>
-      <c r="E24" s="98"/>
-      <c r="F24" s="98"/>
-      <c r="G24" s="98"/>
-      <c r="H24" s="98"/>
-      <c r="I24" s="98"/>
-      <c r="J24" s="98"/>
-      <c r="K24" s="98"/>
-      <c r="L24" s="98"/>
-      <c r="M24" s="98"/>
-      <c r="N24" s="98"/>
-      <c r="O24" s="98"/>
-      <c r="P24" s="99"/>
+      <c r="E24" s="118"/>
+      <c r="F24" s="118"/>
+      <c r="G24" s="118"/>
+      <c r="H24" s="118"/>
+      <c r="I24" s="118"/>
+      <c r="J24" s="118"/>
+      <c r="K24" s="118"/>
+      <c r="L24" s="118"/>
+      <c r="M24" s="118"/>
+      <c r="N24" s="118"/>
+      <c r="O24" s="118"/>
+      <c r="P24" s="119"/>
       <c r="Q24" s="87" t="s">
         <v>36</v>
       </c>
@@ -6991,12 +6991,12 @@
       <c r="AB24" s="79"/>
       <c r="AC24" s="79"/>
       <c r="AD24" s="80"/>
-      <c r="AE24" s="88"/>
+      <c r="AE24" s="92"/>
       <c r="AF24" s="79"/>
       <c r="AG24" s="80"/>
-      <c r="AH24" s="91"/>
-      <c r="AI24" s="92"/>
-      <c r="AJ24" s="93"/>
+      <c r="AH24" s="89"/>
+      <c r="AI24" s="90"/>
+      <c r="AJ24" s="91"/>
       <c r="AK24" s="87" t="s">
         <v>142</v>
       </c>
@@ -7065,12 +7065,12 @@
       <c r="AB25" s="79"/>
       <c r="AC25" s="79"/>
       <c r="AD25" s="80"/>
-      <c r="AE25" s="88"/>
+      <c r="AE25" s="92"/>
       <c r="AF25" s="79"/>
       <c r="AG25" s="80"/>
-      <c r="AH25" s="91"/>
-      <c r="AI25" s="92"/>
-      <c r="AJ25" s="93"/>
+      <c r="AH25" s="89"/>
+      <c r="AI25" s="90"/>
+      <c r="AJ25" s="91"/>
       <c r="AK25" s="87"/>
       <c r="AL25" s="79"/>
       <c r="AM25" s="79"/>
@@ -7139,14 +7139,14 @@
       <c r="AB26" s="79"/>
       <c r="AC26" s="79"/>
       <c r="AD26" s="80"/>
-      <c r="AE26" s="88">
+      <c r="AE26" s="92">
         <v>2</v>
       </c>
       <c r="AF26" s="79"/>
       <c r="AG26" s="80"/>
-      <c r="AH26" s="91"/>
-      <c r="AI26" s="92"/>
-      <c r="AJ26" s="93"/>
+      <c r="AH26" s="89"/>
+      <c r="AI26" s="90"/>
+      <c r="AJ26" s="91"/>
       <c r="AK26" s="87"/>
       <c r="AL26" s="79"/>
       <c r="AM26" s="79"/>
@@ -7215,12 +7215,12 @@
       <c r="AB27" s="79"/>
       <c r="AC27" s="79"/>
       <c r="AD27" s="80"/>
-      <c r="AE27" s="88"/>
+      <c r="AE27" s="92"/>
       <c r="AF27" s="79"/>
       <c r="AG27" s="80"/>
-      <c r="AH27" s="91"/>
-      <c r="AI27" s="92"/>
-      <c r="AJ27" s="93"/>
+      <c r="AH27" s="89"/>
+      <c r="AI27" s="90"/>
+      <c r="AJ27" s="91"/>
       <c r="AK27" s="87"/>
       <c r="AL27" s="79"/>
       <c r="AM27" s="79"/>
@@ -7287,12 +7287,12 @@
       <c r="AB28" s="79"/>
       <c r="AC28" s="79"/>
       <c r="AD28" s="80"/>
-      <c r="AE28" s="88"/>
+      <c r="AE28" s="92"/>
       <c r="AF28" s="79"/>
       <c r="AG28" s="80"/>
-      <c r="AH28" s="91"/>
-      <c r="AI28" s="92"/>
-      <c r="AJ28" s="93"/>
+      <c r="AH28" s="89"/>
+      <c r="AI28" s="90"/>
+      <c r="AJ28" s="91"/>
       <c r="AK28" s="87"/>
       <c r="AL28" s="79"/>
       <c r="AM28" s="79"/>
@@ -7361,14 +7361,14 @@
       <c r="AB29" s="79"/>
       <c r="AC29" s="79"/>
       <c r="AD29" s="80"/>
-      <c r="AE29" s="88">
+      <c r="AE29" s="92">
         <v>2</v>
       </c>
       <c r="AF29" s="79"/>
       <c r="AG29" s="80"/>
-      <c r="AH29" s="91"/>
-      <c r="AI29" s="92"/>
-      <c r="AJ29" s="93"/>
+      <c r="AH29" s="89"/>
+      <c r="AI29" s="90"/>
+      <c r="AJ29" s="91"/>
       <c r="AK29" s="87"/>
       <c r="AL29" s="79"/>
       <c r="AM29" s="79"/>
@@ -7437,12 +7437,12 @@
       <c r="AB30" s="79"/>
       <c r="AC30" s="79"/>
       <c r="AD30" s="80"/>
-      <c r="AE30" s="88"/>
+      <c r="AE30" s="92"/>
       <c r="AF30" s="79"/>
       <c r="AG30" s="80"/>
-      <c r="AH30" s="91"/>
-      <c r="AI30" s="92"/>
-      <c r="AJ30" s="93"/>
+      <c r="AH30" s="89"/>
+      <c r="AI30" s="90"/>
+      <c r="AJ30" s="91"/>
       <c r="AK30" s="87"/>
       <c r="AL30" s="79"/>
       <c r="AM30" s="79"/>
@@ -7480,21 +7480,21 @@
       <c r="A31" s="2"/>
       <c r="B31" s="13"/>
       <c r="C31" s="24"/>
-      <c r="D31" s="88" t="s">
+      <c r="D31" s="92" t="s">
         <v>91</v>
       </c>
-      <c r="E31" s="94"/>
-      <c r="F31" s="94"/>
-      <c r="G31" s="94"/>
-      <c r="H31" s="94"/>
-      <c r="I31" s="94"/>
-      <c r="J31" s="94"/>
-      <c r="K31" s="94"/>
-      <c r="L31" s="94"/>
-      <c r="M31" s="94"/>
-      <c r="N31" s="94"/>
-      <c r="O31" s="94"/>
-      <c r="P31" s="95"/>
+      <c r="E31" s="105"/>
+      <c r="F31" s="105"/>
+      <c r="G31" s="105"/>
+      <c r="H31" s="105"/>
+      <c r="I31" s="105"/>
+      <c r="J31" s="105"/>
+      <c r="K31" s="105"/>
+      <c r="L31" s="105"/>
+      <c r="M31" s="105"/>
+      <c r="N31" s="105"/>
+      <c r="O31" s="105"/>
+      <c r="P31" s="107"/>
       <c r="Q31" s="87" t="s">
         <v>95</v>
       </c>
@@ -7511,12 +7511,12 @@
       <c r="AB31" s="79"/>
       <c r="AC31" s="79"/>
       <c r="AD31" s="80"/>
-      <c r="AE31" s="88"/>
+      <c r="AE31" s="92"/>
       <c r="AF31" s="79"/>
       <c r="AG31" s="80"/>
-      <c r="AH31" s="91"/>
-      <c r="AI31" s="92"/>
-      <c r="AJ31" s="93"/>
+      <c r="AH31" s="89"/>
+      <c r="AI31" s="90"/>
+      <c r="AJ31" s="91"/>
       <c r="AK31" s="87"/>
       <c r="AL31" s="79"/>
       <c r="AM31" s="79"/>
@@ -7554,21 +7554,21 @@
       <c r="A32" s="2"/>
       <c r="B32" s="13"/>
       <c r="C32" s="24"/>
-      <c r="D32" s="88" t="s">
+      <c r="D32" s="92" t="s">
         <v>94</v>
       </c>
-      <c r="E32" s="94"/>
-      <c r="F32" s="94"/>
-      <c r="G32" s="94"/>
-      <c r="H32" s="94"/>
-      <c r="I32" s="94"/>
-      <c r="J32" s="94"/>
-      <c r="K32" s="94"/>
-      <c r="L32" s="94"/>
-      <c r="M32" s="94"/>
-      <c r="N32" s="94"/>
-      <c r="O32" s="94"/>
-      <c r="P32" s="95"/>
+      <c r="E32" s="105"/>
+      <c r="F32" s="105"/>
+      <c r="G32" s="105"/>
+      <c r="H32" s="105"/>
+      <c r="I32" s="105"/>
+      <c r="J32" s="105"/>
+      <c r="K32" s="105"/>
+      <c r="L32" s="105"/>
+      <c r="M32" s="105"/>
+      <c r="N32" s="105"/>
+      <c r="O32" s="105"/>
+      <c r="P32" s="107"/>
       <c r="Q32" s="87" t="s">
         <v>95</v>
       </c>
@@ -7585,12 +7585,12 @@
       <c r="AB32" s="79"/>
       <c r="AC32" s="79"/>
       <c r="AD32" s="80"/>
-      <c r="AE32" s="88"/>
+      <c r="AE32" s="92"/>
       <c r="AF32" s="79"/>
       <c r="AG32" s="80"/>
-      <c r="AH32" s="91"/>
-      <c r="AI32" s="92"/>
-      <c r="AJ32" s="93"/>
+      <c r="AH32" s="89"/>
+      <c r="AI32" s="90"/>
+      <c r="AJ32" s="91"/>
       <c r="AK32" s="87"/>
       <c r="AL32" s="79"/>
       <c r="AM32" s="79"/>
@@ -7628,21 +7628,21 @@
       <c r="A33" s="2"/>
       <c r="B33" s="13"/>
       <c r="C33" s="24"/>
-      <c r="D33" s="88" t="s">
+      <c r="D33" s="92" t="s">
         <v>92</v>
       </c>
-      <c r="E33" s="94"/>
-      <c r="F33" s="94"/>
-      <c r="G33" s="94"/>
-      <c r="H33" s="94"/>
-      <c r="I33" s="94"/>
-      <c r="J33" s="94"/>
-      <c r="K33" s="94"/>
-      <c r="L33" s="94"/>
-      <c r="M33" s="94"/>
-      <c r="N33" s="94"/>
-      <c r="O33" s="94"/>
-      <c r="P33" s="95"/>
+      <c r="E33" s="105"/>
+      <c r="F33" s="105"/>
+      <c r="G33" s="105"/>
+      <c r="H33" s="105"/>
+      <c r="I33" s="105"/>
+      <c r="J33" s="105"/>
+      <c r="K33" s="105"/>
+      <c r="L33" s="105"/>
+      <c r="M33" s="105"/>
+      <c r="N33" s="105"/>
+      <c r="O33" s="105"/>
+      <c r="P33" s="107"/>
       <c r="Q33" s="87" t="s">
         <v>68</v>
       </c>
@@ -7659,12 +7659,12 @@
       <c r="AB33" s="79"/>
       <c r="AC33" s="79"/>
       <c r="AD33" s="80"/>
-      <c r="AE33" s="88"/>
+      <c r="AE33" s="92"/>
       <c r="AF33" s="79"/>
       <c r="AG33" s="80"/>
-      <c r="AH33" s="91"/>
-      <c r="AI33" s="92"/>
-      <c r="AJ33" s="93"/>
+      <c r="AH33" s="89"/>
+      <c r="AI33" s="90"/>
+      <c r="AJ33" s="91"/>
       <c r="AK33" s="87"/>
       <c r="AL33" s="79"/>
       <c r="AM33" s="79"/>
@@ -7733,12 +7733,12 @@
       <c r="AB34" s="79"/>
       <c r="AC34" s="79"/>
       <c r="AD34" s="80"/>
-      <c r="AE34" s="88"/>
+      <c r="AE34" s="92"/>
       <c r="AF34" s="79"/>
       <c r="AG34" s="80"/>
-      <c r="AH34" s="91"/>
-      <c r="AI34" s="92"/>
-      <c r="AJ34" s="93"/>
+      <c r="AH34" s="89"/>
+      <c r="AI34" s="90"/>
+      <c r="AJ34" s="91"/>
       <c r="AK34" s="87"/>
       <c r="AL34" s="79"/>
       <c r="AM34" s="79"/>
@@ -7807,12 +7807,12 @@
       <c r="AB35" s="79"/>
       <c r="AC35" s="79"/>
       <c r="AD35" s="80"/>
-      <c r="AE35" s="88"/>
+      <c r="AE35" s="92"/>
       <c r="AF35" s="79"/>
       <c r="AG35" s="80"/>
-      <c r="AH35" s="91"/>
-      <c r="AI35" s="92"/>
-      <c r="AJ35" s="93"/>
+      <c r="AH35" s="89"/>
+      <c r="AI35" s="90"/>
+      <c r="AJ35" s="91"/>
       <c r="AK35" s="87" t="s">
         <v>97</v>
       </c>
@@ -7883,12 +7883,12 @@
       <c r="AB36" s="79"/>
       <c r="AC36" s="79"/>
       <c r="AD36" s="80"/>
-      <c r="AE36" s="88"/>
+      <c r="AE36" s="92"/>
       <c r="AF36" s="79"/>
       <c r="AG36" s="80"/>
-      <c r="AH36" s="91"/>
-      <c r="AI36" s="92"/>
-      <c r="AJ36" s="93"/>
+      <c r="AH36" s="89"/>
+      <c r="AI36" s="90"/>
+      <c r="AJ36" s="91"/>
       <c r="AK36" s="87"/>
       <c r="AL36" s="79"/>
       <c r="AM36" s="79"/>
@@ -7957,12 +7957,12 @@
       <c r="AB37" s="79"/>
       <c r="AC37" s="79"/>
       <c r="AD37" s="80"/>
-      <c r="AE37" s="88"/>
+      <c r="AE37" s="92"/>
       <c r="AF37" s="79"/>
       <c r="AG37" s="80"/>
-      <c r="AH37" s="91"/>
-      <c r="AI37" s="92"/>
-      <c r="AJ37" s="93"/>
+      <c r="AH37" s="89"/>
+      <c r="AI37" s="90"/>
+      <c r="AJ37" s="91"/>
       <c r="AK37" s="87"/>
       <c r="AL37" s="79"/>
       <c r="AM37" s="79"/>
@@ -8031,12 +8031,12 @@
       <c r="AB38" s="79"/>
       <c r="AC38" s="79"/>
       <c r="AD38" s="80"/>
-      <c r="AE38" s="88"/>
+      <c r="AE38" s="92"/>
       <c r="AF38" s="79"/>
       <c r="AG38" s="80"/>
-      <c r="AH38" s="91"/>
-      <c r="AI38" s="92"/>
-      <c r="AJ38" s="93"/>
+      <c r="AH38" s="89"/>
+      <c r="AI38" s="90"/>
+      <c r="AJ38" s="91"/>
       <c r="AK38" s="87"/>
       <c r="AL38" s="79"/>
       <c r="AM38" s="79"/>
@@ -8105,12 +8105,12 @@
       <c r="AB39" s="79"/>
       <c r="AC39" s="79"/>
       <c r="AD39" s="80"/>
-      <c r="AE39" s="88"/>
+      <c r="AE39" s="92"/>
       <c r="AF39" s="79"/>
       <c r="AG39" s="80"/>
-      <c r="AH39" s="91"/>
-      <c r="AI39" s="92"/>
-      <c r="AJ39" s="93"/>
+      <c r="AH39" s="89"/>
+      <c r="AI39" s="90"/>
+      <c r="AJ39" s="91"/>
       <c r="AK39" s="87"/>
       <c r="AL39" s="79"/>
       <c r="AM39" s="79"/>
@@ -8179,12 +8179,12 @@
       <c r="AB40" s="79"/>
       <c r="AC40" s="79"/>
       <c r="AD40" s="80"/>
-      <c r="AE40" s="88"/>
+      <c r="AE40" s="92"/>
       <c r="AF40" s="79"/>
       <c r="AG40" s="80"/>
-      <c r="AH40" s="91"/>
-      <c r="AI40" s="92"/>
-      <c r="AJ40" s="93"/>
+      <c r="AH40" s="89"/>
+      <c r="AI40" s="90"/>
+      <c r="AJ40" s="91"/>
       <c r="AK40" s="87"/>
       <c r="AL40" s="79"/>
       <c r="AM40" s="79"/>
@@ -8253,12 +8253,12 @@
       <c r="AB41" s="79"/>
       <c r="AC41" s="79"/>
       <c r="AD41" s="80"/>
-      <c r="AE41" s="88"/>
+      <c r="AE41" s="92"/>
       <c r="AF41" s="79"/>
       <c r="AG41" s="80"/>
-      <c r="AH41" s="91"/>
-      <c r="AI41" s="92"/>
-      <c r="AJ41" s="93"/>
+      <c r="AH41" s="89"/>
+      <c r="AI41" s="90"/>
+      <c r="AJ41" s="91"/>
       <c r="AK41" s="87"/>
       <c r="AL41" s="79"/>
       <c r="AM41" s="79"/>
@@ -8311,7 +8311,7 @@
       <c r="N42" s="38"/>
       <c r="O42" s="38"/>
       <c r="P42" s="39"/>
-      <c r="Q42" s="96" t="s">
+      <c r="Q42" s="88" t="s">
         <v>141</v>
       </c>
       <c r="R42" s="79"/>
@@ -8327,45 +8327,45 @@
       <c r="AB42" s="79"/>
       <c r="AC42" s="79"/>
       <c r="AD42" s="80"/>
-      <c r="AE42" s="88"/>
+      <c r="AE42" s="92"/>
       <c r="AF42" s="79"/>
       <c r="AG42" s="80"/>
-      <c r="AH42" s="91"/>
-      <c r="AI42" s="92"/>
-      <c r="AJ42" s="93"/>
-      <c r="AK42" s="101" t="s">
+      <c r="AH42" s="89"/>
+      <c r="AI42" s="90"/>
+      <c r="AJ42" s="91"/>
+      <c r="AK42" s="113" t="s">
         <v>106</v>
       </c>
-      <c r="AL42" s="118"/>
-      <c r="AM42" s="118"/>
-      <c r="AN42" s="118"/>
-      <c r="AO42" s="118"/>
-      <c r="AP42" s="118"/>
-      <c r="AQ42" s="118"/>
-      <c r="AR42" s="118"/>
-      <c r="AS42" s="118"/>
-      <c r="AT42" s="118"/>
-      <c r="AU42" s="118"/>
-      <c r="AV42" s="118"/>
-      <c r="AW42" s="118"/>
-      <c r="AX42" s="118"/>
-      <c r="AY42" s="118"/>
-      <c r="AZ42" s="118"/>
-      <c r="BA42" s="118"/>
-      <c r="BB42" s="118"/>
-      <c r="BC42" s="118"/>
-      <c r="BD42" s="118"/>
-      <c r="BE42" s="118"/>
-      <c r="BF42" s="118"/>
-      <c r="BG42" s="118"/>
-      <c r="BH42" s="118"/>
-      <c r="BI42" s="118"/>
-      <c r="BJ42" s="118"/>
-      <c r="BK42" s="118"/>
-      <c r="BL42" s="118"/>
-      <c r="BM42" s="118"/>
-      <c r="BN42" s="118"/>
-      <c r="BO42" s="119"/>
+      <c r="AL42" s="114"/>
+      <c r="AM42" s="114"/>
+      <c r="AN42" s="114"/>
+      <c r="AO42" s="114"/>
+      <c r="AP42" s="114"/>
+      <c r="AQ42" s="114"/>
+      <c r="AR42" s="114"/>
+      <c r="AS42" s="114"/>
+      <c r="AT42" s="114"/>
+      <c r="AU42" s="114"/>
+      <c r="AV42" s="114"/>
+      <c r="AW42" s="114"/>
+      <c r="AX42" s="114"/>
+      <c r="AY42" s="114"/>
+      <c r="AZ42" s="114"/>
+      <c r="BA42" s="114"/>
+      <c r="BB42" s="114"/>
+      <c r="BC42" s="114"/>
+      <c r="BD42" s="114"/>
+      <c r="BE42" s="114"/>
+      <c r="BF42" s="114"/>
+      <c r="BG42" s="114"/>
+      <c r="BH42" s="114"/>
+      <c r="BI42" s="114"/>
+      <c r="BJ42" s="114"/>
+      <c r="BK42" s="114"/>
+      <c r="BL42" s="114"/>
+      <c r="BM42" s="114"/>
+      <c r="BN42" s="114"/>
+      <c r="BO42" s="115"/>
       <c r="BP42" s="2"/>
     </row>
     <row r="43" spans="1:68" ht="16.5" outlineLevel="1">
@@ -8387,7 +8387,7 @@
       <c r="N43" s="38"/>
       <c r="O43" s="38"/>
       <c r="P43" s="39"/>
-      <c r="Q43" s="96" t="s">
+      <c r="Q43" s="88" t="s">
         <v>53</v>
       </c>
       <c r="R43" s="79"/>
@@ -8403,12 +8403,12 @@
       <c r="AB43" s="79"/>
       <c r="AC43" s="79"/>
       <c r="AD43" s="80"/>
-      <c r="AE43" s="88"/>
+      <c r="AE43" s="92"/>
       <c r="AF43" s="79"/>
       <c r="AG43" s="80"/>
-      <c r="AH43" s="91"/>
-      <c r="AI43" s="92"/>
-      <c r="AJ43" s="93"/>
+      <c r="AH43" s="89"/>
+      <c r="AI43" s="90"/>
+      <c r="AJ43" s="91"/>
       <c r="AK43" s="87"/>
       <c r="AL43" s="79"/>
       <c r="AM43" s="79"/>
@@ -8461,7 +8461,7 @@
       <c r="N44" s="38"/>
       <c r="O44" s="38"/>
       <c r="P44" s="39"/>
-      <c r="Q44" s="96" t="s">
+      <c r="Q44" s="88" t="s">
         <v>141</v>
       </c>
       <c r="R44" s="79"/>
@@ -8477,45 +8477,45 @@
       <c r="AB44" s="79"/>
       <c r="AC44" s="79"/>
       <c r="AD44" s="80"/>
-      <c r="AE44" s="88"/>
+      <c r="AE44" s="92"/>
       <c r="AF44" s="79"/>
       <c r="AG44" s="80"/>
-      <c r="AH44" s="91"/>
-      <c r="AI44" s="92"/>
-      <c r="AJ44" s="93"/>
-      <c r="AK44" s="101" t="s">
+      <c r="AH44" s="89"/>
+      <c r="AI44" s="90"/>
+      <c r="AJ44" s="91"/>
+      <c r="AK44" s="113" t="s">
         <v>106</v>
       </c>
-      <c r="AL44" s="118"/>
-      <c r="AM44" s="118"/>
-      <c r="AN44" s="118"/>
-      <c r="AO44" s="118"/>
-      <c r="AP44" s="118"/>
-      <c r="AQ44" s="118"/>
-      <c r="AR44" s="118"/>
-      <c r="AS44" s="118"/>
-      <c r="AT44" s="118"/>
-      <c r="AU44" s="118"/>
-      <c r="AV44" s="118"/>
-      <c r="AW44" s="118"/>
-      <c r="AX44" s="118"/>
-      <c r="AY44" s="118"/>
-      <c r="AZ44" s="118"/>
-      <c r="BA44" s="118"/>
-      <c r="BB44" s="118"/>
-      <c r="BC44" s="118"/>
-      <c r="BD44" s="118"/>
-      <c r="BE44" s="118"/>
-      <c r="BF44" s="118"/>
-      <c r="BG44" s="118"/>
-      <c r="BH44" s="118"/>
-      <c r="BI44" s="118"/>
-      <c r="BJ44" s="118"/>
-      <c r="BK44" s="118"/>
-      <c r="BL44" s="118"/>
-      <c r="BM44" s="118"/>
-      <c r="BN44" s="118"/>
-      <c r="BO44" s="119"/>
+      <c r="AL44" s="114"/>
+      <c r="AM44" s="114"/>
+      <c r="AN44" s="114"/>
+      <c r="AO44" s="114"/>
+      <c r="AP44" s="114"/>
+      <c r="AQ44" s="114"/>
+      <c r="AR44" s="114"/>
+      <c r="AS44" s="114"/>
+      <c r="AT44" s="114"/>
+      <c r="AU44" s="114"/>
+      <c r="AV44" s="114"/>
+      <c r="AW44" s="114"/>
+      <c r="AX44" s="114"/>
+      <c r="AY44" s="114"/>
+      <c r="AZ44" s="114"/>
+      <c r="BA44" s="114"/>
+      <c r="BB44" s="114"/>
+      <c r="BC44" s="114"/>
+      <c r="BD44" s="114"/>
+      <c r="BE44" s="114"/>
+      <c r="BF44" s="114"/>
+      <c r="BG44" s="114"/>
+      <c r="BH44" s="114"/>
+      <c r="BI44" s="114"/>
+      <c r="BJ44" s="114"/>
+      <c r="BK44" s="114"/>
+      <c r="BL44" s="114"/>
+      <c r="BM44" s="114"/>
+      <c r="BN44" s="114"/>
+      <c r="BO44" s="115"/>
       <c r="BP44" s="2"/>
     </row>
     <row r="45" spans="1:68" ht="16.5" outlineLevel="1">
@@ -8537,7 +8537,7 @@
       <c r="N45" s="38"/>
       <c r="O45" s="38"/>
       <c r="P45" s="39"/>
-      <c r="Q45" s="96" t="s">
+      <c r="Q45" s="88" t="s">
         <v>53</v>
       </c>
       <c r="R45" s="79"/>
@@ -8553,12 +8553,12 @@
       <c r="AB45" s="79"/>
       <c r="AC45" s="79"/>
       <c r="AD45" s="80"/>
-      <c r="AE45" s="88"/>
+      <c r="AE45" s="92"/>
       <c r="AF45" s="79"/>
       <c r="AG45" s="80"/>
-      <c r="AH45" s="91"/>
-      <c r="AI45" s="92"/>
-      <c r="AJ45" s="93"/>
+      <c r="AH45" s="89"/>
+      <c r="AI45" s="90"/>
+      <c r="AJ45" s="91"/>
       <c r="AK45" s="87"/>
       <c r="AL45" s="79"/>
       <c r="AM45" s="79"/>
@@ -8611,7 +8611,7 @@
       <c r="N46" s="38"/>
       <c r="O46" s="38"/>
       <c r="P46" s="39"/>
-      <c r="Q46" s="96" t="s">
+      <c r="Q46" s="88" t="s">
         <v>141</v>
       </c>
       <c r="R46" s="79"/>
@@ -8627,45 +8627,45 @@
       <c r="AB46" s="79"/>
       <c r="AC46" s="79"/>
       <c r="AD46" s="80"/>
-      <c r="AE46" s="88"/>
+      <c r="AE46" s="92"/>
       <c r="AF46" s="79"/>
       <c r="AG46" s="80"/>
-      <c r="AH46" s="91"/>
-      <c r="AI46" s="92"/>
-      <c r="AJ46" s="93"/>
-      <c r="AK46" s="101" t="s">
+      <c r="AH46" s="89"/>
+      <c r="AI46" s="90"/>
+      <c r="AJ46" s="91"/>
+      <c r="AK46" s="113" t="s">
         <v>111</v>
       </c>
-      <c r="AL46" s="96"/>
-      <c r="AM46" s="96"/>
-      <c r="AN46" s="96"/>
-      <c r="AO46" s="96"/>
-      <c r="AP46" s="96"/>
-      <c r="AQ46" s="96"/>
-      <c r="AR46" s="96"/>
-      <c r="AS46" s="96"/>
-      <c r="AT46" s="96"/>
-      <c r="AU46" s="96"/>
-      <c r="AV46" s="96"/>
-      <c r="AW46" s="96"/>
-      <c r="AX46" s="96"/>
-      <c r="AY46" s="96"/>
-      <c r="AZ46" s="96"/>
-      <c r="BA46" s="96"/>
-      <c r="BB46" s="96"/>
-      <c r="BC46" s="96"/>
-      <c r="BD46" s="96"/>
-      <c r="BE46" s="96"/>
-      <c r="BF46" s="96"/>
-      <c r="BG46" s="96"/>
-      <c r="BH46" s="96"/>
-      <c r="BI46" s="96"/>
-      <c r="BJ46" s="96"/>
-      <c r="BK46" s="96"/>
-      <c r="BL46" s="96"/>
-      <c r="BM46" s="96"/>
-      <c r="BN46" s="96"/>
-      <c r="BO46" s="120"/>
+      <c r="AL46" s="88"/>
+      <c r="AM46" s="88"/>
+      <c r="AN46" s="88"/>
+      <c r="AO46" s="88"/>
+      <c r="AP46" s="88"/>
+      <c r="AQ46" s="88"/>
+      <c r="AR46" s="88"/>
+      <c r="AS46" s="88"/>
+      <c r="AT46" s="88"/>
+      <c r="AU46" s="88"/>
+      <c r="AV46" s="88"/>
+      <c r="AW46" s="88"/>
+      <c r="AX46" s="88"/>
+      <c r="AY46" s="88"/>
+      <c r="AZ46" s="88"/>
+      <c r="BA46" s="88"/>
+      <c r="BB46" s="88"/>
+      <c r="BC46" s="88"/>
+      <c r="BD46" s="88"/>
+      <c r="BE46" s="88"/>
+      <c r="BF46" s="88"/>
+      <c r="BG46" s="88"/>
+      <c r="BH46" s="88"/>
+      <c r="BI46" s="88"/>
+      <c r="BJ46" s="88"/>
+      <c r="BK46" s="88"/>
+      <c r="BL46" s="88"/>
+      <c r="BM46" s="88"/>
+      <c r="BN46" s="88"/>
+      <c r="BO46" s="116"/>
       <c r="BP46" s="2"/>
     </row>
     <row r="47" spans="1:68" ht="16.5" outlineLevel="1">
@@ -8687,7 +8687,7 @@
       <c r="N47" s="38"/>
       <c r="O47" s="38"/>
       <c r="P47" s="39"/>
-      <c r="Q47" s="96" t="s">
+      <c r="Q47" s="88" t="s">
         <v>53</v>
       </c>
       <c r="R47" s="79"/>
@@ -8703,12 +8703,12 @@
       <c r="AB47" s="79"/>
       <c r="AC47" s="79"/>
       <c r="AD47" s="80"/>
-      <c r="AE47" s="88"/>
+      <c r="AE47" s="92"/>
       <c r="AF47" s="79"/>
       <c r="AG47" s="80"/>
-      <c r="AH47" s="91"/>
-      <c r="AI47" s="92"/>
-      <c r="AJ47" s="93"/>
+      <c r="AH47" s="89"/>
+      <c r="AI47" s="90"/>
+      <c r="AJ47" s="91"/>
       <c r="AK47" s="87"/>
       <c r="AL47" s="79"/>
       <c r="AM47" s="79"/>
@@ -8761,7 +8761,7 @@
       <c r="N48" s="38"/>
       <c r="O48" s="38"/>
       <c r="P48" s="39"/>
-      <c r="Q48" s="96" t="s">
+      <c r="Q48" s="88" t="s">
         <v>141</v>
       </c>
       <c r="R48" s="79"/>
@@ -8777,45 +8777,45 @@
       <c r="AB48" s="79"/>
       <c r="AC48" s="79"/>
       <c r="AD48" s="80"/>
-      <c r="AE48" s="88"/>
+      <c r="AE48" s="92"/>
       <c r="AF48" s="79"/>
       <c r="AG48" s="80"/>
-      <c r="AH48" s="91"/>
-      <c r="AI48" s="92"/>
-      <c r="AJ48" s="93"/>
-      <c r="AK48" s="101" t="s">
+      <c r="AH48" s="89"/>
+      <c r="AI48" s="90"/>
+      <c r="AJ48" s="91"/>
+      <c r="AK48" s="113" t="s">
         <v>114</v>
       </c>
-      <c r="AL48" s="96"/>
-      <c r="AM48" s="96"/>
-      <c r="AN48" s="96"/>
-      <c r="AO48" s="96"/>
-      <c r="AP48" s="96"/>
-      <c r="AQ48" s="96"/>
-      <c r="AR48" s="96"/>
-      <c r="AS48" s="96"/>
-      <c r="AT48" s="96"/>
-      <c r="AU48" s="96"/>
-      <c r="AV48" s="96"/>
-      <c r="AW48" s="96"/>
-      <c r="AX48" s="96"/>
-      <c r="AY48" s="96"/>
-      <c r="AZ48" s="96"/>
-      <c r="BA48" s="96"/>
-      <c r="BB48" s="96"/>
-      <c r="BC48" s="96"/>
-      <c r="BD48" s="96"/>
-      <c r="BE48" s="96"/>
-      <c r="BF48" s="96"/>
-      <c r="BG48" s="96"/>
-      <c r="BH48" s="96"/>
-      <c r="BI48" s="96"/>
-      <c r="BJ48" s="96"/>
-      <c r="BK48" s="96"/>
-      <c r="BL48" s="96"/>
-      <c r="BM48" s="96"/>
-      <c r="BN48" s="96"/>
-      <c r="BO48" s="120"/>
+      <c r="AL48" s="88"/>
+      <c r="AM48" s="88"/>
+      <c r="AN48" s="88"/>
+      <c r="AO48" s="88"/>
+      <c r="AP48" s="88"/>
+      <c r="AQ48" s="88"/>
+      <c r="AR48" s="88"/>
+      <c r="AS48" s="88"/>
+      <c r="AT48" s="88"/>
+      <c r="AU48" s="88"/>
+      <c r="AV48" s="88"/>
+      <c r="AW48" s="88"/>
+      <c r="AX48" s="88"/>
+      <c r="AY48" s="88"/>
+      <c r="AZ48" s="88"/>
+      <c r="BA48" s="88"/>
+      <c r="BB48" s="88"/>
+      <c r="BC48" s="88"/>
+      <c r="BD48" s="88"/>
+      <c r="BE48" s="88"/>
+      <c r="BF48" s="88"/>
+      <c r="BG48" s="88"/>
+      <c r="BH48" s="88"/>
+      <c r="BI48" s="88"/>
+      <c r="BJ48" s="88"/>
+      <c r="BK48" s="88"/>
+      <c r="BL48" s="88"/>
+      <c r="BM48" s="88"/>
+      <c r="BN48" s="88"/>
+      <c r="BO48" s="116"/>
       <c r="BP48" s="2"/>
     </row>
     <row r="49" spans="1:68" ht="16.5" outlineLevel="1">
@@ -8837,7 +8837,7 @@
       <c r="N49" s="38"/>
       <c r="O49" s="38"/>
       <c r="P49" s="39"/>
-      <c r="Q49" s="96" t="s">
+      <c r="Q49" s="88" t="s">
         <v>53</v>
       </c>
       <c r="R49" s="79"/>
@@ -8853,12 +8853,12 @@
       <c r="AB49" s="79"/>
       <c r="AC49" s="79"/>
       <c r="AD49" s="80"/>
-      <c r="AE49" s="88"/>
+      <c r="AE49" s="92"/>
       <c r="AF49" s="79"/>
       <c r="AG49" s="80"/>
-      <c r="AH49" s="91"/>
-      <c r="AI49" s="92"/>
-      <c r="AJ49" s="93"/>
+      <c r="AH49" s="89"/>
+      <c r="AI49" s="90"/>
+      <c r="AJ49" s="91"/>
       <c r="AK49" s="87"/>
       <c r="AL49" s="79"/>
       <c r="AM49" s="79"/>
@@ -9107,51 +9107,51 @@
     </row>
     <row r="53" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A53" s="5"/>
-      <c r="B53" s="111" t="s">
+      <c r="B53" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="C53" s="104" t="s">
+      <c r="C53" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="D53" s="105"/>
-      <c r="E53" s="105"/>
-      <c r="F53" s="105"/>
-      <c r="G53" s="105"/>
-      <c r="H53" s="105"/>
-      <c r="I53" s="105"/>
-      <c r="J53" s="105"/>
-      <c r="K53" s="106"/>
-      <c r="L53" s="104" t="s">
+      <c r="D53" s="96"/>
+      <c r="E53" s="96"/>
+      <c r="F53" s="96"/>
+      <c r="G53" s="96"/>
+      <c r="H53" s="96"/>
+      <c r="I53" s="96"/>
+      <c r="J53" s="96"/>
+      <c r="K53" s="123"/>
+      <c r="L53" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="M53" s="105"/>
-      <c r="N53" s="105"/>
-      <c r="O53" s="105"/>
-      <c r="P53" s="105"/>
-      <c r="Q53" s="105"/>
-      <c r="R53" s="105"/>
-      <c r="S53" s="105"/>
-      <c r="T53" s="105"/>
-      <c r="U53" s="105"/>
-      <c r="V53" s="105"/>
-      <c r="W53" s="105"/>
-      <c r="X53" s="105"/>
-      <c r="Y53" s="105"/>
-      <c r="Z53" s="105"/>
-      <c r="AA53" s="105"/>
-      <c r="AB53" s="106"/>
-      <c r="AC53" s="104" t="s">
+      <c r="M53" s="96"/>
+      <c r="N53" s="96"/>
+      <c r="O53" s="96"/>
+      <c r="P53" s="96"/>
+      <c r="Q53" s="96"/>
+      <c r="R53" s="96"/>
+      <c r="S53" s="96"/>
+      <c r="T53" s="96"/>
+      <c r="U53" s="96"/>
+      <c r="V53" s="96"/>
+      <c r="W53" s="96"/>
+      <c r="X53" s="96"/>
+      <c r="Y53" s="96"/>
+      <c r="Z53" s="96"/>
+      <c r="AA53" s="96"/>
+      <c r="AB53" s="123"/>
+      <c r="AC53" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="AD53" s="105"/>
-      <c r="AE53" s="105"/>
-      <c r="AF53" s="105"/>
-      <c r="AG53" s="105"/>
-      <c r="AH53" s="105"/>
-      <c r="AI53" s="105"/>
-      <c r="AJ53" s="105"/>
-      <c r="AK53" s="106"/>
-      <c r="AL53" s="121" t="s">
+      <c r="AD53" s="96"/>
+      <c r="AE53" s="96"/>
+      <c r="AF53" s="96"/>
+      <c r="AG53" s="96"/>
+      <c r="AH53" s="96"/>
+      <c r="AI53" s="96"/>
+      <c r="AJ53" s="96"/>
+      <c r="AK53" s="123"/>
+      <c r="AL53" s="108" t="s">
         <v>12</v>
       </c>
       <c r="AM53" s="79"/>
@@ -9187,43 +9187,43 @@
     </row>
     <row r="54" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A54" s="5"/>
-      <c r="B54" s="109"/>
-      <c r="C54" s="112"/>
-      <c r="D54" s="113"/>
-      <c r="E54" s="113"/>
-      <c r="F54" s="113"/>
-      <c r="G54" s="113"/>
-      <c r="H54" s="113"/>
-      <c r="I54" s="113"/>
-      <c r="J54" s="113"/>
-      <c r="K54" s="114"/>
-      <c r="L54" s="115"/>
-      <c r="M54" s="116"/>
-      <c r="N54" s="116"/>
-      <c r="O54" s="116"/>
-      <c r="P54" s="116"/>
-      <c r="Q54" s="116"/>
-      <c r="R54" s="116"/>
-      <c r="S54" s="116"/>
-      <c r="T54" s="116"/>
-      <c r="U54" s="116"/>
-      <c r="V54" s="116"/>
-      <c r="W54" s="116"/>
-      <c r="X54" s="116"/>
-      <c r="Y54" s="116"/>
-      <c r="Z54" s="116"/>
-      <c r="AA54" s="116"/>
-      <c r="AB54" s="117"/>
-      <c r="AC54" s="107"/>
-      <c r="AD54" s="108"/>
-      <c r="AE54" s="108"/>
-      <c r="AF54" s="108"/>
-      <c r="AG54" s="108"/>
-      <c r="AH54" s="108"/>
-      <c r="AI54" s="108"/>
-      <c r="AJ54" s="108"/>
-      <c r="AK54" s="109"/>
-      <c r="AL54" s="122" t="s">
+      <c r="B54" s="121"/>
+      <c r="C54" s="124"/>
+      <c r="D54" s="125"/>
+      <c r="E54" s="125"/>
+      <c r="F54" s="125"/>
+      <c r="G54" s="125"/>
+      <c r="H54" s="125"/>
+      <c r="I54" s="125"/>
+      <c r="J54" s="125"/>
+      <c r="K54" s="126"/>
+      <c r="L54" s="127"/>
+      <c r="M54" s="128"/>
+      <c r="N54" s="128"/>
+      <c r="O54" s="128"/>
+      <c r="P54" s="128"/>
+      <c r="Q54" s="128"/>
+      <c r="R54" s="128"/>
+      <c r="S54" s="128"/>
+      <c r="T54" s="128"/>
+      <c r="U54" s="128"/>
+      <c r="V54" s="128"/>
+      <c r="W54" s="128"/>
+      <c r="X54" s="128"/>
+      <c r="Y54" s="128"/>
+      <c r="Z54" s="128"/>
+      <c r="AA54" s="128"/>
+      <c r="AB54" s="129"/>
+      <c r="AC54" s="133"/>
+      <c r="AD54" s="134"/>
+      <c r="AE54" s="134"/>
+      <c r="AF54" s="134"/>
+      <c r="AG54" s="134"/>
+      <c r="AH54" s="134"/>
+      <c r="AI54" s="134"/>
+      <c r="AJ54" s="134"/>
+      <c r="AK54" s="121"/>
+      <c r="AL54" s="109" t="s">
         <v>13</v>
       </c>
       <c r="AM54" s="79"/>
@@ -9234,14 +9234,14 @@
       <c r="AR54" s="79"/>
       <c r="AS54" s="79"/>
       <c r="AT54" s="80"/>
-      <c r="AU54" s="122" t="s">
+      <c r="AU54" s="109" t="s">
         <v>14</v>
       </c>
       <c r="AV54" s="79"/>
       <c r="AW54" s="79"/>
       <c r="AX54" s="79"/>
       <c r="AY54" s="80"/>
-      <c r="AZ54" s="122" t="s">
+      <c r="AZ54" s="109" t="s">
         <v>15</v>
       </c>
       <c r="BA54" s="79"/>
@@ -9267,7 +9267,7 @@
         <f ca="1">MAX(B$53:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>1</v>
       </c>
-      <c r="C55" s="88" t="s">
+      <c r="C55" s="92" t="s">
         <v>117</v>
       </c>
       <c r="D55" s="79"/>
@@ -9278,26 +9278,26 @@
       <c r="I55" s="79"/>
       <c r="J55" s="79"/>
       <c r="K55" s="79"/>
-      <c r="L55" s="123" t="s">
+      <c r="L55" s="111" t="s">
         <v>118</v>
       </c>
-      <c r="M55" s="124"/>
-      <c r="N55" s="124"/>
-      <c r="O55" s="124"/>
-      <c r="P55" s="124"/>
-      <c r="Q55" s="124"/>
-      <c r="R55" s="124"/>
-      <c r="S55" s="124"/>
-      <c r="T55" s="124"/>
-      <c r="U55" s="124"/>
-      <c r="V55" s="124"/>
-      <c r="W55" s="124"/>
-      <c r="X55" s="124"/>
-      <c r="Y55" s="124"/>
-      <c r="Z55" s="124"/>
-      <c r="AA55" s="124"/>
-      <c r="AB55" s="124"/>
-      <c r="AC55" s="94"/>
+      <c r="M55" s="104"/>
+      <c r="N55" s="104"/>
+      <c r="O55" s="104"/>
+      <c r="P55" s="104"/>
+      <c r="Q55" s="104"/>
+      <c r="R55" s="104"/>
+      <c r="S55" s="104"/>
+      <c r="T55" s="104"/>
+      <c r="U55" s="104"/>
+      <c r="V55" s="104"/>
+      <c r="W55" s="104"/>
+      <c r="X55" s="104"/>
+      <c r="Y55" s="104"/>
+      <c r="Z55" s="104"/>
+      <c r="AA55" s="104"/>
+      <c r="AB55" s="104"/>
+      <c r="AC55" s="105"/>
       <c r="AD55" s="79"/>
       <c r="AE55" s="79"/>
       <c r="AF55" s="79"/>
@@ -9306,7 +9306,7 @@
       <c r="AI55" s="79"/>
       <c r="AJ55" s="79"/>
       <c r="AK55" s="80"/>
-      <c r="AL55" s="89"/>
+      <c r="AL55" s="110"/>
       <c r="AM55" s="79"/>
       <c r="AN55" s="79"/>
       <c r="AO55" s="79"/>
@@ -9315,12 +9315,12 @@
       <c r="AR55" s="79"/>
       <c r="AS55" s="79"/>
       <c r="AT55" s="80"/>
-      <c r="AU55" s="89"/>
+      <c r="AU55" s="110"/>
       <c r="AV55" s="79"/>
       <c r="AW55" s="79"/>
       <c r="AX55" s="79"/>
       <c r="AY55" s="80"/>
-      <c r="AZ55" s="90"/>
+      <c r="AZ55" s="112"/>
       <c r="BA55" s="79"/>
       <c r="BB55" s="79"/>
       <c r="BC55" s="79"/>
@@ -9344,37 +9344,37 @@
         <f ca="1">MAX(B$53:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>2</v>
       </c>
-      <c r="C56" s="131" t="s">
+      <c r="C56" s="100" t="s">
         <v>119</v>
       </c>
-      <c r="D56" s="132"/>
-      <c r="E56" s="132"/>
-      <c r="F56" s="132"/>
-      <c r="G56" s="132"/>
-      <c r="H56" s="132"/>
-      <c r="I56" s="132"/>
-      <c r="J56" s="132"/>
-      <c r="K56" s="133"/>
-      <c r="L56" s="134" t="s">
+      <c r="D56" s="101"/>
+      <c r="E56" s="101"/>
+      <c r="F56" s="101"/>
+      <c r="G56" s="101"/>
+      <c r="H56" s="101"/>
+      <c r="I56" s="101"/>
+      <c r="J56" s="101"/>
+      <c r="K56" s="102"/>
+      <c r="L56" s="103" t="s">
         <v>120</v>
       </c>
-      <c r="M56" s="124"/>
-      <c r="N56" s="124"/>
-      <c r="O56" s="124"/>
-      <c r="P56" s="124"/>
-      <c r="Q56" s="124"/>
-      <c r="R56" s="124"/>
-      <c r="S56" s="124"/>
-      <c r="T56" s="124"/>
-      <c r="U56" s="124"/>
-      <c r="V56" s="124"/>
-      <c r="W56" s="124"/>
-      <c r="X56" s="124"/>
-      <c r="Y56" s="124"/>
-      <c r="Z56" s="124"/>
-      <c r="AA56" s="124"/>
-      <c r="AB56" s="124"/>
-      <c r="AC56" s="94"/>
+      <c r="M56" s="104"/>
+      <c r="N56" s="104"/>
+      <c r="O56" s="104"/>
+      <c r="P56" s="104"/>
+      <c r="Q56" s="104"/>
+      <c r="R56" s="104"/>
+      <c r="S56" s="104"/>
+      <c r="T56" s="104"/>
+      <c r="U56" s="104"/>
+      <c r="V56" s="104"/>
+      <c r="W56" s="104"/>
+      <c r="X56" s="104"/>
+      <c r="Y56" s="104"/>
+      <c r="Z56" s="104"/>
+      <c r="AA56" s="104"/>
+      <c r="AB56" s="104"/>
+      <c r="AC56" s="105"/>
       <c r="AD56" s="79"/>
       <c r="AE56" s="79"/>
       <c r="AF56" s="79"/>
@@ -9383,7 +9383,7 @@
       <c r="AI56" s="79"/>
       <c r="AJ56" s="79"/>
       <c r="AK56" s="80"/>
-      <c r="AL56" s="89"/>
+      <c r="AL56" s="110"/>
       <c r="AM56" s="79"/>
       <c r="AN56" s="79"/>
       <c r="AO56" s="79"/>
@@ -9392,12 +9392,12 @@
       <c r="AR56" s="79"/>
       <c r="AS56" s="79"/>
       <c r="AT56" s="80"/>
-      <c r="AU56" s="89"/>
+      <c r="AU56" s="110"/>
       <c r="AV56" s="79"/>
       <c r="AW56" s="79"/>
       <c r="AX56" s="79"/>
       <c r="AY56" s="80"/>
-      <c r="AZ56" s="90"/>
+      <c r="AZ56" s="112"/>
       <c r="BA56" s="79"/>
       <c r="BB56" s="79"/>
       <c r="BC56" s="79"/>
@@ -9497,7 +9497,7 @@
         <v>4</v>
       </c>
       <c r="C58" s="56"/>
-      <c r="D58" s="88" t="s">
+      <c r="D58" s="92" t="s">
         <v>132</v>
       </c>
       <c r="E58" s="79"/>
@@ -9507,26 +9507,26 @@
       <c r="I58" s="79"/>
       <c r="J58" s="79"/>
       <c r="K58" s="80"/>
-      <c r="L58" s="129" t="s">
+      <c r="L58" s="98" t="s">
         <v>131</v>
       </c>
-      <c r="M58" s="130"/>
-      <c r="N58" s="130"/>
-      <c r="O58" s="130"/>
-      <c r="P58" s="130"/>
-      <c r="Q58" s="130"/>
-      <c r="R58" s="130"/>
-      <c r="S58" s="130"/>
-      <c r="T58" s="130"/>
-      <c r="U58" s="130"/>
-      <c r="V58" s="130"/>
-      <c r="W58" s="130"/>
-      <c r="X58" s="130"/>
-      <c r="Y58" s="130"/>
-      <c r="Z58" s="130"/>
-      <c r="AA58" s="130"/>
-      <c r="AB58" s="130"/>
-      <c r="AC58" s="88"/>
+      <c r="M58" s="99"/>
+      <c r="N58" s="99"/>
+      <c r="O58" s="99"/>
+      <c r="P58" s="99"/>
+      <c r="Q58" s="99"/>
+      <c r="R58" s="99"/>
+      <c r="S58" s="99"/>
+      <c r="T58" s="99"/>
+      <c r="U58" s="99"/>
+      <c r="V58" s="99"/>
+      <c r="W58" s="99"/>
+      <c r="X58" s="99"/>
+      <c r="Y58" s="99"/>
+      <c r="Z58" s="99"/>
+      <c r="AA58" s="99"/>
+      <c r="AB58" s="99"/>
+      <c r="AC58" s="92"/>
       <c r="AD58" s="79"/>
       <c r="AE58" s="79"/>
       <c r="AF58" s="79"/>
@@ -9535,7 +9535,7 @@
       <c r="AI58" s="79"/>
       <c r="AJ58" s="79"/>
       <c r="AK58" s="80"/>
-      <c r="AL58" s="89"/>
+      <c r="AL58" s="110"/>
       <c r="AM58" s="79"/>
       <c r="AN58" s="79"/>
       <c r="AO58" s="79"/>
@@ -9544,12 +9544,12 @@
       <c r="AR58" s="79"/>
       <c r="AS58" s="79"/>
       <c r="AT58" s="80"/>
-      <c r="AU58" s="89"/>
+      <c r="AU58" s="110"/>
       <c r="AV58" s="79"/>
       <c r="AW58" s="79"/>
       <c r="AX58" s="79"/>
       <c r="AY58" s="80"/>
-      <c r="AZ58" s="90"/>
+      <c r="AZ58" s="112"/>
       <c r="BA58" s="79"/>
       <c r="BB58" s="79"/>
       <c r="BC58" s="79"/>
@@ -9646,37 +9646,37 @@
         <f ca="1">MAX(B$53:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>6</v>
       </c>
-      <c r="C60" s="135" t="s">
+      <c r="C60" s="106" t="s">
         <v>71</v>
       </c>
-      <c r="D60" s="94"/>
-      <c r="E60" s="94"/>
-      <c r="F60" s="94"/>
-      <c r="G60" s="94"/>
-      <c r="H60" s="94"/>
-      <c r="I60" s="94"/>
-      <c r="J60" s="94"/>
-      <c r="K60" s="95"/>
-      <c r="L60" s="88" t="s">
+      <c r="D60" s="105"/>
+      <c r="E60" s="105"/>
+      <c r="F60" s="105"/>
+      <c r="G60" s="105"/>
+      <c r="H60" s="105"/>
+      <c r="I60" s="105"/>
+      <c r="J60" s="105"/>
+      <c r="K60" s="107"/>
+      <c r="L60" s="92" t="s">
         <v>72</v>
       </c>
-      <c r="M60" s="94"/>
-      <c r="N60" s="94"/>
-      <c r="O60" s="94"/>
-      <c r="P60" s="94"/>
-      <c r="Q60" s="94"/>
-      <c r="R60" s="94"/>
-      <c r="S60" s="94"/>
-      <c r="T60" s="94"/>
-      <c r="U60" s="94"/>
-      <c r="V60" s="94"/>
-      <c r="W60" s="94"/>
-      <c r="X60" s="94"/>
-      <c r="Y60" s="94"/>
-      <c r="Z60" s="94"/>
-      <c r="AA60" s="94"/>
-      <c r="AB60" s="95"/>
-      <c r="AC60" s="94"/>
+      <c r="M60" s="105"/>
+      <c r="N60" s="105"/>
+      <c r="O60" s="105"/>
+      <c r="P60" s="105"/>
+      <c r="Q60" s="105"/>
+      <c r="R60" s="105"/>
+      <c r="S60" s="105"/>
+      <c r="T60" s="105"/>
+      <c r="U60" s="105"/>
+      <c r="V60" s="105"/>
+      <c r="W60" s="105"/>
+      <c r="X60" s="105"/>
+      <c r="Y60" s="105"/>
+      <c r="Z60" s="105"/>
+      <c r="AA60" s="105"/>
+      <c r="AB60" s="107"/>
+      <c r="AC60" s="105"/>
       <c r="AD60" s="79"/>
       <c r="AE60" s="79"/>
       <c r="AF60" s="79"/>
@@ -9685,7 +9685,7 @@
       <c r="AI60" s="79"/>
       <c r="AJ60" s="79"/>
       <c r="AK60" s="80"/>
-      <c r="AL60" s="89"/>
+      <c r="AL60" s="110"/>
       <c r="AM60" s="79"/>
       <c r="AN60" s="79"/>
       <c r="AO60" s="79"/>
@@ -9694,12 +9694,12 @@
       <c r="AR60" s="79"/>
       <c r="AS60" s="79"/>
       <c r="AT60" s="80"/>
-      <c r="AU60" s="89"/>
+      <c r="AU60" s="110"/>
       <c r="AV60" s="79"/>
       <c r="AW60" s="79"/>
       <c r="AX60" s="79"/>
       <c r="AY60" s="80"/>
-      <c r="AZ60" s="90"/>
+      <c r="AZ60" s="112"/>
       <c r="BA60" s="79"/>
       <c r="BB60" s="79"/>
       <c r="BC60" s="79"/>
@@ -11944,22 +11944,22 @@
     <row r="92" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A92" s="2"/>
       <c r="B92" s="59"/>
-      <c r="C92" s="125" t="s">
+      <c r="C92" s="93" t="s">
         <v>133</v>
       </c>
-      <c r="D92" s="126"/>
-      <c r="E92" s="126"/>
-      <c r="F92" s="126"/>
-      <c r="G92" s="126"/>
-      <c r="H92" s="126"/>
-      <c r="I92" s="126"/>
-      <c r="J92" s="126"/>
-      <c r="K92" s="126"/>
-      <c r="L92" s="126"/>
-      <c r="M92" s="126"/>
-      <c r="N92" s="126"/>
-      <c r="O92" s="126"/>
-      <c r="P92" s="126"/>
+      <c r="D92" s="94"/>
+      <c r="E92" s="94"/>
+      <c r="F92" s="94"/>
+      <c r="G92" s="94"/>
+      <c r="H92" s="94"/>
+      <c r="I92" s="94"/>
+      <c r="J92" s="94"/>
+      <c r="K92" s="94"/>
+      <c r="L92" s="94"/>
+      <c r="M92" s="94"/>
+      <c r="N92" s="94"/>
+      <c r="O92" s="94"/>
+      <c r="P92" s="94"/>
       <c r="Q92" s="59"/>
       <c r="R92" s="59"/>
       <c r="S92" s="59"/>
@@ -12016,11 +12016,11 @@
     <row r="93" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A93" s="2"/>
       <c r="B93" s="59"/>
-      <c r="C93" s="127" t="s">
+      <c r="C93" s="95" t="s">
         <v>134</v>
       </c>
-      <c r="D93" s="105"/>
-      <c r="E93" s="105"/>
+      <c r="D93" s="96"/>
+      <c r="E93" s="96"/>
       <c r="F93" s="60"/>
       <c r="G93" s="60"/>
       <c r="H93" s="60"/>
@@ -12089,7 +12089,7 @@
       <c r="A94" s="2"/>
       <c r="B94" s="59"/>
       <c r="C94" s="62"/>
-      <c r="D94" s="128" t="s">
+      <c r="D94" s="97" t="s">
         <v>135</v>
       </c>
       <c r="E94" s="79"/>
@@ -12160,10 +12160,10 @@
     <row r="95" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A95" s="2"/>
       <c r="B95" s="59"/>
-      <c r="C95" s="127" t="s">
+      <c r="C95" s="95" t="s">
         <v>136</v>
       </c>
-      <c r="D95" s="105"/>
+      <c r="D95" s="96"/>
       <c r="E95" s="63"/>
       <c r="F95" s="63"/>
       <c r="G95" s="63"/>
@@ -12233,7 +12233,7 @@
       <c r="A96" s="2"/>
       <c r="B96" s="59"/>
       <c r="C96" s="62"/>
-      <c r="D96" s="128" t="s">
+      <c r="D96" s="97" t="s">
         <v>138</v>
       </c>
       <c r="E96" s="79"/>
@@ -12863,41 +12863,180 @@
     </row>
   </sheetData>
   <mergeCells count="233">
-    <mergeCell ref="Q35:W35"/>
-    <mergeCell ref="Q42:W42"/>
-    <mergeCell ref="Q43:W43"/>
-    <mergeCell ref="Q44:W44"/>
-    <mergeCell ref="Q45:W45"/>
-    <mergeCell ref="Q46:W46"/>
-    <mergeCell ref="AH47:AJ47"/>
-    <mergeCell ref="AH48:AJ48"/>
-    <mergeCell ref="AE34:AG34"/>
-    <mergeCell ref="AE35:AG35"/>
-    <mergeCell ref="AE37:AG37"/>
-    <mergeCell ref="AE39:AG39"/>
-    <mergeCell ref="AE36:AG36"/>
-    <mergeCell ref="AH36:AJ36"/>
-    <mergeCell ref="X34:AD34"/>
-    <mergeCell ref="D58:K58"/>
-    <mergeCell ref="C92:P92"/>
-    <mergeCell ref="C93:E93"/>
-    <mergeCell ref="D94:AJ94"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="D96:AJ96"/>
-    <mergeCell ref="Q39:W39"/>
-    <mergeCell ref="Q40:W40"/>
-    <mergeCell ref="Q41:W41"/>
-    <mergeCell ref="L58:AB58"/>
-    <mergeCell ref="AC58:AK58"/>
-    <mergeCell ref="C55:K55"/>
-    <mergeCell ref="C56:K56"/>
-    <mergeCell ref="L56:AB56"/>
-    <mergeCell ref="AC56:AK56"/>
-    <mergeCell ref="AE48:AG48"/>
-    <mergeCell ref="Q48:W48"/>
-    <mergeCell ref="C60:K60"/>
-    <mergeCell ref="L60:AB60"/>
-    <mergeCell ref="AC60:AK60"/>
+    <mergeCell ref="Q21:W21"/>
+    <mergeCell ref="X21:AD21"/>
+    <mergeCell ref="AE21:AG21"/>
+    <mergeCell ref="X37:AD37"/>
+    <mergeCell ref="AU55:AY55"/>
+    <mergeCell ref="AZ55:BO55"/>
+    <mergeCell ref="AH21:AJ21"/>
+    <mergeCell ref="AE19:AG19"/>
+    <mergeCell ref="AH19:AJ19"/>
+    <mergeCell ref="AK19:BO19"/>
+    <mergeCell ref="X32:AD32"/>
+    <mergeCell ref="AE32:AG32"/>
+    <mergeCell ref="AH32:AJ32"/>
+    <mergeCell ref="AK32:BO32"/>
+    <mergeCell ref="Q29:W29"/>
+    <mergeCell ref="Q30:W30"/>
+    <mergeCell ref="AK24:BO24"/>
+    <mergeCell ref="X29:AD29"/>
+    <mergeCell ref="X30:AD30"/>
+    <mergeCell ref="AE29:AG29"/>
+    <mergeCell ref="AE30:AG30"/>
+    <mergeCell ref="AK25:BO25"/>
+    <mergeCell ref="AK26:BO26"/>
+    <mergeCell ref="AK28:BO28"/>
+    <mergeCell ref="D20:P20"/>
+    <mergeCell ref="Q20:W20"/>
+    <mergeCell ref="X20:AD20"/>
+    <mergeCell ref="AE20:AG20"/>
+    <mergeCell ref="AH20:AJ20"/>
+    <mergeCell ref="AK20:BO20"/>
+    <mergeCell ref="Q19:W19"/>
+    <mergeCell ref="X19:AD19"/>
+    <mergeCell ref="AK49:BO49"/>
+    <mergeCell ref="Q49:W49"/>
+    <mergeCell ref="X49:AD49"/>
+    <mergeCell ref="AE49:AG49"/>
+    <mergeCell ref="AH49:AJ49"/>
+    <mergeCell ref="AK21:BO21"/>
+    <mergeCell ref="Q38:W38"/>
+    <mergeCell ref="X38:AD38"/>
+    <mergeCell ref="AE38:AG38"/>
+    <mergeCell ref="AH38:AJ38"/>
+    <mergeCell ref="Q25:W25"/>
+    <mergeCell ref="Q26:W26"/>
+    <mergeCell ref="Q27:W27"/>
+    <mergeCell ref="D24:P24"/>
+    <mergeCell ref="Q24:W24"/>
+    <mergeCell ref="AK22:BO22"/>
+    <mergeCell ref="AE17:AG17"/>
+    <mergeCell ref="AK17:BO17"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="I12:BO12"/>
+    <mergeCell ref="C18:P18"/>
+    <mergeCell ref="Q18:W18"/>
+    <mergeCell ref="X18:AD18"/>
+    <mergeCell ref="AE18:AG18"/>
+    <mergeCell ref="AH18:AJ18"/>
+    <mergeCell ref="AK18:BO18"/>
+    <mergeCell ref="C15:P15"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="I7:BO7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="I8:BO8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="I9:BO9"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="I10:BO10"/>
+    <mergeCell ref="AC53:AK54"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="C17:P17"/>
+    <mergeCell ref="AK14:BO14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="Q14:W14"/>
+    <mergeCell ref="X14:AD14"/>
+    <mergeCell ref="AK15:BO15"/>
+    <mergeCell ref="C14:P14"/>
+    <mergeCell ref="Q15:W15"/>
+    <mergeCell ref="X15:AD15"/>
+    <mergeCell ref="AE15:AG15"/>
+    <mergeCell ref="AH15:AJ15"/>
+    <mergeCell ref="AE14:AG14"/>
+    <mergeCell ref="Q17:W17"/>
+    <mergeCell ref="X17:AD17"/>
+    <mergeCell ref="AK36:BO36"/>
+    <mergeCell ref="Q37:W37"/>
+    <mergeCell ref="AE41:AG41"/>
+    <mergeCell ref="AE42:AG42"/>
+    <mergeCell ref="AE43:AG43"/>
+    <mergeCell ref="AE44:AG44"/>
+    <mergeCell ref="AE45:AG45"/>
+    <mergeCell ref="AE46:AG46"/>
+    <mergeCell ref="AE47:AG47"/>
+    <mergeCell ref="Q47:W47"/>
+    <mergeCell ref="AE23:AG23"/>
+    <mergeCell ref="AH23:AJ23"/>
+    <mergeCell ref="AK23:BO23"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:K54"/>
+    <mergeCell ref="L53:AB54"/>
+    <mergeCell ref="D33:P33"/>
+    <mergeCell ref="Q33:W33"/>
+    <mergeCell ref="X33:AD33"/>
+    <mergeCell ref="AE33:AG33"/>
+    <mergeCell ref="AH33:AJ33"/>
+    <mergeCell ref="AK33:BO33"/>
+    <mergeCell ref="AK27:BO27"/>
+    <mergeCell ref="D31:P31"/>
+    <mergeCell ref="Q31:W31"/>
+    <mergeCell ref="X31:AD31"/>
+    <mergeCell ref="AE31:AG31"/>
+    <mergeCell ref="AH31:AJ31"/>
+    <mergeCell ref="AK31:BO31"/>
+    <mergeCell ref="D32:P32"/>
+    <mergeCell ref="Q32:W32"/>
+    <mergeCell ref="AK38:BO38"/>
+    <mergeCell ref="Q36:W36"/>
+    <mergeCell ref="X36:AD36"/>
+    <mergeCell ref="D22:P22"/>
+    <mergeCell ref="Q22:W22"/>
+    <mergeCell ref="X22:AD22"/>
+    <mergeCell ref="AE22:AG22"/>
+    <mergeCell ref="AH22:AJ22"/>
+    <mergeCell ref="Q28:W28"/>
+    <mergeCell ref="X27:AD27"/>
+    <mergeCell ref="AE27:AG27"/>
+    <mergeCell ref="AH27:AJ27"/>
+    <mergeCell ref="X24:AD24"/>
+    <mergeCell ref="AE24:AG24"/>
+    <mergeCell ref="AH24:AJ24"/>
+    <mergeCell ref="X25:AD25"/>
+    <mergeCell ref="X26:AD26"/>
+    <mergeCell ref="X28:AD28"/>
+    <mergeCell ref="AE25:AG25"/>
+    <mergeCell ref="AE26:AG26"/>
+    <mergeCell ref="AE28:AG28"/>
+    <mergeCell ref="AH25:AJ25"/>
+    <mergeCell ref="AH26:AJ26"/>
+    <mergeCell ref="AH28:AJ28"/>
+    <mergeCell ref="D23:P23"/>
+    <mergeCell ref="Q23:W23"/>
+    <mergeCell ref="X23:AD23"/>
+    <mergeCell ref="AK29:BO29"/>
+    <mergeCell ref="AK30:BO30"/>
+    <mergeCell ref="X46:AD46"/>
+    <mergeCell ref="X47:AD47"/>
+    <mergeCell ref="X48:AD48"/>
+    <mergeCell ref="AK42:BO42"/>
+    <mergeCell ref="AK44:BO44"/>
+    <mergeCell ref="AK46:BO46"/>
+    <mergeCell ref="AK48:BO48"/>
+    <mergeCell ref="AK34:BO34"/>
+    <mergeCell ref="AH29:AJ29"/>
+    <mergeCell ref="AH30:AJ30"/>
+    <mergeCell ref="AH34:AJ34"/>
+    <mergeCell ref="AH35:AJ35"/>
+    <mergeCell ref="AH37:AJ37"/>
+    <mergeCell ref="AH39:AJ39"/>
+    <mergeCell ref="AH40:AJ40"/>
+    <mergeCell ref="AH41:AJ41"/>
+    <mergeCell ref="AH42:AJ42"/>
+    <mergeCell ref="AH43:AJ43"/>
+    <mergeCell ref="AH44:AJ44"/>
+    <mergeCell ref="AH45:AJ45"/>
+    <mergeCell ref="AH46:AJ46"/>
+    <mergeCell ref="AE40:AG40"/>
+    <mergeCell ref="AL60:AT60"/>
+    <mergeCell ref="AU60:AY60"/>
+    <mergeCell ref="AZ60:BO60"/>
+    <mergeCell ref="AL58:AT58"/>
+    <mergeCell ref="AU58:AY58"/>
+    <mergeCell ref="AZ58:BO58"/>
+    <mergeCell ref="AL56:AT56"/>
+    <mergeCell ref="AU56:AY56"/>
+    <mergeCell ref="AZ56:BO56"/>
     <mergeCell ref="AL53:BO53"/>
     <mergeCell ref="AL54:AT54"/>
     <mergeCell ref="AU54:AY54"/>
@@ -12922,180 +13061,41 @@
     <mergeCell ref="AK47:BO47"/>
     <mergeCell ref="L55:AB55"/>
     <mergeCell ref="AC55:AK55"/>
-    <mergeCell ref="AL60:AT60"/>
-    <mergeCell ref="AU60:AY60"/>
-    <mergeCell ref="AZ60:BO60"/>
-    <mergeCell ref="AL58:AT58"/>
-    <mergeCell ref="AU58:AY58"/>
-    <mergeCell ref="AZ58:BO58"/>
-    <mergeCell ref="AL56:AT56"/>
-    <mergeCell ref="AU56:AY56"/>
-    <mergeCell ref="AZ56:BO56"/>
-    <mergeCell ref="AK29:BO29"/>
-    <mergeCell ref="AK30:BO30"/>
-    <mergeCell ref="X46:AD46"/>
-    <mergeCell ref="X47:AD47"/>
-    <mergeCell ref="X48:AD48"/>
-    <mergeCell ref="AK42:BO42"/>
-    <mergeCell ref="AK44:BO44"/>
-    <mergeCell ref="AK46:BO46"/>
-    <mergeCell ref="AK48:BO48"/>
-    <mergeCell ref="AK34:BO34"/>
-    <mergeCell ref="AH29:AJ29"/>
-    <mergeCell ref="AH30:AJ30"/>
-    <mergeCell ref="AH34:AJ34"/>
-    <mergeCell ref="AH35:AJ35"/>
-    <mergeCell ref="AH37:AJ37"/>
-    <mergeCell ref="AH39:AJ39"/>
-    <mergeCell ref="AH40:AJ40"/>
-    <mergeCell ref="AH41:AJ41"/>
-    <mergeCell ref="AH42:AJ42"/>
-    <mergeCell ref="AH43:AJ43"/>
-    <mergeCell ref="AH44:AJ44"/>
-    <mergeCell ref="AH45:AJ45"/>
-    <mergeCell ref="AH46:AJ46"/>
-    <mergeCell ref="AE40:AG40"/>
-    <mergeCell ref="D22:P22"/>
-    <mergeCell ref="Q22:W22"/>
-    <mergeCell ref="X22:AD22"/>
-    <mergeCell ref="AE22:AG22"/>
-    <mergeCell ref="AH22:AJ22"/>
-    <mergeCell ref="Q28:W28"/>
-    <mergeCell ref="X27:AD27"/>
-    <mergeCell ref="AE27:AG27"/>
-    <mergeCell ref="AH27:AJ27"/>
-    <mergeCell ref="X24:AD24"/>
-    <mergeCell ref="AE24:AG24"/>
-    <mergeCell ref="AH24:AJ24"/>
-    <mergeCell ref="X25:AD25"/>
-    <mergeCell ref="X26:AD26"/>
-    <mergeCell ref="X28:AD28"/>
-    <mergeCell ref="AE25:AG25"/>
-    <mergeCell ref="AE26:AG26"/>
-    <mergeCell ref="AE28:AG28"/>
-    <mergeCell ref="AH25:AJ25"/>
-    <mergeCell ref="AH26:AJ26"/>
-    <mergeCell ref="AH28:AJ28"/>
-    <mergeCell ref="D23:P23"/>
-    <mergeCell ref="Q23:W23"/>
-    <mergeCell ref="X23:AD23"/>
-    <mergeCell ref="AE23:AG23"/>
-    <mergeCell ref="AH23:AJ23"/>
-    <mergeCell ref="AK23:BO23"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:K54"/>
-    <mergeCell ref="L53:AB54"/>
-    <mergeCell ref="D33:P33"/>
-    <mergeCell ref="Q33:W33"/>
-    <mergeCell ref="X33:AD33"/>
-    <mergeCell ref="AE33:AG33"/>
-    <mergeCell ref="AH33:AJ33"/>
-    <mergeCell ref="AK33:BO33"/>
-    <mergeCell ref="AK27:BO27"/>
-    <mergeCell ref="D31:P31"/>
-    <mergeCell ref="Q31:W31"/>
-    <mergeCell ref="X31:AD31"/>
-    <mergeCell ref="AE31:AG31"/>
-    <mergeCell ref="AH31:AJ31"/>
-    <mergeCell ref="AK31:BO31"/>
-    <mergeCell ref="D32:P32"/>
-    <mergeCell ref="Q32:W32"/>
-    <mergeCell ref="AK38:BO38"/>
-    <mergeCell ref="Q36:W36"/>
-    <mergeCell ref="X36:AD36"/>
-    <mergeCell ref="AK36:BO36"/>
-    <mergeCell ref="Q37:W37"/>
-    <mergeCell ref="AE41:AG41"/>
-    <mergeCell ref="AE42:AG42"/>
-    <mergeCell ref="AE43:AG43"/>
-    <mergeCell ref="AE44:AG44"/>
-    <mergeCell ref="AE45:AG45"/>
-    <mergeCell ref="AE46:AG46"/>
-    <mergeCell ref="AE47:AG47"/>
-    <mergeCell ref="Q47:W47"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="I7:BO7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="I8:BO8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="I9:BO9"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="I10:BO10"/>
-    <mergeCell ref="AC53:AK54"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="C17:P17"/>
-    <mergeCell ref="AK14:BO14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="Q14:W14"/>
-    <mergeCell ref="X14:AD14"/>
-    <mergeCell ref="AK15:BO15"/>
-    <mergeCell ref="C14:P14"/>
-    <mergeCell ref="Q15:W15"/>
-    <mergeCell ref="X15:AD15"/>
-    <mergeCell ref="AE15:AG15"/>
-    <mergeCell ref="AH15:AJ15"/>
-    <mergeCell ref="AE14:AG14"/>
-    <mergeCell ref="Q17:W17"/>
-    <mergeCell ref="X17:AD17"/>
-    <mergeCell ref="AE17:AG17"/>
-    <mergeCell ref="AK17:BO17"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="I12:BO12"/>
-    <mergeCell ref="C18:P18"/>
-    <mergeCell ref="Q18:W18"/>
-    <mergeCell ref="X18:AD18"/>
-    <mergeCell ref="AE18:AG18"/>
-    <mergeCell ref="AH18:AJ18"/>
-    <mergeCell ref="AK18:BO18"/>
-    <mergeCell ref="C15:P15"/>
-    <mergeCell ref="D20:P20"/>
-    <mergeCell ref="Q20:W20"/>
-    <mergeCell ref="X20:AD20"/>
-    <mergeCell ref="AE20:AG20"/>
-    <mergeCell ref="AH20:AJ20"/>
-    <mergeCell ref="AK20:BO20"/>
-    <mergeCell ref="Q19:W19"/>
-    <mergeCell ref="X19:AD19"/>
-    <mergeCell ref="AK49:BO49"/>
-    <mergeCell ref="Q49:W49"/>
-    <mergeCell ref="X49:AD49"/>
-    <mergeCell ref="AE49:AG49"/>
-    <mergeCell ref="AH49:AJ49"/>
-    <mergeCell ref="AK21:BO21"/>
-    <mergeCell ref="Q38:W38"/>
-    <mergeCell ref="X38:AD38"/>
-    <mergeCell ref="AE38:AG38"/>
-    <mergeCell ref="AH38:AJ38"/>
-    <mergeCell ref="Q25:W25"/>
-    <mergeCell ref="Q26:W26"/>
-    <mergeCell ref="Q27:W27"/>
-    <mergeCell ref="D24:P24"/>
-    <mergeCell ref="Q24:W24"/>
-    <mergeCell ref="AK22:BO22"/>
-    <mergeCell ref="Q21:W21"/>
-    <mergeCell ref="X21:AD21"/>
-    <mergeCell ref="AE21:AG21"/>
-    <mergeCell ref="X37:AD37"/>
-    <mergeCell ref="AU55:AY55"/>
-    <mergeCell ref="AZ55:BO55"/>
-    <mergeCell ref="AH21:AJ21"/>
-    <mergeCell ref="AE19:AG19"/>
-    <mergeCell ref="AH19:AJ19"/>
-    <mergeCell ref="AK19:BO19"/>
-    <mergeCell ref="X32:AD32"/>
-    <mergeCell ref="AE32:AG32"/>
-    <mergeCell ref="AH32:AJ32"/>
-    <mergeCell ref="AK32:BO32"/>
-    <mergeCell ref="Q29:W29"/>
-    <mergeCell ref="Q30:W30"/>
-    <mergeCell ref="AK24:BO24"/>
-    <mergeCell ref="X29:AD29"/>
-    <mergeCell ref="X30:AD30"/>
-    <mergeCell ref="AE29:AG29"/>
-    <mergeCell ref="AE30:AG30"/>
-    <mergeCell ref="AK25:BO25"/>
-    <mergeCell ref="AK26:BO26"/>
-    <mergeCell ref="AK28:BO28"/>
+    <mergeCell ref="D58:K58"/>
+    <mergeCell ref="C92:P92"/>
+    <mergeCell ref="C93:E93"/>
+    <mergeCell ref="D94:AJ94"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="D96:AJ96"/>
+    <mergeCell ref="Q39:W39"/>
+    <mergeCell ref="Q40:W40"/>
+    <mergeCell ref="Q41:W41"/>
+    <mergeCell ref="L58:AB58"/>
+    <mergeCell ref="AC58:AK58"/>
+    <mergeCell ref="C55:K55"/>
+    <mergeCell ref="C56:K56"/>
+    <mergeCell ref="L56:AB56"/>
+    <mergeCell ref="AC56:AK56"/>
+    <mergeCell ref="AE48:AG48"/>
+    <mergeCell ref="Q48:W48"/>
+    <mergeCell ref="C60:K60"/>
+    <mergeCell ref="L60:AB60"/>
+    <mergeCell ref="AC60:AK60"/>
+    <mergeCell ref="Q35:W35"/>
+    <mergeCell ref="Q42:W42"/>
+    <mergeCell ref="Q43:W43"/>
+    <mergeCell ref="Q44:W44"/>
+    <mergeCell ref="Q45:W45"/>
+    <mergeCell ref="Q46:W46"/>
+    <mergeCell ref="AH47:AJ47"/>
+    <mergeCell ref="AH48:AJ48"/>
+    <mergeCell ref="AE34:AG34"/>
+    <mergeCell ref="AE35:AG35"/>
+    <mergeCell ref="AE37:AG37"/>
+    <mergeCell ref="AE39:AG39"/>
+    <mergeCell ref="AE36:AG36"/>
+    <mergeCell ref="AH36:AJ36"/>
+    <mergeCell ref="X34:AD34"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <dataValidations count="1">
@@ -13145,7 +13145,7 @@
   </sheetPr>
   <dimension ref="A1:BP61"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A28" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
   <cols>
@@ -13583,7 +13583,7 @@
     <row r="7" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A7" s="2"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="100" t="s">
+      <c r="C7" s="130" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="79"/>
@@ -13591,7 +13591,7 @@
       <c r="F7" s="79"/>
       <c r="G7" s="79"/>
       <c r="H7" s="80"/>
-      <c r="I7" s="88" t="s">
+      <c r="I7" s="92" t="s">
         <v>48</v>
       </c>
       <c r="J7" s="79"/>
@@ -13657,7 +13657,7 @@
     <row r="8" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A8" s="2"/>
       <c r="B8" s="13"/>
-      <c r="C8" s="100" t="s">
+      <c r="C8" s="130" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="79"/>
@@ -13665,7 +13665,7 @@
       <c r="F8" s="79"/>
       <c r="G8" s="79"/>
       <c r="H8" s="80"/>
-      <c r="I8" s="88" t="s">
+      <c r="I8" s="92" t="s">
         <v>24</v>
       </c>
       <c r="J8" s="79"/>
@@ -13731,7 +13731,7 @@
     <row r="9" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A9" s="2"/>
       <c r="B9" s="13"/>
-      <c r="C9" s="100" t="s">
+      <c r="C9" s="130" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="79"/>
@@ -13739,7 +13739,7 @@
       <c r="F9" s="79"/>
       <c r="G9" s="79"/>
       <c r="H9" s="80"/>
-      <c r="I9" s="88" t="s">
+      <c r="I9" s="92" t="s">
         <v>26</v>
       </c>
       <c r="J9" s="79"/>
@@ -13805,75 +13805,75 @@
     <row r="10" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A10" s="32"/>
       <c r="B10" s="33"/>
-      <c r="C10" s="100" t="s">
-        <v>193</v>
+      <c r="C10" s="130" t="s">
+        <v>192</v>
       </c>
-      <c r="D10" s="102"/>
-      <c r="E10" s="102"/>
-      <c r="F10" s="102"/>
-      <c r="G10" s="102"/>
-      <c r="H10" s="102"/>
-      <c r="I10" s="103" t="s">
+      <c r="D10" s="131"/>
+      <c r="E10" s="131"/>
+      <c r="F10" s="131"/>
+      <c r="G10" s="131"/>
+      <c r="H10" s="131"/>
+      <c r="I10" s="132" t="s">
         <v>139</v>
       </c>
-      <c r="J10" s="103"/>
-      <c r="K10" s="103"/>
-      <c r="L10" s="103"/>
-      <c r="M10" s="103"/>
-      <c r="N10" s="103"/>
-      <c r="O10" s="103"/>
-      <c r="P10" s="103"/>
-      <c r="Q10" s="103"/>
-      <c r="R10" s="103"/>
-      <c r="S10" s="103"/>
-      <c r="T10" s="103"/>
-      <c r="U10" s="103"/>
-      <c r="V10" s="103"/>
-      <c r="W10" s="103"/>
-      <c r="X10" s="103"/>
-      <c r="Y10" s="103"/>
-      <c r="Z10" s="103"/>
-      <c r="AA10" s="103"/>
-      <c r="AB10" s="103"/>
-      <c r="AC10" s="103"/>
-      <c r="AD10" s="103"/>
-      <c r="AE10" s="103"/>
-      <c r="AF10" s="103"/>
-      <c r="AG10" s="103"/>
-      <c r="AH10" s="103"/>
-      <c r="AI10" s="103"/>
-      <c r="AJ10" s="103"/>
-      <c r="AK10" s="103"/>
-      <c r="AL10" s="103"/>
-      <c r="AM10" s="103"/>
-      <c r="AN10" s="103"/>
-      <c r="AO10" s="103"/>
-      <c r="AP10" s="103"/>
-      <c r="AQ10" s="103"/>
-      <c r="AR10" s="103"/>
-      <c r="AS10" s="103"/>
-      <c r="AT10" s="103"/>
-      <c r="AU10" s="103"/>
-      <c r="AV10" s="103"/>
-      <c r="AW10" s="103"/>
-      <c r="AX10" s="103"/>
-      <c r="AY10" s="103"/>
-      <c r="AZ10" s="103"/>
-      <c r="BA10" s="103"/>
-      <c r="BB10" s="103"/>
-      <c r="BC10" s="103"/>
-      <c r="BD10" s="103"/>
-      <c r="BE10" s="103"/>
-      <c r="BF10" s="103"/>
-      <c r="BG10" s="103"/>
-      <c r="BH10" s="103"/>
-      <c r="BI10" s="103"/>
-      <c r="BJ10" s="103"/>
-      <c r="BK10" s="103"/>
-      <c r="BL10" s="103"/>
-      <c r="BM10" s="103"/>
-      <c r="BN10" s="103"/>
-      <c r="BO10" s="103"/>
+      <c r="J10" s="132"/>
+      <c r="K10" s="132"/>
+      <c r="L10" s="132"/>
+      <c r="M10" s="132"/>
+      <c r="N10" s="132"/>
+      <c r="O10" s="132"/>
+      <c r="P10" s="132"/>
+      <c r="Q10" s="132"/>
+      <c r="R10" s="132"/>
+      <c r="S10" s="132"/>
+      <c r="T10" s="132"/>
+      <c r="U10" s="132"/>
+      <c r="V10" s="132"/>
+      <c r="W10" s="132"/>
+      <c r="X10" s="132"/>
+      <c r="Y10" s="132"/>
+      <c r="Z10" s="132"/>
+      <c r="AA10" s="132"/>
+      <c r="AB10" s="132"/>
+      <c r="AC10" s="132"/>
+      <c r="AD10" s="132"/>
+      <c r="AE10" s="132"/>
+      <c r="AF10" s="132"/>
+      <c r="AG10" s="132"/>
+      <c r="AH10" s="132"/>
+      <c r="AI10" s="132"/>
+      <c r="AJ10" s="132"/>
+      <c r="AK10" s="132"/>
+      <c r="AL10" s="132"/>
+      <c r="AM10" s="132"/>
+      <c r="AN10" s="132"/>
+      <c r="AO10" s="132"/>
+      <c r="AP10" s="132"/>
+      <c r="AQ10" s="132"/>
+      <c r="AR10" s="132"/>
+      <c r="AS10" s="132"/>
+      <c r="AT10" s="132"/>
+      <c r="AU10" s="132"/>
+      <c r="AV10" s="132"/>
+      <c r="AW10" s="132"/>
+      <c r="AX10" s="132"/>
+      <c r="AY10" s="132"/>
+      <c r="AZ10" s="132"/>
+      <c r="BA10" s="132"/>
+      <c r="BB10" s="132"/>
+      <c r="BC10" s="132"/>
+      <c r="BD10" s="132"/>
+      <c r="BE10" s="132"/>
+      <c r="BF10" s="132"/>
+      <c r="BG10" s="132"/>
+      <c r="BH10" s="132"/>
+      <c r="BI10" s="132"/>
+      <c r="BJ10" s="132"/>
+      <c r="BK10" s="132"/>
+      <c r="BL10" s="132"/>
+      <c r="BM10" s="132"/>
+      <c r="BN10" s="132"/>
+      <c r="BO10" s="132"/>
       <c r="BP10" s="32"/>
     </row>
     <row r="11" spans="1:68" ht="16.5" outlineLevel="1">
@@ -13952,14 +13952,14 @@
       <c r="A12" s="2"/>
       <c r="B12" s="13"/>
       <c r="C12" s="17"/>
-      <c r="D12" s="88" t="s">
+      <c r="D12" s="92" t="s">
         <v>28</v>
       </c>
       <c r="E12" s="79"/>
       <c r="F12" s="79"/>
       <c r="G12" s="79"/>
       <c r="H12" s="80"/>
-      <c r="I12" s="94" t="s">
+      <c r="I12" s="105" t="s">
         <v>29</v>
       </c>
       <c r="J12" s="79"/>
@@ -14026,14 +14026,14 @@
       <c r="A13" s="2"/>
       <c r="B13" s="13"/>
       <c r="C13" s="17"/>
-      <c r="D13" s="88" t="s">
+      <c r="D13" s="92" t="s">
         <v>30</v>
       </c>
       <c r="E13" s="79"/>
       <c r="F13" s="79"/>
       <c r="G13" s="79"/>
       <c r="H13" s="80"/>
-      <c r="I13" s="94" t="s">
+      <c r="I13" s="105" t="s">
         <v>31</v>
       </c>
       <c r="J13" s="79"/>
@@ -14100,14 +14100,14 @@
       <c r="A14" s="2"/>
       <c r="B14" s="13"/>
       <c r="C14" s="17"/>
-      <c r="D14" s="88" t="s">
+      <c r="D14" s="92" t="s">
         <v>73</v>
       </c>
       <c r="E14" s="79"/>
       <c r="F14" s="79"/>
       <c r="G14" s="79"/>
       <c r="H14" s="80"/>
-      <c r="I14" s="94" t="s">
+      <c r="I14" s="105" t="s">
         <v>74</v>
       </c>
       <c r="J14" s="79"/>
@@ -14172,11 +14172,11 @@
     </row>
     <row r="15" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A15" s="2"/>
-      <c r="B15" s="110" t="s">
+      <c r="B15" s="135" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="105"/>
-      <c r="D15" s="105"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="96"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
@@ -14279,7 +14279,7 @@
       <c r="AB16" s="79"/>
       <c r="AC16" s="79"/>
       <c r="AD16" s="80"/>
-      <c r="AE16" s="100" t="s">
+      <c r="AE16" s="130" t="s">
         <v>20</v>
       </c>
       <c r="AF16" s="79"/>
@@ -14327,22 +14327,22 @@
     <row r="17" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A17" s="2"/>
       <c r="B17" s="13"/>
-      <c r="C17" s="97" t="s">
+      <c r="C17" s="117" t="s">
         <v>140</v>
       </c>
-      <c r="D17" s="105"/>
-      <c r="E17" s="105"/>
-      <c r="F17" s="105"/>
-      <c r="G17" s="105"/>
-      <c r="H17" s="105"/>
-      <c r="I17" s="105"/>
-      <c r="J17" s="105"/>
-      <c r="K17" s="105"/>
-      <c r="L17" s="105"/>
-      <c r="M17" s="105"/>
-      <c r="N17" s="105"/>
-      <c r="O17" s="105"/>
-      <c r="P17" s="106"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="96"/>
+      <c r="J17" s="96"/>
+      <c r="K17" s="96"/>
+      <c r="L17" s="96"/>
+      <c r="M17" s="96"/>
+      <c r="N17" s="96"/>
+      <c r="O17" s="96"/>
+      <c r="P17" s="123"/>
       <c r="Q17" s="87" t="s">
         <v>36</v>
       </c>
@@ -14361,7 +14361,7 @@
       <c r="AB17" s="79"/>
       <c r="AC17" s="79"/>
       <c r="AD17" s="80"/>
-      <c r="AE17" s="88"/>
+      <c r="AE17" s="92"/>
       <c r="AF17" s="79"/>
       <c r="AG17" s="80"/>
       <c r="AH17" s="87"/>
@@ -14403,22 +14403,22 @@
     <row r="18" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A18" s="2"/>
       <c r="B18" s="13"/>
-      <c r="C18" s="97" t="s">
+      <c r="C18" s="117" t="s">
         <v>89</v>
       </c>
-      <c r="D18" s="105"/>
-      <c r="E18" s="105"/>
-      <c r="F18" s="105"/>
-      <c r="G18" s="105"/>
-      <c r="H18" s="105"/>
-      <c r="I18" s="105"/>
-      <c r="J18" s="105"/>
-      <c r="K18" s="105"/>
-      <c r="L18" s="105"/>
-      <c r="M18" s="105"/>
-      <c r="N18" s="105"/>
-      <c r="O18" s="105"/>
-      <c r="P18" s="106"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="96"/>
+      <c r="I18" s="96"/>
+      <c r="J18" s="96"/>
+      <c r="K18" s="96"/>
+      <c r="L18" s="96"/>
+      <c r="M18" s="96"/>
+      <c r="N18" s="96"/>
+      <c r="O18" s="96"/>
+      <c r="P18" s="123"/>
       <c r="Q18" s="87" t="s">
         <v>36</v>
       </c>
@@ -14437,7 +14437,7 @@
       <c r="AB18" s="79"/>
       <c r="AC18" s="79"/>
       <c r="AD18" s="80"/>
-      <c r="AE18" s="88"/>
+      <c r="AE18" s="92"/>
       <c r="AF18" s="79"/>
       <c r="AG18" s="80"/>
       <c r="AH18" s="87"/>
@@ -14478,11 +14478,11 @@
     </row>
     <row r="19" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A19" s="2"/>
-      <c r="B19" s="110" t="s">
+      <c r="B19" s="135" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="105"/>
-      <c r="D19" s="105"/>
+      <c r="C19" s="96"/>
+      <c r="D19" s="96"/>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
@@ -14585,7 +14585,7 @@
       <c r="AB20" s="79"/>
       <c r="AC20" s="79"/>
       <c r="AD20" s="80"/>
-      <c r="AE20" s="100" t="s">
+      <c r="AE20" s="130" t="s">
         <v>20</v>
       </c>
       <c r="AF20" s="79"/>
@@ -14633,7 +14633,7 @@
     <row r="21" spans="1:68" ht="33" customHeight="1" outlineLevel="1">
       <c r="A21" s="2"/>
       <c r="B21" s="13"/>
-      <c r="C21" s="88" t="s">
+      <c r="C21" s="92" t="s">
         <v>75</v>
       </c>
       <c r="D21" s="79"/>
@@ -14667,15 +14667,15 @@
       <c r="AB21" s="79"/>
       <c r="AC21" s="79"/>
       <c r="AD21" s="80"/>
-      <c r="AE21" s="88">
+      <c r="AE21" s="92">
         <v>1</v>
       </c>
       <c r="AF21" s="79"/>
       <c r="AG21" s="80"/>
-      <c r="AH21" s="91"/>
-      <c r="AI21" s="92"/>
-      <c r="AJ21" s="93"/>
-      <c r="AK21" s="101" t="s">
+      <c r="AH21" s="89"/>
+      <c r="AI21" s="90"/>
+      <c r="AJ21" s="91"/>
+      <c r="AK21" s="113" t="s">
         <v>76</v>
       </c>
       <c r="AL21" s="79"/>
@@ -14714,7 +14714,7 @@
       <c r="A22" s="2"/>
       <c r="B22" s="13"/>
       <c r="C22" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D22" s="21"/>
       <c r="E22" s="21"/>
@@ -14745,14 +14745,14 @@
       <c r="AB22" s="79"/>
       <c r="AC22" s="79"/>
       <c r="AD22" s="80"/>
-      <c r="AE22" s="88"/>
+      <c r="AE22" s="92"/>
       <c r="AF22" s="79"/>
       <c r="AG22" s="80"/>
-      <c r="AH22" s="91" t="s">
+      <c r="AH22" s="89" t="s">
         <v>79</v>
       </c>
-      <c r="AI22" s="92"/>
-      <c r="AJ22" s="93"/>
+      <c r="AI22" s="90"/>
+      <c r="AJ22" s="91"/>
       <c r="AK22" s="87" t="s">
         <v>77</v>
       </c>
@@ -14792,21 +14792,21 @@
       <c r="A23" s="2"/>
       <c r="B23" s="65"/>
       <c r="C23" s="41"/>
-      <c r="D23" s="88" t="s">
+      <c r="D23" s="92" t="s">
         <v>78</v>
       </c>
-      <c r="E23" s="94"/>
-      <c r="F23" s="94"/>
-      <c r="G23" s="94"/>
-      <c r="H23" s="94"/>
-      <c r="I23" s="94"/>
-      <c r="J23" s="94"/>
-      <c r="K23" s="94"/>
-      <c r="L23" s="94"/>
-      <c r="M23" s="94"/>
-      <c r="N23" s="94"/>
-      <c r="O23" s="94"/>
-      <c r="P23" s="95"/>
+      <c r="E23" s="105"/>
+      <c r="F23" s="105"/>
+      <c r="G23" s="105"/>
+      <c r="H23" s="105"/>
+      <c r="I23" s="105"/>
+      <c r="J23" s="105"/>
+      <c r="K23" s="105"/>
+      <c r="L23" s="105"/>
+      <c r="M23" s="105"/>
+      <c r="N23" s="105"/>
+      <c r="O23" s="105"/>
+      <c r="P23" s="107"/>
       <c r="Q23" s="87" t="s">
         <v>95</v>
       </c>
@@ -14823,12 +14823,12 @@
       <c r="AB23" s="79"/>
       <c r="AC23" s="79"/>
       <c r="AD23" s="80"/>
-      <c r="AE23" s="88"/>
+      <c r="AE23" s="92"/>
       <c r="AF23" s="79"/>
       <c r="AG23" s="80"/>
-      <c r="AH23" s="91"/>
-      <c r="AI23" s="92"/>
-      <c r="AJ23" s="93"/>
+      <c r="AH23" s="89"/>
+      <c r="AI23" s="90"/>
+      <c r="AJ23" s="91"/>
       <c r="AK23" s="87"/>
       <c r="AL23" s="79"/>
       <c r="AM23" s="79"/>
@@ -15077,51 +15077,51 @@
     </row>
     <row r="27" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A27" s="5"/>
-      <c r="B27" s="111" t="s">
+      <c r="B27" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="104" t="s">
+      <c r="C27" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="105"/>
-      <c r="E27" s="105"/>
-      <c r="F27" s="105"/>
-      <c r="G27" s="105"/>
-      <c r="H27" s="105"/>
-      <c r="I27" s="105"/>
-      <c r="J27" s="105"/>
-      <c r="K27" s="106"/>
-      <c r="L27" s="104" t="s">
+      <c r="D27" s="96"/>
+      <c r="E27" s="96"/>
+      <c r="F27" s="96"/>
+      <c r="G27" s="96"/>
+      <c r="H27" s="96"/>
+      <c r="I27" s="96"/>
+      <c r="J27" s="96"/>
+      <c r="K27" s="123"/>
+      <c r="L27" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="M27" s="105"/>
-      <c r="N27" s="105"/>
-      <c r="O27" s="105"/>
-      <c r="P27" s="105"/>
-      <c r="Q27" s="105"/>
-      <c r="R27" s="105"/>
-      <c r="S27" s="105"/>
-      <c r="T27" s="105"/>
-      <c r="U27" s="105"/>
-      <c r="V27" s="105"/>
-      <c r="W27" s="105"/>
-      <c r="X27" s="105"/>
-      <c r="Y27" s="105"/>
-      <c r="Z27" s="105"/>
-      <c r="AA27" s="105"/>
-      <c r="AB27" s="106"/>
-      <c r="AC27" s="104" t="s">
+      <c r="M27" s="96"/>
+      <c r="N27" s="96"/>
+      <c r="O27" s="96"/>
+      <c r="P27" s="96"/>
+      <c r="Q27" s="96"/>
+      <c r="R27" s="96"/>
+      <c r="S27" s="96"/>
+      <c r="T27" s="96"/>
+      <c r="U27" s="96"/>
+      <c r="V27" s="96"/>
+      <c r="W27" s="96"/>
+      <c r="X27" s="96"/>
+      <c r="Y27" s="96"/>
+      <c r="Z27" s="96"/>
+      <c r="AA27" s="96"/>
+      <c r="AB27" s="123"/>
+      <c r="AC27" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="AD27" s="105"/>
-      <c r="AE27" s="105"/>
-      <c r="AF27" s="105"/>
-      <c r="AG27" s="105"/>
-      <c r="AH27" s="105"/>
-      <c r="AI27" s="105"/>
-      <c r="AJ27" s="105"/>
-      <c r="AK27" s="106"/>
-      <c r="AL27" s="121" t="s">
+      <c r="AD27" s="96"/>
+      <c r="AE27" s="96"/>
+      <c r="AF27" s="96"/>
+      <c r="AG27" s="96"/>
+      <c r="AH27" s="96"/>
+      <c r="AI27" s="96"/>
+      <c r="AJ27" s="96"/>
+      <c r="AK27" s="123"/>
+      <c r="AL27" s="108" t="s">
         <v>12</v>
       </c>
       <c r="AM27" s="79"/>
@@ -15157,43 +15157,43 @@
     </row>
     <row r="28" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A28" s="5"/>
-      <c r="B28" s="109"/>
-      <c r="C28" s="112"/>
-      <c r="D28" s="113"/>
-      <c r="E28" s="113"/>
-      <c r="F28" s="113"/>
-      <c r="G28" s="113"/>
-      <c r="H28" s="113"/>
-      <c r="I28" s="113"/>
-      <c r="J28" s="113"/>
-      <c r="K28" s="114"/>
-      <c r="L28" s="112"/>
-      <c r="M28" s="113"/>
-      <c r="N28" s="113"/>
-      <c r="O28" s="113"/>
-      <c r="P28" s="113"/>
-      <c r="Q28" s="113"/>
-      <c r="R28" s="113"/>
-      <c r="S28" s="113"/>
-      <c r="T28" s="113"/>
-      <c r="U28" s="113"/>
-      <c r="V28" s="113"/>
-      <c r="W28" s="113"/>
-      <c r="X28" s="113"/>
-      <c r="Y28" s="113"/>
-      <c r="Z28" s="113"/>
-      <c r="AA28" s="113"/>
-      <c r="AB28" s="114"/>
-      <c r="AC28" s="107"/>
-      <c r="AD28" s="108"/>
-      <c r="AE28" s="108"/>
-      <c r="AF28" s="108"/>
-      <c r="AG28" s="108"/>
-      <c r="AH28" s="108"/>
-      <c r="AI28" s="108"/>
-      <c r="AJ28" s="108"/>
-      <c r="AK28" s="109"/>
-      <c r="AL28" s="122" t="s">
+      <c r="B28" s="121"/>
+      <c r="C28" s="124"/>
+      <c r="D28" s="125"/>
+      <c r="E28" s="125"/>
+      <c r="F28" s="125"/>
+      <c r="G28" s="125"/>
+      <c r="H28" s="125"/>
+      <c r="I28" s="125"/>
+      <c r="J28" s="125"/>
+      <c r="K28" s="126"/>
+      <c r="L28" s="124"/>
+      <c r="M28" s="125"/>
+      <c r="N28" s="125"/>
+      <c r="O28" s="125"/>
+      <c r="P28" s="125"/>
+      <c r="Q28" s="125"/>
+      <c r="R28" s="125"/>
+      <c r="S28" s="125"/>
+      <c r="T28" s="125"/>
+      <c r="U28" s="125"/>
+      <c r="V28" s="125"/>
+      <c r="W28" s="125"/>
+      <c r="X28" s="125"/>
+      <c r="Y28" s="125"/>
+      <c r="Z28" s="125"/>
+      <c r="AA28" s="125"/>
+      <c r="AB28" s="126"/>
+      <c r="AC28" s="133"/>
+      <c r="AD28" s="134"/>
+      <c r="AE28" s="134"/>
+      <c r="AF28" s="134"/>
+      <c r="AG28" s="134"/>
+      <c r="AH28" s="134"/>
+      <c r="AI28" s="134"/>
+      <c r="AJ28" s="134"/>
+      <c r="AK28" s="121"/>
+      <c r="AL28" s="109" t="s">
         <v>13</v>
       </c>
       <c r="AM28" s="79"/>
@@ -15204,14 +15204,14 @@
       <c r="AR28" s="79"/>
       <c r="AS28" s="79"/>
       <c r="AT28" s="80"/>
-      <c r="AU28" s="122" t="s">
+      <c r="AU28" s="109" t="s">
         <v>14</v>
       </c>
       <c r="AV28" s="79"/>
       <c r="AW28" s="79"/>
       <c r="AX28" s="79"/>
       <c r="AY28" s="80"/>
-      <c r="AZ28" s="122" t="s">
+      <c r="AZ28" s="109" t="s">
         <v>15</v>
       </c>
       <c r="BA28" s="79"/>
@@ -15237,62 +15237,62 @@
         <f ca="1">MAX(B$27:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>1</v>
       </c>
-      <c r="C29" s="88" t="s">
+      <c r="C29" s="92" t="s">
         <v>145</v>
       </c>
-      <c r="D29" s="140"/>
-      <c r="E29" s="140"/>
-      <c r="F29" s="140"/>
-      <c r="G29" s="140"/>
-      <c r="H29" s="140"/>
-      <c r="I29" s="140"/>
-      <c r="J29" s="140"/>
-      <c r="K29" s="141"/>
-      <c r="L29" s="134"/>
-      <c r="M29" s="124"/>
-      <c r="N29" s="124"/>
-      <c r="O29" s="124"/>
-      <c r="P29" s="124"/>
-      <c r="Q29" s="124"/>
-      <c r="R29" s="124"/>
-      <c r="S29" s="124"/>
-      <c r="T29" s="124"/>
-      <c r="U29" s="124"/>
-      <c r="V29" s="124"/>
-      <c r="W29" s="124"/>
-      <c r="X29" s="124"/>
-      <c r="Y29" s="124"/>
-      <c r="Z29" s="124"/>
-      <c r="AA29" s="124"/>
-      <c r="AB29" s="124"/>
-      <c r="AC29" s="88" t="s">
+      <c r="D29" s="165"/>
+      <c r="E29" s="165"/>
+      <c r="F29" s="165"/>
+      <c r="G29" s="165"/>
+      <c r="H29" s="165"/>
+      <c r="I29" s="165"/>
+      <c r="J29" s="165"/>
+      <c r="K29" s="166"/>
+      <c r="L29" s="103"/>
+      <c r="M29" s="104"/>
+      <c r="N29" s="104"/>
+      <c r="O29" s="104"/>
+      <c r="P29" s="104"/>
+      <c r="Q29" s="104"/>
+      <c r="R29" s="104"/>
+      <c r="S29" s="104"/>
+      <c r="T29" s="104"/>
+      <c r="U29" s="104"/>
+      <c r="V29" s="104"/>
+      <c r="W29" s="104"/>
+      <c r="X29" s="104"/>
+      <c r="Y29" s="104"/>
+      <c r="Z29" s="104"/>
+      <c r="AA29" s="104"/>
+      <c r="AB29" s="104"/>
+      <c r="AC29" s="92" t="s">
         <v>146</v>
       </c>
-      <c r="AD29" s="140"/>
-      <c r="AE29" s="140"/>
-      <c r="AF29" s="140"/>
-      <c r="AG29" s="140"/>
-      <c r="AH29" s="140"/>
-      <c r="AI29" s="140"/>
-      <c r="AJ29" s="140"/>
-      <c r="AK29" s="141"/>
-      <c r="AL29" s="142" t="s">
+      <c r="AD29" s="165"/>
+      <c r="AE29" s="165"/>
+      <c r="AF29" s="165"/>
+      <c r="AG29" s="165"/>
+      <c r="AH29" s="165"/>
+      <c r="AI29" s="165"/>
+      <c r="AJ29" s="165"/>
+      <c r="AK29" s="166"/>
+      <c r="AL29" s="167" t="s">
         <v>147</v>
       </c>
-      <c r="AM29" s="143"/>
-      <c r="AN29" s="143"/>
-      <c r="AO29" s="143"/>
-      <c r="AP29" s="143"/>
-      <c r="AQ29" s="143"/>
-      <c r="AR29" s="143"/>
-      <c r="AS29" s="143"/>
-      <c r="AT29" s="144"/>
-      <c r="AU29" s="89"/>
+      <c r="AM29" s="168"/>
+      <c r="AN29" s="168"/>
+      <c r="AO29" s="168"/>
+      <c r="AP29" s="168"/>
+      <c r="AQ29" s="168"/>
+      <c r="AR29" s="168"/>
+      <c r="AS29" s="168"/>
+      <c r="AT29" s="169"/>
+      <c r="AU29" s="110"/>
       <c r="AV29" s="79"/>
       <c r="AW29" s="79"/>
       <c r="AX29" s="79"/>
       <c r="AY29" s="80"/>
-      <c r="AZ29" s="90"/>
+      <c r="AZ29" s="112"/>
       <c r="BA29" s="79"/>
       <c r="BB29" s="79"/>
       <c r="BC29" s="79"/>
@@ -15316,37 +15316,37 @@
         <f ca="1">MAX(B$27:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>2</v>
       </c>
-      <c r="C30" s="145" t="s">
+      <c r="C30" s="158" t="s">
         <v>159</v>
       </c>
-      <c r="D30" s="146"/>
-      <c r="E30" s="146"/>
-      <c r="F30" s="146"/>
-      <c r="G30" s="146"/>
-      <c r="H30" s="146"/>
-      <c r="I30" s="146"/>
-      <c r="J30" s="146"/>
-      <c r="K30" s="147"/>
-      <c r="L30" s="103" t="s">
+      <c r="D30" s="159"/>
+      <c r="E30" s="159"/>
+      <c r="F30" s="159"/>
+      <c r="G30" s="159"/>
+      <c r="H30" s="159"/>
+      <c r="I30" s="159"/>
+      <c r="J30" s="159"/>
+      <c r="K30" s="160"/>
+      <c r="L30" s="132" t="s">
         <v>161</v>
       </c>
-      <c r="M30" s="103"/>
-      <c r="N30" s="103"/>
-      <c r="O30" s="103"/>
-      <c r="P30" s="103"/>
-      <c r="Q30" s="103"/>
-      <c r="R30" s="103"/>
-      <c r="S30" s="103"/>
-      <c r="T30" s="103"/>
-      <c r="U30" s="103"/>
-      <c r="V30" s="103"/>
-      <c r="W30" s="103"/>
-      <c r="X30" s="103"/>
-      <c r="Y30" s="103"/>
-      <c r="Z30" s="103"/>
-      <c r="AA30" s="103"/>
-      <c r="AB30" s="103"/>
-      <c r="AC30" s="94"/>
+      <c r="M30" s="132"/>
+      <c r="N30" s="132"/>
+      <c r="O30" s="132"/>
+      <c r="P30" s="132"/>
+      <c r="Q30" s="132"/>
+      <c r="R30" s="132"/>
+      <c r="S30" s="132"/>
+      <c r="T30" s="132"/>
+      <c r="U30" s="132"/>
+      <c r="V30" s="132"/>
+      <c r="W30" s="132"/>
+      <c r="X30" s="132"/>
+      <c r="Y30" s="132"/>
+      <c r="Z30" s="132"/>
+      <c r="AA30" s="132"/>
+      <c r="AB30" s="132"/>
+      <c r="AC30" s="105"/>
       <c r="AD30" s="79"/>
       <c r="AE30" s="79"/>
       <c r="AF30" s="79"/>
@@ -15355,7 +15355,7 @@
       <c r="AI30" s="79"/>
       <c r="AJ30" s="79"/>
       <c r="AK30" s="80"/>
-      <c r="AL30" s="89"/>
+      <c r="AL30" s="110"/>
       <c r="AM30" s="79"/>
       <c r="AN30" s="79"/>
       <c r="AO30" s="79"/>
@@ -15364,12 +15364,12 @@
       <c r="AR30" s="79"/>
       <c r="AS30" s="79"/>
       <c r="AT30" s="80"/>
-      <c r="AU30" s="89"/>
+      <c r="AU30" s="110"/>
       <c r="AV30" s="79"/>
       <c r="AW30" s="79"/>
       <c r="AX30" s="79"/>
       <c r="AY30" s="80"/>
-      <c r="AZ30" s="90"/>
+      <c r="AZ30" s="112"/>
       <c r="BA30" s="79"/>
       <c r="BB30" s="79"/>
       <c r="BC30" s="79"/>
@@ -15393,37 +15393,37 @@
         <f ca="1">MAX(B$27:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>3</v>
       </c>
-      <c r="C31" s="145" t="s">
+      <c r="C31" s="158" t="s">
         <v>148</v>
       </c>
-      <c r="D31" s="146"/>
-      <c r="E31" s="146"/>
-      <c r="F31" s="146"/>
-      <c r="G31" s="146"/>
-      <c r="H31" s="146"/>
-      <c r="I31" s="146"/>
-      <c r="J31" s="146"/>
-      <c r="K31" s="147"/>
-      <c r="L31" s="103" t="s">
+      <c r="D31" s="159"/>
+      <c r="E31" s="159"/>
+      <c r="F31" s="159"/>
+      <c r="G31" s="159"/>
+      <c r="H31" s="159"/>
+      <c r="I31" s="159"/>
+      <c r="J31" s="159"/>
+      <c r="K31" s="160"/>
+      <c r="L31" s="132" t="s">
         <v>160</v>
       </c>
-      <c r="M31" s="103"/>
-      <c r="N31" s="103"/>
-      <c r="O31" s="103"/>
-      <c r="P31" s="103"/>
-      <c r="Q31" s="103"/>
-      <c r="R31" s="103"/>
-      <c r="S31" s="103"/>
-      <c r="T31" s="103"/>
-      <c r="U31" s="103"/>
-      <c r="V31" s="103"/>
-      <c r="W31" s="103"/>
-      <c r="X31" s="103"/>
-      <c r="Y31" s="103"/>
-      <c r="Z31" s="103"/>
-      <c r="AA31" s="103"/>
-      <c r="AB31" s="103"/>
-      <c r="AC31" s="94"/>
+      <c r="M31" s="132"/>
+      <c r="N31" s="132"/>
+      <c r="O31" s="132"/>
+      <c r="P31" s="132"/>
+      <c r="Q31" s="132"/>
+      <c r="R31" s="132"/>
+      <c r="S31" s="132"/>
+      <c r="T31" s="132"/>
+      <c r="U31" s="132"/>
+      <c r="V31" s="132"/>
+      <c r="W31" s="132"/>
+      <c r="X31" s="132"/>
+      <c r="Y31" s="132"/>
+      <c r="Z31" s="132"/>
+      <c r="AA31" s="132"/>
+      <c r="AB31" s="132"/>
+      <c r="AC31" s="105"/>
       <c r="AD31" s="79"/>
       <c r="AE31" s="79"/>
       <c r="AF31" s="79"/>
@@ -15432,7 +15432,7 @@
       <c r="AI31" s="79"/>
       <c r="AJ31" s="79"/>
       <c r="AK31" s="80"/>
-      <c r="AL31" s="89"/>
+      <c r="AL31" s="110"/>
       <c r="AM31" s="79"/>
       <c r="AN31" s="79"/>
       <c r="AO31" s="79"/>
@@ -15441,12 +15441,12 @@
       <c r="AR31" s="79"/>
       <c r="AS31" s="79"/>
       <c r="AT31" s="80"/>
-      <c r="AU31" s="89"/>
+      <c r="AU31" s="110"/>
       <c r="AV31" s="79"/>
       <c r="AW31" s="79"/>
       <c r="AX31" s="79"/>
       <c r="AY31" s="80"/>
-      <c r="AZ31" s="90"/>
+      <c r="AZ31" s="112"/>
       <c r="BA31" s="79"/>
       <c r="BB31" s="79"/>
       <c r="BC31" s="79"/>
@@ -15470,75 +15470,75 @@
         <f ca="1">MAX(B$27:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>4</v>
       </c>
-      <c r="C32" s="135" t="s">
+      <c r="C32" s="106" t="s">
         <v>71</v>
       </c>
-      <c r="D32" s="94"/>
-      <c r="E32" s="94"/>
-      <c r="F32" s="94"/>
-      <c r="G32" s="94"/>
-      <c r="H32" s="94"/>
-      <c r="I32" s="94"/>
-      <c r="J32" s="94"/>
-      <c r="K32" s="95"/>
-      <c r="L32" s="88" t="s">
+      <c r="D32" s="105"/>
+      <c r="E32" s="105"/>
+      <c r="F32" s="105"/>
+      <c r="G32" s="105"/>
+      <c r="H32" s="105"/>
+      <c r="I32" s="105"/>
+      <c r="J32" s="105"/>
+      <c r="K32" s="107"/>
+      <c r="L32" s="92" t="s">
         <v>144</v>
       </c>
-      <c r="M32" s="94"/>
-      <c r="N32" s="94"/>
-      <c r="O32" s="94"/>
-      <c r="P32" s="94"/>
-      <c r="Q32" s="94"/>
-      <c r="R32" s="94"/>
-      <c r="S32" s="94"/>
-      <c r="T32" s="94"/>
-      <c r="U32" s="94"/>
-      <c r="V32" s="94"/>
-      <c r="W32" s="94"/>
-      <c r="X32" s="94"/>
-      <c r="Y32" s="94"/>
-      <c r="Z32" s="94"/>
-      <c r="AA32" s="94"/>
-      <c r="AB32" s="95"/>
-      <c r="AC32" s="88"/>
-      <c r="AD32" s="94"/>
-      <c r="AE32" s="94"/>
-      <c r="AF32" s="94"/>
-      <c r="AG32" s="94"/>
-      <c r="AH32" s="94"/>
-      <c r="AI32" s="94"/>
-      <c r="AJ32" s="94"/>
-      <c r="AK32" s="95"/>
-      <c r="AL32" s="89"/>
-      <c r="AM32" s="136"/>
-      <c r="AN32" s="136"/>
-      <c r="AO32" s="136"/>
-      <c r="AP32" s="136"/>
-      <c r="AQ32" s="136"/>
-      <c r="AR32" s="136"/>
-      <c r="AS32" s="136"/>
-      <c r="AT32" s="137"/>
-      <c r="AU32" s="89"/>
-      <c r="AV32" s="136"/>
-      <c r="AW32" s="136"/>
-      <c r="AX32" s="136"/>
-      <c r="AY32" s="137"/>
-      <c r="AZ32" s="90"/>
-      <c r="BA32" s="138"/>
-      <c r="BB32" s="138"/>
-      <c r="BC32" s="138"/>
-      <c r="BD32" s="138"/>
-      <c r="BE32" s="138"/>
-      <c r="BF32" s="138"/>
-      <c r="BG32" s="138"/>
-      <c r="BH32" s="138"/>
-      <c r="BI32" s="138"/>
-      <c r="BJ32" s="138"/>
-      <c r="BK32" s="138"/>
-      <c r="BL32" s="138"/>
-      <c r="BM32" s="138"/>
-      <c r="BN32" s="138"/>
-      <c r="BO32" s="139"/>
+      <c r="M32" s="105"/>
+      <c r="N32" s="105"/>
+      <c r="O32" s="105"/>
+      <c r="P32" s="105"/>
+      <c r="Q32" s="105"/>
+      <c r="R32" s="105"/>
+      <c r="S32" s="105"/>
+      <c r="T32" s="105"/>
+      <c r="U32" s="105"/>
+      <c r="V32" s="105"/>
+      <c r="W32" s="105"/>
+      <c r="X32" s="105"/>
+      <c r="Y32" s="105"/>
+      <c r="Z32" s="105"/>
+      <c r="AA32" s="105"/>
+      <c r="AB32" s="107"/>
+      <c r="AC32" s="92"/>
+      <c r="AD32" s="105"/>
+      <c r="AE32" s="105"/>
+      <c r="AF32" s="105"/>
+      <c r="AG32" s="105"/>
+      <c r="AH32" s="105"/>
+      <c r="AI32" s="105"/>
+      <c r="AJ32" s="105"/>
+      <c r="AK32" s="107"/>
+      <c r="AL32" s="110"/>
+      <c r="AM32" s="161"/>
+      <c r="AN32" s="161"/>
+      <c r="AO32" s="161"/>
+      <c r="AP32" s="161"/>
+      <c r="AQ32" s="161"/>
+      <c r="AR32" s="161"/>
+      <c r="AS32" s="161"/>
+      <c r="AT32" s="162"/>
+      <c r="AU32" s="110"/>
+      <c r="AV32" s="161"/>
+      <c r="AW32" s="161"/>
+      <c r="AX32" s="161"/>
+      <c r="AY32" s="162"/>
+      <c r="AZ32" s="112"/>
+      <c r="BA32" s="163"/>
+      <c r="BB32" s="163"/>
+      <c r="BC32" s="163"/>
+      <c r="BD32" s="163"/>
+      <c r="BE32" s="163"/>
+      <c r="BF32" s="163"/>
+      <c r="BG32" s="163"/>
+      <c r="BH32" s="163"/>
+      <c r="BI32" s="163"/>
+      <c r="BJ32" s="163"/>
+      <c r="BK32" s="163"/>
+      <c r="BL32" s="163"/>
+      <c r="BM32" s="163"/>
+      <c r="BN32" s="163"/>
+      <c r="BO32" s="164"/>
       <c r="BP32" s="2"/>
     </row>
     <row r="33" spans="1:68" ht="16.5">
@@ -16483,16 +16483,16 @@
     <row r="46" spans="1:68" s="75" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A46" s="29"/>
       <c r="B46" s="68"/>
-      <c r="C46" s="103" t="s">
+      <c r="C46" s="132" t="s">
         <v>158</v>
       </c>
-      <c r="D46" s="103"/>
-      <c r="E46" s="103"/>
-      <c r="F46" s="103"/>
-      <c r="G46" s="103"/>
-      <c r="H46" s="103"/>
-      <c r="I46" s="103"/>
-      <c r="J46" s="103"/>
+      <c r="D46" s="132"/>
+      <c r="E46" s="132"/>
+      <c r="F46" s="132"/>
+      <c r="G46" s="132"/>
+      <c r="H46" s="132"/>
+      <c r="I46" s="132"/>
+      <c r="J46" s="132"/>
       <c r="K46" s="78" t="s">
         <v>88</v>
       </c>
@@ -16524,22 +16524,22 @@
       <c r="AK46" s="157" t="s">
         <v>152</v>
       </c>
-      <c r="AL46" s="98"/>
-      <c r="AM46" s="98"/>
-      <c r="AN46" s="98"/>
-      <c r="AO46" s="98"/>
-      <c r="AP46" s="98"/>
-      <c r="AQ46" s="98"/>
-      <c r="AR46" s="99"/>
-      <c r="AS46" s="88" t="s">
+      <c r="AL46" s="118"/>
+      <c r="AM46" s="118"/>
+      <c r="AN46" s="118"/>
+      <c r="AO46" s="118"/>
+      <c r="AP46" s="118"/>
+      <c r="AQ46" s="118"/>
+      <c r="AR46" s="119"/>
+      <c r="AS46" s="92" t="s">
         <v>153</v>
       </c>
-      <c r="AT46" s="94"/>
-      <c r="AU46" s="94"/>
-      <c r="AV46" s="94"/>
-      <c r="AW46" s="94"/>
-      <c r="AX46" s="94"/>
-      <c r="AY46" s="95"/>
+      <c r="AT46" s="105"/>
+      <c r="AU46" s="105"/>
+      <c r="AV46" s="105"/>
+      <c r="AW46" s="105"/>
+      <c r="AX46" s="105"/>
+      <c r="AY46" s="107"/>
       <c r="AZ46" s="29"/>
       <c r="BA46" s="29"/>
       <c r="BB46" s="29"/>
@@ -16561,16 +16561,16 @@
     <row r="47" spans="1:68" s="75" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A47" s="29"/>
       <c r="B47" s="68"/>
-      <c r="C47" s="103" t="s">
+      <c r="C47" s="132" t="s">
         <v>157</v>
       </c>
-      <c r="D47" s="103"/>
-      <c r="E47" s="103"/>
-      <c r="F47" s="103"/>
-      <c r="G47" s="103"/>
-      <c r="H47" s="103"/>
-      <c r="I47" s="103"/>
-      <c r="J47" s="103"/>
+      <c r="D47" s="132"/>
+      <c r="E47" s="132"/>
+      <c r="F47" s="132"/>
+      <c r="G47" s="132"/>
+      <c r="H47" s="132"/>
+      <c r="I47" s="132"/>
+      <c r="J47" s="132"/>
       <c r="K47" s="81" t="s">
         <v>89</v>
       </c>
@@ -16637,14 +16637,14 @@
     <row r="48" spans="1:68" s="75" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A48" s="29"/>
       <c r="B48" s="68"/>
-      <c r="C48" s="167"/>
-      <c r="D48" s="168"/>
-      <c r="E48" s="168"/>
-      <c r="F48" s="168"/>
-      <c r="G48" s="168"/>
-      <c r="H48" s="168"/>
-      <c r="I48" s="168"/>
-      <c r="J48" s="169"/>
+      <c r="C48" s="145"/>
+      <c r="D48" s="146"/>
+      <c r="E48" s="146"/>
+      <c r="F48" s="146"/>
+      <c r="G48" s="146"/>
+      <c r="H48" s="146"/>
+      <c r="I48" s="146"/>
+      <c r="J48" s="147"/>
       <c r="K48" s="78"/>
       <c r="L48" s="81"/>
       <c r="M48" s="81"/>
@@ -16711,61 +16711,61 @@
     <row r="49" spans="1:68" s="75" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A49" s="29"/>
       <c r="B49" s="68"/>
-      <c r="C49" s="103" t="s">
+      <c r="C49" s="132" t="s">
         <v>157</v>
       </c>
-      <c r="D49" s="103"/>
-      <c r="E49" s="103"/>
-      <c r="F49" s="103"/>
-      <c r="G49" s="103"/>
-      <c r="H49" s="103"/>
-      <c r="I49" s="103"/>
-      <c r="J49" s="103"/>
-      <c r="K49" s="158" t="s">
+      <c r="D49" s="132"/>
+      <c r="E49" s="132"/>
+      <c r="F49" s="132"/>
+      <c r="G49" s="132"/>
+      <c r="H49" s="132"/>
+      <c r="I49" s="132"/>
+      <c r="J49" s="132"/>
+      <c r="K49" s="136" t="s">
         <v>140</v>
       </c>
-      <c r="L49" s="158"/>
-      <c r="M49" s="158"/>
-      <c r="N49" s="158"/>
-      <c r="O49" s="158"/>
-      <c r="P49" s="158"/>
-      <c r="Q49" s="158"/>
-      <c r="R49" s="159"/>
-      <c r="S49" s="160"/>
-      <c r="T49" s="160"/>
-      <c r="U49" s="160"/>
-      <c r="V49" s="160"/>
-      <c r="W49" s="160"/>
-      <c r="X49" s="160"/>
-      <c r="Y49" s="160"/>
-      <c r="Z49" s="160"/>
-      <c r="AA49" s="160"/>
-      <c r="AB49" s="160"/>
-      <c r="AC49" s="160"/>
-      <c r="AD49" s="160"/>
-      <c r="AE49" s="160"/>
-      <c r="AF49" s="160"/>
-      <c r="AG49" s="160"/>
-      <c r="AH49" s="160"/>
-      <c r="AI49" s="160"/>
-      <c r="AJ49" s="161"/>
-      <c r="AK49" s="162"/>
-      <c r="AL49" s="163"/>
-      <c r="AM49" s="163"/>
-      <c r="AN49" s="163"/>
-      <c r="AO49" s="163"/>
-      <c r="AP49" s="163"/>
-      <c r="AQ49" s="163"/>
-      <c r="AR49" s="164"/>
-      <c r="AS49" s="165" t="s">
+      <c r="L49" s="136"/>
+      <c r="M49" s="136"/>
+      <c r="N49" s="136"/>
+      <c r="O49" s="136"/>
+      <c r="P49" s="136"/>
+      <c r="Q49" s="136"/>
+      <c r="R49" s="137"/>
+      <c r="S49" s="138"/>
+      <c r="T49" s="138"/>
+      <c r="U49" s="138"/>
+      <c r="V49" s="138"/>
+      <c r="W49" s="138"/>
+      <c r="X49" s="138"/>
+      <c r="Y49" s="138"/>
+      <c r="Z49" s="138"/>
+      <c r="AA49" s="138"/>
+      <c r="AB49" s="138"/>
+      <c r="AC49" s="138"/>
+      <c r="AD49" s="138"/>
+      <c r="AE49" s="138"/>
+      <c r="AF49" s="138"/>
+      <c r="AG49" s="138"/>
+      <c r="AH49" s="138"/>
+      <c r="AI49" s="138"/>
+      <c r="AJ49" s="139"/>
+      <c r="AK49" s="140"/>
+      <c r="AL49" s="141"/>
+      <c r="AM49" s="141"/>
+      <c r="AN49" s="141"/>
+      <c r="AO49" s="141"/>
+      <c r="AP49" s="141"/>
+      <c r="AQ49" s="141"/>
+      <c r="AR49" s="142"/>
+      <c r="AS49" s="143" t="s">
         <v>156</v>
       </c>
-      <c r="AT49" s="158"/>
-      <c r="AU49" s="158"/>
-      <c r="AV49" s="158"/>
-      <c r="AW49" s="158"/>
-      <c r="AX49" s="158"/>
-      <c r="AY49" s="166"/>
+      <c r="AT49" s="136"/>
+      <c r="AU49" s="136"/>
+      <c r="AV49" s="136"/>
+      <c r="AW49" s="136"/>
+      <c r="AX49" s="136"/>
+      <c r="AY49" s="144"/>
       <c r="AZ49" s="29"/>
       <c r="BA49" s="29"/>
       <c r="BB49" s="29"/>
@@ -17629,65 +17629,30 @@
     </row>
   </sheetData>
   <mergeCells count="107">
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="K49:Q49"/>
-    <mergeCell ref="R49:AJ49"/>
-    <mergeCell ref="AK49:AR49"/>
-    <mergeCell ref="AS49:AY49"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="K48:Q48"/>
-    <mergeCell ref="R48:AJ48"/>
-    <mergeCell ref="AK48:AR48"/>
-    <mergeCell ref="AS48:AY48"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="K47:Q47"/>
-    <mergeCell ref="R47:AJ47"/>
-    <mergeCell ref="AK47:AR47"/>
-    <mergeCell ref="AS47:AY47"/>
-    <mergeCell ref="C46:J46"/>
-    <mergeCell ref="K46:Q46"/>
-    <mergeCell ref="R46:AJ46"/>
-    <mergeCell ref="AK46:AR46"/>
-    <mergeCell ref="AS46:AY46"/>
-    <mergeCell ref="AE18:AG18"/>
-    <mergeCell ref="AH18:AJ18"/>
-    <mergeCell ref="AK18:BO18"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="I7:BO7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="I8:BO8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="I9:BO9"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="I10:BO10"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="I12:BO12"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="I13:BO13"/>
-    <mergeCell ref="C17:P17"/>
-    <mergeCell ref="Q17:W17"/>
-    <mergeCell ref="X17:AD17"/>
-    <mergeCell ref="AE17:AG17"/>
-    <mergeCell ref="AH17:AJ17"/>
-    <mergeCell ref="AK17:BO17"/>
-    <mergeCell ref="AE21:AG21"/>
-    <mergeCell ref="AH21:AJ21"/>
-    <mergeCell ref="C20:P20"/>
-    <mergeCell ref="Q20:W20"/>
-    <mergeCell ref="X20:AD20"/>
-    <mergeCell ref="AE20:AG20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="I14:BO14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C16:P16"/>
-    <mergeCell ref="Q16:W16"/>
-    <mergeCell ref="X16:AD16"/>
-    <mergeCell ref="AE16:AG16"/>
-    <mergeCell ref="AK16:BO16"/>
-    <mergeCell ref="C18:P18"/>
-    <mergeCell ref="Q18:W18"/>
-    <mergeCell ref="X18:AD18"/>
+    <mergeCell ref="AL31:AT31"/>
+    <mergeCell ref="AU31:AY31"/>
+    <mergeCell ref="C32:K32"/>
+    <mergeCell ref="L32:AB32"/>
+    <mergeCell ref="AC32:AK32"/>
+    <mergeCell ref="AL32:AT32"/>
+    <mergeCell ref="AU32:AY32"/>
+    <mergeCell ref="AZ32:BO32"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:K28"/>
+    <mergeCell ref="L27:AB28"/>
+    <mergeCell ref="AC27:AK28"/>
+    <mergeCell ref="AL27:BO27"/>
+    <mergeCell ref="AL28:AT28"/>
+    <mergeCell ref="AU28:AY28"/>
+    <mergeCell ref="AZ28:BO28"/>
+    <mergeCell ref="AZ31:BO31"/>
+    <mergeCell ref="C29:K29"/>
+    <mergeCell ref="L29:AB29"/>
+    <mergeCell ref="AC29:AK29"/>
+    <mergeCell ref="AL29:AT29"/>
+    <mergeCell ref="AU29:AY29"/>
+    <mergeCell ref="AZ29:BO29"/>
+    <mergeCell ref="C30:K30"/>
     <mergeCell ref="L30:AB30"/>
     <mergeCell ref="AC30:AK30"/>
     <mergeCell ref="AL30:AT30"/>
@@ -17712,30 +17677,65 @@
     <mergeCell ref="C21:P21"/>
     <mergeCell ref="Q21:W21"/>
     <mergeCell ref="X21:AD21"/>
-    <mergeCell ref="AL31:AT31"/>
-    <mergeCell ref="AU31:AY31"/>
-    <mergeCell ref="C32:K32"/>
-    <mergeCell ref="L32:AB32"/>
-    <mergeCell ref="AC32:AK32"/>
-    <mergeCell ref="AL32:AT32"/>
-    <mergeCell ref="AU32:AY32"/>
-    <mergeCell ref="AZ32:BO32"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:K28"/>
-    <mergeCell ref="L27:AB28"/>
-    <mergeCell ref="AC27:AK28"/>
-    <mergeCell ref="AL27:BO27"/>
-    <mergeCell ref="AL28:AT28"/>
-    <mergeCell ref="AU28:AY28"/>
-    <mergeCell ref="AZ28:BO28"/>
-    <mergeCell ref="AZ31:BO31"/>
-    <mergeCell ref="C29:K29"/>
-    <mergeCell ref="L29:AB29"/>
-    <mergeCell ref="AC29:AK29"/>
-    <mergeCell ref="AL29:AT29"/>
-    <mergeCell ref="AU29:AY29"/>
-    <mergeCell ref="AZ29:BO29"/>
-    <mergeCell ref="C30:K30"/>
+    <mergeCell ref="AE21:AG21"/>
+    <mergeCell ref="AH21:AJ21"/>
+    <mergeCell ref="C20:P20"/>
+    <mergeCell ref="Q20:W20"/>
+    <mergeCell ref="X20:AD20"/>
+    <mergeCell ref="AE20:AG20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="I14:BO14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C16:P16"/>
+    <mergeCell ref="Q16:W16"/>
+    <mergeCell ref="X16:AD16"/>
+    <mergeCell ref="AE16:AG16"/>
+    <mergeCell ref="AK16:BO16"/>
+    <mergeCell ref="C18:P18"/>
+    <mergeCell ref="Q18:W18"/>
+    <mergeCell ref="X18:AD18"/>
+    <mergeCell ref="AE18:AG18"/>
+    <mergeCell ref="AH18:AJ18"/>
+    <mergeCell ref="AK18:BO18"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="I7:BO7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="I8:BO8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="I9:BO9"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="I10:BO10"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="I12:BO12"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="I13:BO13"/>
+    <mergeCell ref="C17:P17"/>
+    <mergeCell ref="Q17:W17"/>
+    <mergeCell ref="X17:AD17"/>
+    <mergeCell ref="AE17:AG17"/>
+    <mergeCell ref="AH17:AJ17"/>
+    <mergeCell ref="AK17:BO17"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="K47:Q47"/>
+    <mergeCell ref="R47:AJ47"/>
+    <mergeCell ref="AK47:AR47"/>
+    <mergeCell ref="AS47:AY47"/>
+    <mergeCell ref="C46:J46"/>
+    <mergeCell ref="K46:Q46"/>
+    <mergeCell ref="R46:AJ46"/>
+    <mergeCell ref="AK46:AR46"/>
+    <mergeCell ref="AS46:AY46"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="K49:Q49"/>
+    <mergeCell ref="R49:AJ49"/>
+    <mergeCell ref="AK49:AR49"/>
+    <mergeCell ref="AS49:AY49"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="K48:Q48"/>
+    <mergeCell ref="R48:AJ48"/>
+    <mergeCell ref="AK48:AR48"/>
+    <mergeCell ref="AS48:AY48"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <dataValidations count="1">
@@ -17779,7 +17779,9 @@
   </sheetPr>
   <dimension ref="A1:BP53"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
   <cols>
@@ -18217,7 +18219,7 @@
     <row r="7" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A7" s="2"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="100" t="s">
+      <c r="C7" s="130" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="79"/>
@@ -18225,7 +18227,7 @@
       <c r="F7" s="79"/>
       <c r="G7" s="79"/>
       <c r="H7" s="80"/>
-      <c r="I7" s="88" t="s">
+      <c r="I7" s="92" t="s">
         <v>183</v>
       </c>
       <c r="J7" s="79"/>
@@ -18291,7 +18293,7 @@
     <row r="8" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A8" s="2"/>
       <c r="B8" s="13"/>
-      <c r="C8" s="100" t="s">
+      <c r="C8" s="130" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="79"/>
@@ -18299,7 +18301,7 @@
       <c r="F8" s="79"/>
       <c r="G8" s="79"/>
       <c r="H8" s="80"/>
-      <c r="I8" s="88" t="s">
+      <c r="I8" s="92" t="s">
         <v>24</v>
       </c>
       <c r="J8" s="79"/>
@@ -18365,7 +18367,7 @@
     <row r="9" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A9" s="2"/>
       <c r="B9" s="13"/>
-      <c r="C9" s="100" t="s">
+      <c r="C9" s="130" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="79"/>
@@ -18373,7 +18375,7 @@
       <c r="F9" s="79"/>
       <c r="G9" s="79"/>
       <c r="H9" s="80"/>
-      <c r="I9" s="88" t="s">
+      <c r="I9" s="92" t="s">
         <v>26</v>
       </c>
       <c r="J9" s="79"/>
@@ -18439,75 +18441,75 @@
     <row r="10" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A10" s="32"/>
       <c r="B10" s="33"/>
-      <c r="C10" s="100" t="s">
-        <v>193</v>
+      <c r="C10" s="130" t="s">
+        <v>192</v>
       </c>
-      <c r="D10" s="102"/>
-      <c r="E10" s="102"/>
-      <c r="F10" s="102"/>
-      <c r="G10" s="102"/>
-      <c r="H10" s="102"/>
-      <c r="I10" s="103" t="s">
+      <c r="D10" s="131"/>
+      <c r="E10" s="131"/>
+      <c r="F10" s="131"/>
+      <c r="G10" s="131"/>
+      <c r="H10" s="131"/>
+      <c r="I10" s="132" t="s">
         <v>184</v>
       </c>
-      <c r="J10" s="103"/>
-      <c r="K10" s="103"/>
-      <c r="L10" s="103"/>
-      <c r="M10" s="103"/>
-      <c r="N10" s="103"/>
-      <c r="O10" s="103"/>
-      <c r="P10" s="103"/>
-      <c r="Q10" s="103"/>
-      <c r="R10" s="103"/>
-      <c r="S10" s="103"/>
-      <c r="T10" s="103"/>
-      <c r="U10" s="103"/>
-      <c r="V10" s="103"/>
-      <c r="W10" s="103"/>
-      <c r="X10" s="103"/>
-      <c r="Y10" s="103"/>
-      <c r="Z10" s="103"/>
-      <c r="AA10" s="103"/>
-      <c r="AB10" s="103"/>
-      <c r="AC10" s="103"/>
-      <c r="AD10" s="103"/>
-      <c r="AE10" s="103"/>
-      <c r="AF10" s="103"/>
-      <c r="AG10" s="103"/>
-      <c r="AH10" s="103"/>
-      <c r="AI10" s="103"/>
-      <c r="AJ10" s="103"/>
-      <c r="AK10" s="103"/>
-      <c r="AL10" s="103"/>
-      <c r="AM10" s="103"/>
-      <c r="AN10" s="103"/>
-      <c r="AO10" s="103"/>
-      <c r="AP10" s="103"/>
-      <c r="AQ10" s="103"/>
-      <c r="AR10" s="103"/>
-      <c r="AS10" s="103"/>
-      <c r="AT10" s="103"/>
-      <c r="AU10" s="103"/>
-      <c r="AV10" s="103"/>
-      <c r="AW10" s="103"/>
-      <c r="AX10" s="103"/>
-      <c r="AY10" s="103"/>
-      <c r="AZ10" s="103"/>
-      <c r="BA10" s="103"/>
-      <c r="BB10" s="103"/>
-      <c r="BC10" s="103"/>
-      <c r="BD10" s="103"/>
-      <c r="BE10" s="103"/>
-      <c r="BF10" s="103"/>
-      <c r="BG10" s="103"/>
-      <c r="BH10" s="103"/>
-      <c r="BI10" s="103"/>
-      <c r="BJ10" s="103"/>
-      <c r="BK10" s="103"/>
-      <c r="BL10" s="103"/>
-      <c r="BM10" s="103"/>
-      <c r="BN10" s="103"/>
-      <c r="BO10" s="103"/>
+      <c r="J10" s="132"/>
+      <c r="K10" s="132"/>
+      <c r="L10" s="132"/>
+      <c r="M10" s="132"/>
+      <c r="N10" s="132"/>
+      <c r="O10" s="132"/>
+      <c r="P10" s="132"/>
+      <c r="Q10" s="132"/>
+      <c r="R10" s="132"/>
+      <c r="S10" s="132"/>
+      <c r="T10" s="132"/>
+      <c r="U10" s="132"/>
+      <c r="V10" s="132"/>
+      <c r="W10" s="132"/>
+      <c r="X10" s="132"/>
+      <c r="Y10" s="132"/>
+      <c r="Z10" s="132"/>
+      <c r="AA10" s="132"/>
+      <c r="AB10" s="132"/>
+      <c r="AC10" s="132"/>
+      <c r="AD10" s="132"/>
+      <c r="AE10" s="132"/>
+      <c r="AF10" s="132"/>
+      <c r="AG10" s="132"/>
+      <c r="AH10" s="132"/>
+      <c r="AI10" s="132"/>
+      <c r="AJ10" s="132"/>
+      <c r="AK10" s="132"/>
+      <c r="AL10" s="132"/>
+      <c r="AM10" s="132"/>
+      <c r="AN10" s="132"/>
+      <c r="AO10" s="132"/>
+      <c r="AP10" s="132"/>
+      <c r="AQ10" s="132"/>
+      <c r="AR10" s="132"/>
+      <c r="AS10" s="132"/>
+      <c r="AT10" s="132"/>
+      <c r="AU10" s="132"/>
+      <c r="AV10" s="132"/>
+      <c r="AW10" s="132"/>
+      <c r="AX10" s="132"/>
+      <c r="AY10" s="132"/>
+      <c r="AZ10" s="132"/>
+      <c r="BA10" s="132"/>
+      <c r="BB10" s="132"/>
+      <c r="BC10" s="132"/>
+      <c r="BD10" s="132"/>
+      <c r="BE10" s="132"/>
+      <c r="BF10" s="132"/>
+      <c r="BG10" s="132"/>
+      <c r="BH10" s="132"/>
+      <c r="BI10" s="132"/>
+      <c r="BJ10" s="132"/>
+      <c r="BK10" s="132"/>
+      <c r="BL10" s="132"/>
+      <c r="BM10" s="132"/>
+      <c r="BN10" s="132"/>
+      <c r="BO10" s="132"/>
       <c r="BP10" s="32"/>
     </row>
     <row r="11" spans="1:68" ht="16.5" outlineLevel="1">
@@ -18586,14 +18588,14 @@
       <c r="A12" s="2"/>
       <c r="B12" s="13"/>
       <c r="C12" s="17"/>
-      <c r="D12" s="88" t="s">
+      <c r="D12" s="92" t="s">
         <v>73</v>
       </c>
       <c r="E12" s="79"/>
       <c r="F12" s="79"/>
       <c r="G12" s="79"/>
       <c r="H12" s="80"/>
-      <c r="I12" s="94" t="s">
+      <c r="I12" s="105" t="s">
         <v>74</v>
       </c>
       <c r="J12" s="79"/>
@@ -18658,11 +18660,11 @@
     </row>
     <row r="13" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A13" s="2"/>
-      <c r="B13" s="110" t="s">
+      <c r="B13" s="135" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="105"/>
-      <c r="D13" s="105"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="96"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
@@ -18765,7 +18767,7 @@
       <c r="AB14" s="79"/>
       <c r="AC14" s="79"/>
       <c r="AD14" s="80"/>
-      <c r="AE14" s="100" t="s">
+      <c r="AE14" s="130" t="s">
         <v>20</v>
       </c>
       <c r="AF14" s="79"/>
@@ -18813,22 +18815,22 @@
     <row r="15" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A15" s="2"/>
       <c r="B15" s="13"/>
-      <c r="C15" s="97" t="s">
+      <c r="C15" s="117" t="s">
         <v>89</v>
       </c>
-      <c r="D15" s="105"/>
-      <c r="E15" s="105"/>
-      <c r="F15" s="105"/>
-      <c r="G15" s="105"/>
-      <c r="H15" s="105"/>
-      <c r="I15" s="105"/>
-      <c r="J15" s="105"/>
-      <c r="K15" s="105"/>
-      <c r="L15" s="105"/>
-      <c r="M15" s="105"/>
-      <c r="N15" s="105"/>
-      <c r="O15" s="105"/>
-      <c r="P15" s="106"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="96"/>
+      <c r="H15" s="96"/>
+      <c r="I15" s="96"/>
+      <c r="J15" s="96"/>
+      <c r="K15" s="96"/>
+      <c r="L15" s="96"/>
+      <c r="M15" s="96"/>
+      <c r="N15" s="96"/>
+      <c r="O15" s="96"/>
+      <c r="P15" s="123"/>
       <c r="Q15" s="87" t="s">
         <v>36</v>
       </c>
@@ -18847,12 +18849,12 @@
       <c r="AB15" s="79"/>
       <c r="AC15" s="79"/>
       <c r="AD15" s="80"/>
-      <c r="AE15" s="88"/>
+      <c r="AE15" s="92"/>
       <c r="AF15" s="79"/>
       <c r="AG15" s="80"/>
-      <c r="AH15" s="91"/>
-      <c r="AI15" s="92"/>
-      <c r="AJ15" s="93"/>
+      <c r="AH15" s="89"/>
+      <c r="AI15" s="90"/>
+      <c r="AJ15" s="91"/>
       <c r="AK15" s="87"/>
       <c r="AL15" s="79"/>
       <c r="AM15" s="79"/>
@@ -18888,11 +18890,11 @@
     </row>
     <row r="16" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A16" s="2"/>
-      <c r="B16" s="110" t="s">
+      <c r="B16" s="135" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="105"/>
-      <c r="D16" s="105"/>
+      <c r="C16" s="96"/>
+      <c r="D16" s="96"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
@@ -18995,7 +18997,7 @@
       <c r="AB17" s="79"/>
       <c r="AC17" s="79"/>
       <c r="AD17" s="80"/>
-      <c r="AE17" s="100" t="s">
+      <c r="AE17" s="130" t="s">
         <v>20</v>
       </c>
       <c r="AF17" s="79"/>
@@ -19043,7 +19045,7 @@
     <row r="18" spans="1:68" ht="33" customHeight="1" outlineLevel="1">
       <c r="A18" s="2"/>
       <c r="B18" s="13"/>
-      <c r="C18" s="88" t="s">
+      <c r="C18" s="92" t="s">
         <v>75</v>
       </c>
       <c r="D18" s="79"/>
@@ -19077,15 +19079,15 @@
       <c r="AB18" s="79"/>
       <c r="AC18" s="79"/>
       <c r="AD18" s="80"/>
-      <c r="AE18" s="88">
+      <c r="AE18" s="92">
         <v>1</v>
       </c>
       <c r="AF18" s="79"/>
       <c r="AG18" s="80"/>
-      <c r="AH18" s="91"/>
-      <c r="AI18" s="92"/>
-      <c r="AJ18" s="93"/>
-      <c r="AK18" s="101" t="s">
+      <c r="AH18" s="89"/>
+      <c r="AI18" s="90"/>
+      <c r="AJ18" s="91"/>
+      <c r="AK18" s="113" t="s">
         <v>76</v>
       </c>
       <c r="AL18" s="79"/>
@@ -19157,12 +19159,12 @@
       <c r="AB19" s="79"/>
       <c r="AC19" s="79"/>
       <c r="AD19" s="80"/>
-      <c r="AE19" s="88"/>
+      <c r="AE19" s="92"/>
       <c r="AF19" s="79"/>
       <c r="AG19" s="80"/>
-      <c r="AH19" s="91"/>
-      <c r="AI19" s="92"/>
-      <c r="AJ19" s="93"/>
+      <c r="AH19" s="89"/>
+      <c r="AI19" s="90"/>
+      <c r="AJ19" s="91"/>
       <c r="AK19" s="87" t="s">
         <v>97</v>
       </c>
@@ -19202,7 +19204,7 @@
       <c r="A20" s="2"/>
       <c r="B20" s="13"/>
       <c r="C20" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D20" s="21"/>
       <c r="E20" s="21"/>
@@ -19233,14 +19235,14 @@
       <c r="AB20" s="79"/>
       <c r="AC20" s="79"/>
       <c r="AD20" s="80"/>
-      <c r="AE20" s="88"/>
+      <c r="AE20" s="92"/>
       <c r="AF20" s="79"/>
       <c r="AG20" s="80"/>
-      <c r="AH20" s="91" t="s">
+      <c r="AH20" s="89" t="s">
         <v>79</v>
       </c>
-      <c r="AI20" s="92"/>
-      <c r="AJ20" s="93"/>
+      <c r="AI20" s="90"/>
+      <c r="AJ20" s="91"/>
       <c r="AK20" s="87" t="s">
         <v>77</v>
       </c>
@@ -19280,21 +19282,21 @@
       <c r="A21" s="2"/>
       <c r="B21" s="65"/>
       <c r="C21" s="41"/>
-      <c r="D21" s="88" t="s">
+      <c r="D21" s="92" t="s">
         <v>78</v>
       </c>
-      <c r="E21" s="94"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="94"/>
-      <c r="H21" s="94"/>
-      <c r="I21" s="94"/>
-      <c r="J21" s="94"/>
-      <c r="K21" s="94"/>
-      <c r="L21" s="94"/>
-      <c r="M21" s="94"/>
-      <c r="N21" s="94"/>
-      <c r="O21" s="94"/>
-      <c r="P21" s="95"/>
+      <c r="E21" s="105"/>
+      <c r="F21" s="105"/>
+      <c r="G21" s="105"/>
+      <c r="H21" s="105"/>
+      <c r="I21" s="105"/>
+      <c r="J21" s="105"/>
+      <c r="K21" s="105"/>
+      <c r="L21" s="105"/>
+      <c r="M21" s="105"/>
+      <c r="N21" s="105"/>
+      <c r="O21" s="105"/>
+      <c r="P21" s="107"/>
       <c r="Q21" s="87" t="s">
         <v>95</v>
       </c>
@@ -19311,12 +19313,12 @@
       <c r="AB21" s="79"/>
       <c r="AC21" s="79"/>
       <c r="AD21" s="80"/>
-      <c r="AE21" s="88"/>
+      <c r="AE21" s="92"/>
       <c r="AF21" s="79"/>
       <c r="AG21" s="80"/>
-      <c r="AH21" s="91"/>
-      <c r="AI21" s="92"/>
-      <c r="AJ21" s="93"/>
+      <c r="AH21" s="89"/>
+      <c r="AI21" s="90"/>
+      <c r="AJ21" s="91"/>
       <c r="AK21" s="87"/>
       <c r="AL21" s="79"/>
       <c r="AM21" s="79"/>
@@ -19565,51 +19567,51 @@
     </row>
     <row r="25" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A25" s="5"/>
-      <c r="B25" s="111" t="s">
+      <c r="B25" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="104" t="s">
+      <c r="C25" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="105"/>
-      <c r="E25" s="105"/>
-      <c r="F25" s="105"/>
-      <c r="G25" s="105"/>
-      <c r="H25" s="105"/>
-      <c r="I25" s="105"/>
-      <c r="J25" s="105"/>
-      <c r="K25" s="106"/>
-      <c r="L25" s="104" t="s">
+      <c r="D25" s="96"/>
+      <c r="E25" s="96"/>
+      <c r="F25" s="96"/>
+      <c r="G25" s="96"/>
+      <c r="H25" s="96"/>
+      <c r="I25" s="96"/>
+      <c r="J25" s="96"/>
+      <c r="K25" s="123"/>
+      <c r="L25" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="M25" s="105"/>
-      <c r="N25" s="105"/>
-      <c r="O25" s="105"/>
-      <c r="P25" s="105"/>
-      <c r="Q25" s="105"/>
-      <c r="R25" s="105"/>
-      <c r="S25" s="105"/>
-      <c r="T25" s="105"/>
-      <c r="U25" s="105"/>
-      <c r="V25" s="105"/>
-      <c r="W25" s="105"/>
-      <c r="X25" s="105"/>
-      <c r="Y25" s="105"/>
-      <c r="Z25" s="105"/>
-      <c r="AA25" s="105"/>
-      <c r="AB25" s="106"/>
-      <c r="AC25" s="104" t="s">
+      <c r="M25" s="96"/>
+      <c r="N25" s="96"/>
+      <c r="O25" s="96"/>
+      <c r="P25" s="96"/>
+      <c r="Q25" s="96"/>
+      <c r="R25" s="96"/>
+      <c r="S25" s="96"/>
+      <c r="T25" s="96"/>
+      <c r="U25" s="96"/>
+      <c r="V25" s="96"/>
+      <c r="W25" s="96"/>
+      <c r="X25" s="96"/>
+      <c r="Y25" s="96"/>
+      <c r="Z25" s="96"/>
+      <c r="AA25" s="96"/>
+      <c r="AB25" s="123"/>
+      <c r="AC25" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="AD25" s="105"/>
-      <c r="AE25" s="105"/>
-      <c r="AF25" s="105"/>
-      <c r="AG25" s="105"/>
-      <c r="AH25" s="105"/>
-      <c r="AI25" s="105"/>
-      <c r="AJ25" s="105"/>
-      <c r="AK25" s="106"/>
-      <c r="AL25" s="121" t="s">
+      <c r="AD25" s="96"/>
+      <c r="AE25" s="96"/>
+      <c r="AF25" s="96"/>
+      <c r="AG25" s="96"/>
+      <c r="AH25" s="96"/>
+      <c r="AI25" s="96"/>
+      <c r="AJ25" s="96"/>
+      <c r="AK25" s="123"/>
+      <c r="AL25" s="108" t="s">
         <v>12</v>
       </c>
       <c r="AM25" s="79"/>
@@ -19645,43 +19647,43 @@
     </row>
     <row r="26" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A26" s="5"/>
-      <c r="B26" s="109"/>
-      <c r="C26" s="112"/>
-      <c r="D26" s="113"/>
-      <c r="E26" s="113"/>
-      <c r="F26" s="113"/>
-      <c r="G26" s="113"/>
-      <c r="H26" s="113"/>
-      <c r="I26" s="113"/>
-      <c r="J26" s="113"/>
-      <c r="K26" s="114"/>
-      <c r="L26" s="112"/>
-      <c r="M26" s="113"/>
-      <c r="N26" s="113"/>
-      <c r="O26" s="113"/>
-      <c r="P26" s="113"/>
-      <c r="Q26" s="113"/>
-      <c r="R26" s="113"/>
-      <c r="S26" s="113"/>
-      <c r="T26" s="113"/>
-      <c r="U26" s="113"/>
-      <c r="V26" s="113"/>
-      <c r="W26" s="113"/>
-      <c r="X26" s="113"/>
-      <c r="Y26" s="113"/>
-      <c r="Z26" s="113"/>
-      <c r="AA26" s="113"/>
-      <c r="AB26" s="114"/>
-      <c r="AC26" s="107"/>
-      <c r="AD26" s="108"/>
-      <c r="AE26" s="108"/>
-      <c r="AF26" s="108"/>
-      <c r="AG26" s="108"/>
-      <c r="AH26" s="108"/>
-      <c r="AI26" s="108"/>
-      <c r="AJ26" s="108"/>
-      <c r="AK26" s="109"/>
-      <c r="AL26" s="122" t="s">
+      <c r="B26" s="121"/>
+      <c r="C26" s="124"/>
+      <c r="D26" s="125"/>
+      <c r="E26" s="125"/>
+      <c r="F26" s="125"/>
+      <c r="G26" s="125"/>
+      <c r="H26" s="125"/>
+      <c r="I26" s="125"/>
+      <c r="J26" s="125"/>
+      <c r="K26" s="126"/>
+      <c r="L26" s="124"/>
+      <c r="M26" s="125"/>
+      <c r="N26" s="125"/>
+      <c r="O26" s="125"/>
+      <c r="P26" s="125"/>
+      <c r="Q26" s="125"/>
+      <c r="R26" s="125"/>
+      <c r="S26" s="125"/>
+      <c r="T26" s="125"/>
+      <c r="U26" s="125"/>
+      <c r="V26" s="125"/>
+      <c r="W26" s="125"/>
+      <c r="X26" s="125"/>
+      <c r="Y26" s="125"/>
+      <c r="Z26" s="125"/>
+      <c r="AA26" s="125"/>
+      <c r="AB26" s="126"/>
+      <c r="AC26" s="133"/>
+      <c r="AD26" s="134"/>
+      <c r="AE26" s="134"/>
+      <c r="AF26" s="134"/>
+      <c r="AG26" s="134"/>
+      <c r="AH26" s="134"/>
+      <c r="AI26" s="134"/>
+      <c r="AJ26" s="134"/>
+      <c r="AK26" s="121"/>
+      <c r="AL26" s="109" t="s">
         <v>13</v>
       </c>
       <c r="AM26" s="79"/>
@@ -19692,14 +19694,14 @@
       <c r="AR26" s="79"/>
       <c r="AS26" s="79"/>
       <c r="AT26" s="80"/>
-      <c r="AU26" s="122" t="s">
+      <c r="AU26" s="109" t="s">
         <v>14</v>
       </c>
       <c r="AV26" s="79"/>
       <c r="AW26" s="79"/>
       <c r="AX26" s="79"/>
       <c r="AY26" s="80"/>
-      <c r="AZ26" s="122" t="s">
+      <c r="AZ26" s="109" t="s">
         <v>15</v>
       </c>
       <c r="BA26" s="79"/>
@@ -19736,51 +19738,51 @@
       <c r="I27" s="174"/>
       <c r="J27" s="174"/>
       <c r="K27" s="175"/>
-      <c r="L27" s="172"/>
-      <c r="M27" s="124"/>
-      <c r="N27" s="124"/>
-      <c r="O27" s="124"/>
-      <c r="P27" s="124"/>
-      <c r="Q27" s="124"/>
-      <c r="R27" s="124"/>
-      <c r="S27" s="124"/>
-      <c r="T27" s="124"/>
-      <c r="U27" s="124"/>
-      <c r="V27" s="124"/>
-      <c r="W27" s="124"/>
-      <c r="X27" s="124"/>
-      <c r="Y27" s="124"/>
-      <c r="Z27" s="124"/>
-      <c r="AA27" s="124"/>
-      <c r="AB27" s="124"/>
-      <c r="AC27" s="88" t="s">
+      <c r="L27" s="176"/>
+      <c r="M27" s="104"/>
+      <c r="N27" s="104"/>
+      <c r="O27" s="104"/>
+      <c r="P27" s="104"/>
+      <c r="Q27" s="104"/>
+      <c r="R27" s="104"/>
+      <c r="S27" s="104"/>
+      <c r="T27" s="104"/>
+      <c r="U27" s="104"/>
+      <c r="V27" s="104"/>
+      <c r="W27" s="104"/>
+      <c r="X27" s="104"/>
+      <c r="Y27" s="104"/>
+      <c r="Z27" s="104"/>
+      <c r="AA27" s="104"/>
+      <c r="AB27" s="104"/>
+      <c r="AC27" s="92" t="s">
         <v>186</v>
       </c>
-      <c r="AD27" s="140"/>
-      <c r="AE27" s="140"/>
-      <c r="AF27" s="140"/>
-      <c r="AG27" s="140"/>
-      <c r="AH27" s="140"/>
-      <c r="AI27" s="140"/>
-      <c r="AJ27" s="140"/>
-      <c r="AK27" s="141"/>
-      <c r="AL27" s="142" t="s">
+      <c r="AD27" s="165"/>
+      <c r="AE27" s="165"/>
+      <c r="AF27" s="165"/>
+      <c r="AG27" s="165"/>
+      <c r="AH27" s="165"/>
+      <c r="AI27" s="165"/>
+      <c r="AJ27" s="165"/>
+      <c r="AK27" s="166"/>
+      <c r="AL27" s="167" t="s">
         <v>187</v>
       </c>
-      <c r="AM27" s="143"/>
-      <c r="AN27" s="143"/>
-      <c r="AO27" s="143"/>
-      <c r="AP27" s="143"/>
-      <c r="AQ27" s="143"/>
-      <c r="AR27" s="143"/>
-      <c r="AS27" s="143"/>
-      <c r="AT27" s="144"/>
-      <c r="AU27" s="89"/>
+      <c r="AM27" s="168"/>
+      <c r="AN27" s="168"/>
+      <c r="AO27" s="168"/>
+      <c r="AP27" s="168"/>
+      <c r="AQ27" s="168"/>
+      <c r="AR27" s="168"/>
+      <c r="AS27" s="168"/>
+      <c r="AT27" s="169"/>
+      <c r="AU27" s="110"/>
       <c r="AV27" s="79"/>
       <c r="AW27" s="79"/>
       <c r="AX27" s="79"/>
       <c r="AY27" s="80"/>
-      <c r="AZ27" s="90"/>
+      <c r="AZ27" s="112"/>
       <c r="BA27" s="79"/>
       <c r="BB27" s="79"/>
       <c r="BC27" s="79"/>
@@ -19804,60 +19806,60 @@
         <f ca="1">MAX(B$25:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>2</v>
       </c>
-      <c r="C28" s="162"/>
-      <c r="D28" s="170"/>
-      <c r="E28" s="170"/>
-      <c r="F28" s="170"/>
-      <c r="G28" s="170"/>
-      <c r="H28" s="170"/>
-      <c r="I28" s="170"/>
-      <c r="J28" s="170"/>
-      <c r="K28" s="171"/>
-      <c r="L28" s="172"/>
-      <c r="M28" s="124"/>
-      <c r="N28" s="124"/>
-      <c r="O28" s="124"/>
-      <c r="P28" s="124"/>
-      <c r="Q28" s="124"/>
-      <c r="R28" s="124"/>
-      <c r="S28" s="124"/>
-      <c r="T28" s="124"/>
-      <c r="U28" s="124"/>
-      <c r="V28" s="124"/>
-      <c r="W28" s="124"/>
-      <c r="X28" s="124"/>
-      <c r="Y28" s="124"/>
-      <c r="Z28" s="124"/>
-      <c r="AA28" s="124"/>
-      <c r="AB28" s="124"/>
-      <c r="AC28" s="88" t="s">
+      <c r="C28" s="140"/>
+      <c r="D28" s="177"/>
+      <c r="E28" s="177"/>
+      <c r="F28" s="177"/>
+      <c r="G28" s="177"/>
+      <c r="H28" s="177"/>
+      <c r="I28" s="177"/>
+      <c r="J28" s="177"/>
+      <c r="K28" s="178"/>
+      <c r="L28" s="176"/>
+      <c r="M28" s="104"/>
+      <c r="N28" s="104"/>
+      <c r="O28" s="104"/>
+      <c r="P28" s="104"/>
+      <c r="Q28" s="104"/>
+      <c r="R28" s="104"/>
+      <c r="S28" s="104"/>
+      <c r="T28" s="104"/>
+      <c r="U28" s="104"/>
+      <c r="V28" s="104"/>
+      <c r="W28" s="104"/>
+      <c r="X28" s="104"/>
+      <c r="Y28" s="104"/>
+      <c r="Z28" s="104"/>
+      <c r="AA28" s="104"/>
+      <c r="AB28" s="104"/>
+      <c r="AC28" s="92" t="s">
         <v>188</v>
       </c>
-      <c r="AD28" s="140"/>
-      <c r="AE28" s="140"/>
-      <c r="AF28" s="140"/>
-      <c r="AG28" s="140"/>
-      <c r="AH28" s="140"/>
-      <c r="AI28" s="140"/>
-      <c r="AJ28" s="140"/>
-      <c r="AK28" s="141"/>
-      <c r="AL28" s="142" t="s">
+      <c r="AD28" s="165"/>
+      <c r="AE28" s="165"/>
+      <c r="AF28" s="165"/>
+      <c r="AG28" s="165"/>
+      <c r="AH28" s="165"/>
+      <c r="AI28" s="165"/>
+      <c r="AJ28" s="165"/>
+      <c r="AK28" s="166"/>
+      <c r="AL28" s="167" t="s">
         <v>189</v>
       </c>
-      <c r="AM28" s="143"/>
-      <c r="AN28" s="143"/>
-      <c r="AO28" s="143"/>
-      <c r="AP28" s="143"/>
-      <c r="AQ28" s="143"/>
-      <c r="AR28" s="143"/>
-      <c r="AS28" s="143"/>
-      <c r="AT28" s="144"/>
-      <c r="AU28" s="89"/>
+      <c r="AM28" s="168"/>
+      <c r="AN28" s="168"/>
+      <c r="AO28" s="168"/>
+      <c r="AP28" s="168"/>
+      <c r="AQ28" s="168"/>
+      <c r="AR28" s="168"/>
+      <c r="AS28" s="168"/>
+      <c r="AT28" s="169"/>
+      <c r="AU28" s="110"/>
       <c r="AV28" s="79"/>
       <c r="AW28" s="79"/>
       <c r="AX28" s="79"/>
       <c r="AY28" s="80"/>
-      <c r="AZ28" s="90"/>
+      <c r="AZ28" s="112"/>
       <c r="BA28" s="79"/>
       <c r="BB28" s="79"/>
       <c r="BC28" s="79"/>
@@ -19881,37 +19883,37 @@
         <f ca="1">MAX(B$25:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>3</v>
       </c>
-      <c r="C29" s="176" t="s">
+      <c r="C29" s="170" t="s">
         <v>159</v>
       </c>
-      <c r="D29" s="177"/>
-      <c r="E29" s="177"/>
-      <c r="F29" s="177"/>
-      <c r="G29" s="177"/>
-      <c r="H29" s="177"/>
-      <c r="I29" s="177"/>
-      <c r="J29" s="177"/>
-      <c r="K29" s="178"/>
-      <c r="L29" s="103" t="s">
+      <c r="D29" s="171"/>
+      <c r="E29" s="171"/>
+      <c r="F29" s="171"/>
+      <c r="G29" s="171"/>
+      <c r="H29" s="171"/>
+      <c r="I29" s="171"/>
+      <c r="J29" s="171"/>
+      <c r="K29" s="172"/>
+      <c r="L29" s="132" t="s">
         <v>190</v>
       </c>
-      <c r="M29" s="103"/>
-      <c r="N29" s="103"/>
-      <c r="O29" s="103"/>
-      <c r="P29" s="103"/>
-      <c r="Q29" s="103"/>
-      <c r="R29" s="103"/>
-      <c r="S29" s="103"/>
-      <c r="T29" s="103"/>
-      <c r="U29" s="103"/>
-      <c r="V29" s="103"/>
-      <c r="W29" s="103"/>
-      <c r="X29" s="103"/>
-      <c r="Y29" s="103"/>
-      <c r="Z29" s="103"/>
-      <c r="AA29" s="103"/>
-      <c r="AB29" s="103"/>
-      <c r="AC29" s="94"/>
+      <c r="M29" s="132"/>
+      <c r="N29" s="132"/>
+      <c r="O29" s="132"/>
+      <c r="P29" s="132"/>
+      <c r="Q29" s="132"/>
+      <c r="R29" s="132"/>
+      <c r="S29" s="132"/>
+      <c r="T29" s="132"/>
+      <c r="U29" s="132"/>
+      <c r="V29" s="132"/>
+      <c r="W29" s="132"/>
+      <c r="X29" s="132"/>
+      <c r="Y29" s="132"/>
+      <c r="Z29" s="132"/>
+      <c r="AA29" s="132"/>
+      <c r="AB29" s="132"/>
+      <c r="AC29" s="105"/>
       <c r="AD29" s="79"/>
       <c r="AE29" s="79"/>
       <c r="AF29" s="79"/>
@@ -19920,7 +19922,7 @@
       <c r="AI29" s="79"/>
       <c r="AJ29" s="79"/>
       <c r="AK29" s="80"/>
-      <c r="AL29" s="89"/>
+      <c r="AL29" s="110"/>
       <c r="AM29" s="79"/>
       <c r="AN29" s="79"/>
       <c r="AO29" s="79"/>
@@ -19929,12 +19931,12 @@
       <c r="AR29" s="79"/>
       <c r="AS29" s="79"/>
       <c r="AT29" s="80"/>
-      <c r="AU29" s="89"/>
+      <c r="AU29" s="110"/>
       <c r="AV29" s="79"/>
       <c r="AW29" s="79"/>
       <c r="AX29" s="79"/>
       <c r="AY29" s="80"/>
-      <c r="AZ29" s="90"/>
+      <c r="AZ29" s="112"/>
       <c r="BA29" s="79"/>
       <c r="BB29" s="79"/>
       <c r="BC29" s="79"/>
@@ -19958,75 +19960,75 @@
         <f ca="1">MAX(B$25:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>4</v>
       </c>
-      <c r="C30" s="135" t="s">
+      <c r="C30" s="106" t="s">
         <v>71</v>
       </c>
-      <c r="D30" s="94"/>
-      <c r="E30" s="94"/>
-      <c r="F30" s="94"/>
-      <c r="G30" s="94"/>
-      <c r="H30" s="94"/>
-      <c r="I30" s="94"/>
-      <c r="J30" s="94"/>
-      <c r="K30" s="95"/>
-      <c r="L30" s="88" t="s">
+      <c r="D30" s="105"/>
+      <c r="E30" s="105"/>
+      <c r="F30" s="105"/>
+      <c r="G30" s="105"/>
+      <c r="H30" s="105"/>
+      <c r="I30" s="105"/>
+      <c r="J30" s="105"/>
+      <c r="K30" s="107"/>
+      <c r="L30" s="92" t="s">
         <v>144</v>
       </c>
-      <c r="M30" s="94"/>
-      <c r="N30" s="94"/>
-      <c r="O30" s="94"/>
-      <c r="P30" s="94"/>
-      <c r="Q30" s="94"/>
-      <c r="R30" s="94"/>
-      <c r="S30" s="94"/>
-      <c r="T30" s="94"/>
-      <c r="U30" s="94"/>
-      <c r="V30" s="94"/>
-      <c r="W30" s="94"/>
-      <c r="X30" s="94"/>
-      <c r="Y30" s="94"/>
-      <c r="Z30" s="94"/>
-      <c r="AA30" s="94"/>
-      <c r="AB30" s="95"/>
-      <c r="AC30" s="88"/>
-      <c r="AD30" s="94"/>
-      <c r="AE30" s="94"/>
-      <c r="AF30" s="94"/>
-      <c r="AG30" s="94"/>
-      <c r="AH30" s="94"/>
-      <c r="AI30" s="94"/>
-      <c r="AJ30" s="94"/>
-      <c r="AK30" s="95"/>
-      <c r="AL30" s="89"/>
-      <c r="AM30" s="136"/>
-      <c r="AN30" s="136"/>
-      <c r="AO30" s="136"/>
-      <c r="AP30" s="136"/>
-      <c r="AQ30" s="136"/>
-      <c r="AR30" s="136"/>
-      <c r="AS30" s="136"/>
-      <c r="AT30" s="137"/>
-      <c r="AU30" s="89"/>
-      <c r="AV30" s="136"/>
-      <c r="AW30" s="136"/>
-      <c r="AX30" s="136"/>
-      <c r="AY30" s="137"/>
-      <c r="AZ30" s="90"/>
-      <c r="BA30" s="138"/>
-      <c r="BB30" s="138"/>
-      <c r="BC30" s="138"/>
-      <c r="BD30" s="138"/>
-      <c r="BE30" s="138"/>
-      <c r="BF30" s="138"/>
-      <c r="BG30" s="138"/>
-      <c r="BH30" s="138"/>
-      <c r="BI30" s="138"/>
-      <c r="BJ30" s="138"/>
-      <c r="BK30" s="138"/>
-      <c r="BL30" s="138"/>
-      <c r="BM30" s="138"/>
-      <c r="BN30" s="138"/>
-      <c r="BO30" s="139"/>
+      <c r="M30" s="105"/>
+      <c r="N30" s="105"/>
+      <c r="O30" s="105"/>
+      <c r="P30" s="105"/>
+      <c r="Q30" s="105"/>
+      <c r="R30" s="105"/>
+      <c r="S30" s="105"/>
+      <c r="T30" s="105"/>
+      <c r="U30" s="105"/>
+      <c r="V30" s="105"/>
+      <c r="W30" s="105"/>
+      <c r="X30" s="105"/>
+      <c r="Y30" s="105"/>
+      <c r="Z30" s="105"/>
+      <c r="AA30" s="105"/>
+      <c r="AB30" s="107"/>
+      <c r="AC30" s="92"/>
+      <c r="AD30" s="105"/>
+      <c r="AE30" s="105"/>
+      <c r="AF30" s="105"/>
+      <c r="AG30" s="105"/>
+      <c r="AH30" s="105"/>
+      <c r="AI30" s="105"/>
+      <c r="AJ30" s="105"/>
+      <c r="AK30" s="107"/>
+      <c r="AL30" s="110"/>
+      <c r="AM30" s="161"/>
+      <c r="AN30" s="161"/>
+      <c r="AO30" s="161"/>
+      <c r="AP30" s="161"/>
+      <c r="AQ30" s="161"/>
+      <c r="AR30" s="161"/>
+      <c r="AS30" s="161"/>
+      <c r="AT30" s="162"/>
+      <c r="AU30" s="110"/>
+      <c r="AV30" s="161"/>
+      <c r="AW30" s="161"/>
+      <c r="AX30" s="161"/>
+      <c r="AY30" s="162"/>
+      <c r="AZ30" s="112"/>
+      <c r="BA30" s="163"/>
+      <c r="BB30" s="163"/>
+      <c r="BC30" s="163"/>
+      <c r="BD30" s="163"/>
+      <c r="BE30" s="163"/>
+      <c r="BF30" s="163"/>
+      <c r="BG30" s="163"/>
+      <c r="BH30" s="163"/>
+      <c r="BI30" s="163"/>
+      <c r="BJ30" s="163"/>
+      <c r="BK30" s="163"/>
+      <c r="BL30" s="163"/>
+      <c r="BM30" s="163"/>
+      <c r="BN30" s="163"/>
+      <c r="BO30" s="164"/>
       <c r="BP30" s="2"/>
     </row>
     <row r="31" spans="1:68" ht="16.5">
@@ -20678,7 +20680,7 @@
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="67" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D40" s="67"/>
       <c r="E40" s="67"/>
@@ -21661,28 +21663,50 @@
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="I10:BO10"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="I7:BO7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="I8:BO8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="I9:BO9"/>
-    <mergeCell ref="AK15:BO15"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="I12:BO12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="C14:P14"/>
-    <mergeCell ref="Q14:W14"/>
-    <mergeCell ref="X14:AD14"/>
-    <mergeCell ref="AE14:AG14"/>
-    <mergeCell ref="AK14:BO14"/>
-    <mergeCell ref="C15:P15"/>
-    <mergeCell ref="Q15:W15"/>
-    <mergeCell ref="X15:AD15"/>
-    <mergeCell ref="AE15:AG15"/>
-    <mergeCell ref="AH15:AJ15"/>
+    <mergeCell ref="AE19:AG19"/>
+    <mergeCell ref="AH19:AJ19"/>
+    <mergeCell ref="Q19:W19"/>
+    <mergeCell ref="X19:AD19"/>
+    <mergeCell ref="AK19:BO19"/>
+    <mergeCell ref="AZ28:BO28"/>
+    <mergeCell ref="C27:K27"/>
+    <mergeCell ref="L27:AB27"/>
+    <mergeCell ref="AC27:AK27"/>
+    <mergeCell ref="AL27:AT27"/>
+    <mergeCell ref="AU27:AY27"/>
+    <mergeCell ref="AZ27:BO27"/>
+    <mergeCell ref="C28:K28"/>
+    <mergeCell ref="L28:AB28"/>
+    <mergeCell ref="AC28:AK28"/>
+    <mergeCell ref="AL28:AT28"/>
+    <mergeCell ref="AU28:AY28"/>
+    <mergeCell ref="AZ30:BO30"/>
+    <mergeCell ref="C29:K29"/>
+    <mergeCell ref="L29:AB29"/>
+    <mergeCell ref="AC29:AK29"/>
+    <mergeCell ref="AL29:AT29"/>
+    <mergeCell ref="AU29:AY29"/>
+    <mergeCell ref="AZ29:BO29"/>
+    <mergeCell ref="C30:K30"/>
+    <mergeCell ref="L30:AB30"/>
+    <mergeCell ref="AC30:AK30"/>
+    <mergeCell ref="AL30:AT30"/>
+    <mergeCell ref="AU30:AY30"/>
+    <mergeCell ref="AE20:AG20"/>
+    <mergeCell ref="AH20:AJ20"/>
+    <mergeCell ref="AK20:BO20"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:K26"/>
+    <mergeCell ref="L25:AB26"/>
+    <mergeCell ref="AC25:AK26"/>
+    <mergeCell ref="AL25:BO25"/>
+    <mergeCell ref="AL26:AT26"/>
+    <mergeCell ref="AU26:AY26"/>
+    <mergeCell ref="AZ26:BO26"/>
+    <mergeCell ref="AK21:BO21"/>
+    <mergeCell ref="D21:P21"/>
+    <mergeCell ref="Q21:W21"/>
+    <mergeCell ref="X21:AD21"/>
     <mergeCell ref="AE21:AG21"/>
     <mergeCell ref="AH21:AJ21"/>
     <mergeCell ref="AK18:BO18"/>
@@ -21699,50 +21723,28 @@
     <mergeCell ref="AH18:AJ18"/>
     <mergeCell ref="Q20:W20"/>
     <mergeCell ref="X20:AD20"/>
-    <mergeCell ref="AE20:AG20"/>
-    <mergeCell ref="AH20:AJ20"/>
-    <mergeCell ref="AK20:BO20"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:K26"/>
-    <mergeCell ref="L25:AB26"/>
-    <mergeCell ref="AC25:AK26"/>
-    <mergeCell ref="AL25:BO25"/>
-    <mergeCell ref="AL26:AT26"/>
-    <mergeCell ref="AU26:AY26"/>
-    <mergeCell ref="AZ26:BO26"/>
-    <mergeCell ref="AK21:BO21"/>
-    <mergeCell ref="AZ30:BO30"/>
-    <mergeCell ref="C29:K29"/>
-    <mergeCell ref="L29:AB29"/>
-    <mergeCell ref="AC29:AK29"/>
-    <mergeCell ref="AL29:AT29"/>
-    <mergeCell ref="AU29:AY29"/>
-    <mergeCell ref="AZ29:BO29"/>
-    <mergeCell ref="C30:K30"/>
-    <mergeCell ref="L30:AB30"/>
-    <mergeCell ref="AC30:AK30"/>
-    <mergeCell ref="AL30:AT30"/>
-    <mergeCell ref="AU30:AY30"/>
-    <mergeCell ref="D21:P21"/>
-    <mergeCell ref="Q21:W21"/>
-    <mergeCell ref="X21:AD21"/>
-    <mergeCell ref="AZ28:BO28"/>
-    <mergeCell ref="C27:K27"/>
-    <mergeCell ref="L27:AB27"/>
-    <mergeCell ref="AC27:AK27"/>
-    <mergeCell ref="AL27:AT27"/>
-    <mergeCell ref="AU27:AY27"/>
-    <mergeCell ref="AZ27:BO27"/>
-    <mergeCell ref="C28:K28"/>
-    <mergeCell ref="L28:AB28"/>
-    <mergeCell ref="AC28:AK28"/>
-    <mergeCell ref="AL28:AT28"/>
-    <mergeCell ref="AU28:AY28"/>
-    <mergeCell ref="AE19:AG19"/>
-    <mergeCell ref="AH19:AJ19"/>
-    <mergeCell ref="Q19:W19"/>
-    <mergeCell ref="X19:AD19"/>
-    <mergeCell ref="AK19:BO19"/>
+    <mergeCell ref="AK15:BO15"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="I12:BO12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="C14:P14"/>
+    <mergeCell ref="Q14:W14"/>
+    <mergeCell ref="X14:AD14"/>
+    <mergeCell ref="AE14:AG14"/>
+    <mergeCell ref="AK14:BO14"/>
+    <mergeCell ref="C15:P15"/>
+    <mergeCell ref="Q15:W15"/>
+    <mergeCell ref="X15:AD15"/>
+    <mergeCell ref="AE15:AG15"/>
+    <mergeCell ref="AH15:AJ15"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="I10:BO10"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="I7:BO7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="I8:BO8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="I9:BO9"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <dataValidations count="1">

--- a/ha-asset/01_design/05_rootapi/設計書_5.10.問い合わせ情報API.xlsx
+++ b/ha-asset/01_design/05_rootapi/設計書_5.10.問い合わせ情報API.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\01_design\05_rootapi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57191B70-38AD-4058-80EF-5BDB475ED2EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A9E1366-2FA9-4770-B23D-0FC821795CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="75" yWindow="300" windowWidth="21450" windowHeight="15150" tabRatio="776" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="75" yWindow="300" windowWidth="21450" windowHeight="15150" tabRatio="776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0.更新履歴" sheetId="1" r:id="rId1"/>
@@ -2449,7 +2449,7 @@
   </sheetPr>
   <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -5235,7 +5235,7 @@
   </sheetPr>
   <dimension ref="A1:BP104"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A49" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
   <cols>
@@ -13145,7 +13145,7 @@
   </sheetPr>
   <dimension ref="A1:BP61"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A28" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
   <cols>
@@ -17779,9 +17779,7 @@
   </sheetPr>
   <dimension ref="A1:BP53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
-    </sheetView>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
   <cols>
